--- a/daily_cum_performance_stat.xlsx
+++ b/daily_cum_performance_stat.xlsx
@@ -234,7 +234,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,6 +248,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -264,7 +272,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,8 +301,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,6 +325,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -301,7 +341,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,52 +355,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -369,11 +363,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -410,187 +410,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,36 +646,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -716,148 +686,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1241,8 +1241,8 @@
   <sheetPr/>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1322,31 +1322,31 @@
         <v>16</v>
       </c>
       <c r="F2" s="7">
-        <v>11.06</v>
+        <v>10.66</v>
       </c>
       <c r="G2" s="7">
         <v>3.94</v>
       </c>
       <c r="H2" s="7">
-        <v>3.47123287671233</v>
+        <v>3.46849315068493</v>
       </c>
       <c r="I2" s="7">
-        <v>21.1211</v>
+        <v>23.8232</v>
       </c>
       <c r="J2" s="7">
         <v>0.585301</v>
       </c>
       <c r="K2" s="7">
-        <v>0.64376130198915</v>
+        <v>0.630393996247655</v>
       </c>
       <c r="L2" s="7">
-        <v>-2.46317007759229</v>
+        <v>2.98133524773598</v>
       </c>
       <c r="M2" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:14">
@@ -1366,22 +1366,22 @@
         <v>20</v>
       </c>
       <c r="F3" s="9">
-        <v>141.71</v>
+        <v>140</v>
       </c>
       <c r="G3" s="9">
         <v>102.4</v>
       </c>
       <c r="H3" s="9">
-        <v>5.42191780821918</v>
+        <v>5.41917808219178</v>
       </c>
       <c r="I3" s="9">
-        <v>4.0952</v>
+        <v>-2.0464</v>
       </c>
       <c r="J3" s="9">
-        <v>24.679186</v>
+        <v>21.713539</v>
       </c>
       <c r="K3" s="9">
-        <v>0.277397501940583</v>
+        <v>0.268571428571429</v>
       </c>
       <c r="L3" s="9">
         <v>-3.27943531364078</v>
@@ -1390,7 +1390,7 @@
         <v>5</v>
       </c>
       <c r="N3" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:14">
@@ -1410,22 +1410,22 @@
         <v>24</v>
       </c>
       <c r="F4" s="9">
-        <v>12.17</v>
+        <v>11.98</v>
       </c>
       <c r="G4" s="9">
         <v>8.8</v>
       </c>
       <c r="H4" s="9">
-        <v>3.12054794520548</v>
+        <v>3.11780821917808</v>
       </c>
       <c r="I4" s="9">
-        <v>0.0206</v>
+        <v>-0.1663</v>
       </c>
       <c r="J4" s="9">
-        <v>36.077657</v>
+        <v>36.038997</v>
       </c>
       <c r="K4" s="9">
-        <v>0.276910435497124</v>
+        <v>0.265442404006678</v>
       </c>
       <c r="L4" s="9">
         <v>0.322309479203913</v>
@@ -1434,7 +1434,7 @@
         <v>5</v>
       </c>
       <c r="N4" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:14">
@@ -1454,31 +1454,31 @@
         <v>28</v>
       </c>
       <c r="F5" s="9">
-        <v>11.19</v>
+        <v>11.53</v>
       </c>
       <c r="G5" s="9">
         <v>9.62</v>
       </c>
       <c r="H5" s="9">
-        <v>3.14794520547945</v>
+        <v>3.14520547945206</v>
       </c>
       <c r="I5" s="9">
-        <v>5.7426</v>
+        <v>3.9177</v>
       </c>
       <c r="J5" s="9">
         <v>30.054744</v>
       </c>
       <c r="K5" s="9">
-        <v>0.140303842716711</v>
+        <v>0.165654813529922</v>
       </c>
       <c r="L5" s="9">
-        <v>0.484538743618178</v>
+        <v>1.7968049788307</v>
       </c>
       <c r="M5" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N5" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:14">
@@ -1498,22 +1498,22 @@
         <v>32</v>
       </c>
       <c r="F6" s="11">
-        <v>60.63</v>
+        <v>58.08</v>
       </c>
       <c r="G6" s="11">
         <v>20.17</v>
       </c>
       <c r="H6" s="11">
-        <v>1.10684931506849</v>
+        <v>1.1041095890411</v>
       </c>
       <c r="I6" s="11">
-        <v>20.9116</v>
+        <v>22.9908</v>
       </c>
       <c r="J6" s="11">
-        <v>2.06397</v>
+        <v>2.06386</v>
       </c>
       <c r="K6" s="11">
-        <v>0.667326406069602</v>
+        <v>0.652720385674931</v>
       </c>
       <c r="L6" s="11">
         <v>2.28302844662551</v>
@@ -1522,7 +1522,7 @@
         <v>9</v>
       </c>
       <c r="N6" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:14">
@@ -1542,31 +1542,31 @@
         <v>36</v>
       </c>
       <c r="F7" s="11">
-        <v>37.38</v>
+        <v>38.47</v>
       </c>
       <c r="G7" s="11">
         <v>21.33</v>
       </c>
       <c r="H7" s="11">
-        <v>1.09315068493151</v>
+        <v>1.09041095890411</v>
       </c>
       <c r="I7" s="11">
-        <v>20.4021</v>
+        <v>18.3762</v>
       </c>
       <c r="J7" s="11">
         <v>5.518117</v>
       </c>
       <c r="K7" s="11">
-        <v>0.429373996789727</v>
+        <v>0.445541980764232</v>
       </c>
       <c r="L7" s="11">
-        <v>10.6186134368607</v>
+        <v>9.3647537722909</v>
       </c>
       <c r="M7" s="11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N7" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1586,22 +1586,22 @@
         <v>40</v>
       </c>
       <c r="F8" s="4">
-        <v>74.47</v>
+        <v>76.31</v>
       </c>
       <c r="G8" s="4">
         <v>19.13</v>
       </c>
       <c r="H8" s="4">
-        <v>2.6986301369863</v>
+        <v>2.6958904109589</v>
       </c>
       <c r="I8" s="4">
-        <v>5.6817</v>
+        <v>5.6041</v>
       </c>
       <c r="J8" s="4">
         <v>1.239651</v>
       </c>
       <c r="K8" s="4">
-        <v>0.743118034107694</v>
+        <v>0.749312016773686</v>
       </c>
       <c r="L8" s="4">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1630,22 +1630,22 @@
         <v>44</v>
       </c>
       <c r="F9" s="4">
-        <v>71.9</v>
+        <v>75</v>
       </c>
       <c r="G9" s="4">
         <v>19.07</v>
       </c>
       <c r="H9" s="4">
-        <v>2.7013698630137</v>
+        <v>2.6986301369863</v>
       </c>
       <c r="I9" s="4">
-        <v>0.0764</v>
+        <v>-0.2029</v>
       </c>
       <c r="J9" s="4">
-        <v>0.554162</v>
+        <v>0.488793</v>
       </c>
       <c r="K9" s="4">
-        <v>0.734770514603616</v>
+        <v>0.745733333333333</v>
       </c>
       <c r="L9" s="4">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:14">
@@ -1674,22 +1674,22 @@
         <v>48</v>
       </c>
       <c r="F10" s="11">
-        <v>56</v>
+        <v>55.98</v>
       </c>
       <c r="G10" s="11">
         <v>14.98</v>
       </c>
       <c r="H10" s="11">
-        <v>2.52876712328767</v>
+        <v>2.52602739726027</v>
       </c>
       <c r="I10" s="11">
-        <v>6.9101</v>
+        <v>6.1113</v>
       </c>
       <c r="J10" s="11">
         <v>3.933463</v>
       </c>
       <c r="K10" s="11">
-        <v>0.7325</v>
+        <v>0.732404430153626</v>
       </c>
       <c r="L10" s="11">
         <v>13.4345157197415</v>
@@ -1698,7 +1698,7 @@
         <v>8</v>
       </c>
       <c r="N10" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:14">
@@ -1718,31 +1718,31 @@
         <v>52</v>
       </c>
       <c r="F11" s="11">
-        <v>17.92</v>
+        <v>18.3</v>
       </c>
       <c r="G11" s="11">
         <v>7.66</v>
       </c>
       <c r="H11" s="11">
-        <v>2.53150684931507</v>
+        <v>2.52876712328767</v>
       </c>
       <c r="I11" s="11">
-        <v>13.4992</v>
+        <v>14.8489</v>
       </c>
       <c r="J11" s="11">
         <v>10.14756</v>
       </c>
       <c r="K11" s="11">
-        <v>0.572544642857143</v>
+        <v>0.581420765027322</v>
       </c>
       <c r="L11" s="11">
-        <v>11.9938551137024</v>
+        <v>10.2030742470356</v>
       </c>
       <c r="M11" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N11" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:14">
@@ -1762,22 +1762,22 @@
         <v>56</v>
       </c>
       <c r="F12" s="7">
-        <v>15.23</v>
+        <v>15.2</v>
       </c>
       <c r="G12" s="7">
         <v>6.25</v>
       </c>
       <c r="H12" s="7">
-        <v>2.91780821917808</v>
+        <v>2.91506849315068</v>
       </c>
       <c r="I12" s="7">
-        <v>31.2857</v>
+        <v>30.572</v>
       </c>
       <c r="J12" s="7">
         <v>0.529199</v>
       </c>
       <c r="K12" s="7">
-        <v>0.58962573867367</v>
+        <v>0.588815789473684</v>
       </c>
       <c r="L12" s="7">
         <v>-10.5838348115761</v>
@@ -1786,7 +1786,7 @@
         <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1" spans="1:14">
@@ -1806,22 +1806,22 @@
         <v>60</v>
       </c>
       <c r="F13" s="11">
-        <v>11.52</v>
+        <v>11.45</v>
       </c>
       <c r="G13" s="11">
         <v>8.25</v>
       </c>
       <c r="H13" s="11">
-        <v>0.232876712328767</v>
+        <v>0.23013698630137</v>
       </c>
       <c r="I13" s="11">
-        <v>5.9416</v>
+        <v>6.2694</v>
       </c>
       <c r="J13" s="11">
         <v>9.085657</v>
       </c>
       <c r="K13" s="11">
-        <v>0.283854166666667</v>
+        <v>0.279475982532751</v>
       </c>
       <c r="L13" s="11">
         <v>4.23490036665576</v>
@@ -1830,7 +1830,7 @@
         <v>3</v>
       </c>
       <c r="N13" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/daily_cum_performance_stat.xlsx
+++ b/daily_cum_performance_stat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>bond code</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>track days</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>win rate</t>
   </si>
   <si>
     <t>123046.SZ</t>
@@ -554,13 +560,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,84 +606,96 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F2">
-        <v>10.33</v>
+        <v>10.61</v>
       </c>
       <c r="G2">
         <v>3.94</v>
       </c>
       <c r="H2">
-        <v>3.465753424657534</v>
+        <v>3.438356164383562</v>
       </c>
       <c r="I2">
-        <v>22.8151</v>
+        <v>23.1389</v>
       </c>
       <c r="J2">
         <v>0.585301</v>
       </c>
       <c r="K2">
-        <v>0.6185866408518877</v>
+        <v>0.6286522148916117</v>
       </c>
       <c r="L2">
-        <v>7.769874676777594</v>
+        <v>12.68290702362019</v>
       </c>
       <c r="M2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N2">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="O2">
+        <v>9</v>
+      </c>
+      <c r="P2">
+        <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F3">
-        <v>134.9</v>
+        <v>140.33</v>
       </c>
       <c r="G3">
         <v>102.4</v>
       </c>
       <c r="H3">
-        <v>5.416438356164384</v>
+        <v>5.389041095890411</v>
       </c>
       <c r="I3">
-        <v>-0.354</v>
+        <v>-0.3481</v>
       </c>
       <c r="J3">
-        <v>20.943044</v>
+        <v>20.123192</v>
       </c>
       <c r="K3">
-        <v>0.2409191994069681</v>
+        <v>0.2702914558540583</v>
       </c>
       <c r="L3">
         <v>-3.279435313640781</v>
@@ -686,42 +704,48 @@
         <v>5</v>
       </c>
       <c r="N3">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F4">
-        <v>12.03</v>
+        <v>12.15</v>
       </c>
       <c r="G4">
         <v>8.800000000000001</v>
       </c>
       <c r="H4">
-        <v>3.115068493150685</v>
+        <v>3.087671232876712</v>
       </c>
       <c r="I4">
-        <v>-0.0062</v>
+        <v>-0.0016</v>
       </c>
       <c r="J4">
-        <v>35.953347</v>
+        <v>35.906907</v>
       </c>
       <c r="K4">
-        <v>0.2684954280964255</v>
+        <v>0.2757201646090535</v>
       </c>
       <c r="L4">
         <v>0.3223094792039133</v>
@@ -730,174 +754,198 @@
         <v>5</v>
       </c>
       <c r="N4">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F5">
-        <v>11.59</v>
+        <v>11.41</v>
       </c>
       <c r="G5">
         <v>9.619999999999999</v>
       </c>
       <c r="H5">
-        <v>3.142465753424657</v>
+        <v>3.115068493150685</v>
       </c>
       <c r="I5">
-        <v>3.4312</v>
+        <v>4.5873</v>
       </c>
       <c r="J5">
         <v>30.054744</v>
       </c>
       <c r="K5">
-        <v>0.1699741156169112</v>
+        <v>0.1568799298860649</v>
       </c>
       <c r="L5">
-        <v>1.796804978830696</v>
+        <v>2.921538074536217</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N5">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>0.625</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F6">
-        <v>55.26</v>
+        <v>49.73</v>
       </c>
       <c r="G6">
         <v>20.17</v>
       </c>
       <c r="H6">
-        <v>1.101369863013699</v>
+        <v>1.073972602739726</v>
       </c>
       <c r="I6">
-        <v>21.723</v>
+        <v>20.3195</v>
       </c>
       <c r="J6">
-        <v>2.06386</v>
+        <v>2.06385</v>
       </c>
       <c r="K6">
-        <v>0.6349981903727832</v>
+        <v>0.5944098129901467</v>
       </c>
       <c r="L6">
-        <v>8.125629782781861</v>
+        <v>-7.782913908672004</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N6">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>0.4545454545454545</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F7">
-        <v>37.88</v>
+        <v>36.92</v>
       </c>
       <c r="G7">
         <v>21.33</v>
       </c>
       <c r="H7">
-        <v>1.087671232876712</v>
+        <v>1.06027397260274</v>
       </c>
       <c r="I7">
-        <v>20.3377</v>
+        <v>19.7241</v>
       </c>
       <c r="J7">
         <v>5.518117</v>
       </c>
       <c r="K7">
-        <v>0.4369060190073918</v>
+        <v>0.422264355362947</v>
       </c>
       <c r="L7">
-        <v>12.03477757313567</v>
+        <v>8.713435326006708</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N7">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="O7">
+        <v>9</v>
+      </c>
+      <c r="P7">
+        <v>0.5625</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F8">
-        <v>71.39</v>
+        <v>70.8</v>
       </c>
       <c r="G8">
         <v>19.13</v>
       </c>
       <c r="H8">
-        <v>2.693150684931507</v>
+        <v>2.665753424657535</v>
       </c>
       <c r="I8">
-        <v>5.0065</v>
+        <v>8.260899999999999</v>
       </c>
       <c r="J8">
-        <v>1.239621</v>
+        <v>1.2396</v>
       </c>
       <c r="K8">
-        <v>0.7320352990614932</v>
+        <v>0.7298022598870058</v>
       </c>
       <c r="L8">
         <v>-2.120064386832893</v>
@@ -906,42 +954,48 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F9">
-        <v>72.87</v>
+        <v>69.73999999999999</v>
       </c>
       <c r="G9">
         <v>19.07</v>
       </c>
       <c r="H9">
-        <v>2.695890410958904</v>
+        <v>2.668493150684931</v>
       </c>
       <c r="I9">
-        <v>-1.5572</v>
+        <v>-0.1929</v>
       </c>
       <c r="J9">
-        <v>0.45443</v>
+        <v>0.42906</v>
       </c>
       <c r="K9">
-        <v>0.7383010841224098</v>
+        <v>0.7265557786062518</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -950,183 +1004,213 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F10">
-        <v>56.08</v>
+        <v>54.5</v>
       </c>
       <c r="G10">
         <v>14.98</v>
       </c>
       <c r="H10">
-        <v>2.523287671232877</v>
+        <v>2.495890410958904</v>
       </c>
       <c r="I10">
-        <v>5.9848</v>
+        <v>4.8053</v>
       </c>
       <c r="J10">
-        <v>3.93343</v>
+        <v>3.93342</v>
       </c>
       <c r="K10">
-        <v>0.7328815977175462</v>
+        <v>0.725137614678899</v>
       </c>
       <c r="L10">
-        <v>13.43451571974152</v>
+        <v>19.49391657922773</v>
       </c>
       <c r="M10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N10">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <v>0.6666666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11">
-        <v>18.18</v>
+        <v>17.98</v>
       </c>
       <c r="G11">
         <v>7.66</v>
       </c>
       <c r="H11">
-        <v>2.526027397260274</v>
+        <v>2.498630136986301</v>
       </c>
       <c r="I11">
-        <v>12.1908</v>
+        <v>12.5113</v>
       </c>
       <c r="J11">
         <v>10.14755</v>
       </c>
       <c r="K11">
-        <v>0.5786578657865786</v>
+        <v>0.5739710789766407</v>
       </c>
       <c r="L11">
-        <v>10.20307424703563</v>
+        <v>9.281867394755333</v>
       </c>
       <c r="M11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N11">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="O11">
+        <v>7</v>
+      </c>
+      <c r="P11">
+        <v>0.5833333333333334</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F12">
-        <v>14.92</v>
+        <v>14.12</v>
       </c>
       <c r="G12">
         <v>6.25</v>
       </c>
       <c r="H12">
-        <v>2.912328767123288</v>
+        <v>2.884931506849315</v>
       </c>
       <c r="I12">
-        <v>31.759</v>
+        <v>35.4059</v>
       </c>
       <c r="J12">
         <v>0.529199</v>
       </c>
       <c r="K12">
-        <v>0.5810991957104558</v>
+        <v>0.5573654390934843</v>
       </c>
       <c r="L12">
-        <v>-13.33115110420348</v>
+        <v>-16.74386713649809</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N12">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>0.4444444444444444</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F13">
-        <v>11.45</v>
+        <v>11.51</v>
       </c>
       <c r="G13">
         <v>8.25</v>
       </c>
       <c r="H13">
-        <v>0.2273972602739726</v>
+        <v>0.2</v>
       </c>
       <c r="I13">
-        <v>7.1419</v>
+        <v>5.2394</v>
       </c>
       <c r="J13">
-        <v>9.085656999999999</v>
+        <v>9.085656</v>
       </c>
       <c r="K13">
-        <v>0.279475982532751</v>
+        <v>0.2832319721980886</v>
       </c>
       <c r="L13">
-        <v>3.486486065345727</v>
+        <v>3.444718807135488</v>
       </c>
       <c r="M13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/daily_cum_performance_stat.xlsx
+++ b/daily_cum_performance_stat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13420"/>
+    <workbookView windowWidth="27720" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -210,10 +210,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -233,13 +233,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -255,13 +248,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -283,10 +269,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,6 +330,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -306,76 +376,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -404,13 +404,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,55 +476,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,120 +597,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,15 +628,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -652,17 +643,52 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,198 +709,173 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -894,6 +895,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1248,7 +1250,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1272,650 +1274,650 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:16">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>10.61</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="8">
         <v>3.94</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>3.43835616438356</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="8">
         <v>23.1389</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="8">
         <v>0.585301</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="8">
         <v>0.628652214891612</v>
       </c>
-      <c r="L2" s="7">
-        <v>12.6829070236202</v>
-      </c>
-      <c r="M2" s="7">
-        <v>15</v>
-      </c>
-      <c r="N2" s="7">
+      <c r="L2" s="8">
+        <v>2.68086659374199</v>
+      </c>
+      <c r="M2" s="8">
         <v>17</v>
       </c>
-      <c r="O2" s="7">
-        <v>9</v>
-      </c>
-      <c r="P2" s="7">
-        <v>0.6</v>
+      <c r="N2" s="8">
+        <v>19</v>
+      </c>
+      <c r="O2" s="8">
+        <v>10</v>
+      </c>
+      <c r="P2" s="8">
+        <v>0.588235294117647</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:16">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>140.33</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="10">
         <v>102.4</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="10">
         <v>5.38904109589041</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="10">
         <v>-0.3481</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="10">
         <v>20.123192</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="10">
         <v>0.270291455854058</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="10">
         <v>-3.27943531364078</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="10">
         <v>5</v>
       </c>
-      <c r="N3" s="9">
-        <v>17</v>
-      </c>
-      <c r="O3" s="9">
+      <c r="N3" s="10">
+        <v>19</v>
+      </c>
+      <c r="O3" s="10">
         <v>2</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="10">
         <v>0.4</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:16">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>12.15</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <v>8.8</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="10">
         <v>3.08767123287671</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="10">
         <v>-0.0016</v>
       </c>
-      <c r="J4" s="9">
-        <v>35.906907</v>
-      </c>
-      <c r="K4" s="9">
+      <c r="J4" s="10">
+        <v>35.90689</v>
+      </c>
+      <c r="K4" s="10">
         <v>0.275720164609054</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="10">
         <v>0.322309479203913</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="10">
         <v>5</v>
       </c>
-      <c r="N4" s="9">
-        <v>17</v>
-      </c>
-      <c r="O4" s="9">
+      <c r="N4" s="10">
+        <v>19</v>
+      </c>
+      <c r="O4" s="10">
         <v>3</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="10">
         <v>0.6</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:16">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>11.41</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="10">
         <v>9.62</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="10">
         <v>3.11506849315068</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="10">
         <v>4.5873</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="10">
         <v>30.054744</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="10">
         <v>0.156879929886065</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="10">
         <v>2.92153807453622</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="10">
         <v>8</v>
       </c>
-      <c r="N5" s="9">
-        <v>17</v>
-      </c>
-      <c r="O5" s="9">
+      <c r="N5" s="10">
+        <v>19</v>
+      </c>
+      <c r="O5" s="10">
         <v>5</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="10">
         <v>0.625</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:16">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="12">
         <v>49.73</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="12">
         <v>20.17</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="12">
         <v>1.07397260273973</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="12">
         <v>20.3195</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="12">
         <v>2.06385</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="12">
         <v>0.594409812990147</v>
       </c>
-      <c r="L6" s="11">
-        <v>-7.782913908672</v>
-      </c>
-      <c r="M6" s="11">
-        <v>11</v>
-      </c>
-      <c r="N6" s="11">
-        <v>17</v>
-      </c>
-      <c r="O6" s="11">
+      <c r="L6" s="12">
+        <v>-18.6192684201771</v>
+      </c>
+      <c r="M6" s="12">
+        <v>13</v>
+      </c>
+      <c r="N6" s="12">
+        <v>19</v>
+      </c>
+      <c r="O6" s="12">
+        <v>6</v>
+      </c>
+      <c r="P6" s="12">
+        <v>0.461538461538462</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" spans="1:16">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="P6" s="11">
-        <v>0.454545454545454</v>
+      <c r="B7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="14">
+        <v>36.92</v>
+      </c>
+      <c r="G7" s="14">
+        <v>21.33</v>
+      </c>
+      <c r="H7" s="14">
+        <v>1.06027397260274</v>
+      </c>
+      <c r="I7" s="14">
+        <v>19.7241</v>
+      </c>
+      <c r="J7" s="14">
+        <v>5.518117</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0.422264355362947</v>
+      </c>
+      <c r="L7" s="14">
+        <v>10.5154020918539</v>
+      </c>
+      <c r="M7" s="14">
+        <v>18</v>
+      </c>
+      <c r="N7" s="14">
+        <v>19</v>
+      </c>
+      <c r="O7" s="14">
+        <v>10</v>
+      </c>
+      <c r="P7" s="14">
+        <v>0.555555555555556</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:16">
-      <c r="A7" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="11">
-        <v>36.92</v>
-      </c>
-      <c r="G7" s="11">
-        <v>21.33</v>
-      </c>
-      <c r="H7" s="11">
-        <v>1.06027397260274</v>
-      </c>
-      <c r="I7" s="11">
-        <v>19.7241</v>
-      </c>
-      <c r="J7" s="11">
-        <v>5.518117</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0.422264355362947</v>
-      </c>
-      <c r="L7" s="11">
-        <v>8.71343532600671</v>
-      </c>
-      <c r="M7" s="11">
-        <v>16</v>
-      </c>
-      <c r="N7" s="11">
-        <v>17</v>
-      </c>
-      <c r="O7" s="11">
-        <v>9</v>
-      </c>
-      <c r="P7" s="11">
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="5">
+    <row r="8" s="4" customFormat="1" spans="1:16">
+      <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="14">
         <v>70.8</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="14">
         <v>19.13</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="14">
         <v>2.66575342465753</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="14">
         <v>8.2609</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="14">
         <v>1.2396</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="14">
         <v>0.729802259887006</v>
       </c>
-      <c r="L8" s="4">
-        <v>-2.12006438683289</v>
-      </c>
-      <c r="M8" s="4">
-        <v>1</v>
-      </c>
-      <c r="N8" s="4">
-        <v>17</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0</v>
-      </c>
-      <c r="P8" s="4">
-        <v>0</v>
+      <c r="L8" s="14">
+        <v>9.70819124304247</v>
+      </c>
+      <c r="M8" s="14">
+        <v>3</v>
+      </c>
+      <c r="N8" s="14">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14">
+        <v>2</v>
+      </c>
+      <c r="P8" s="14">
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>69.74</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>19.07</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>2.66849315068493</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="5">
         <v>-0.1929</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="5">
         <v>0.42906</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="5">
         <v>0.726555778606252</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="5">
         <v>0</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="5">
         <v>0</v>
       </c>
-      <c r="N9" s="4">
-        <v>17</v>
-      </c>
-      <c r="O9" s="4">
+      <c r="N9" s="5">
+        <v>19</v>
+      </c>
+      <c r="O9" s="5">
         <v>0</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:16">
-      <c r="A10" s="10">
+    <row r="10" s="4" customFormat="1" spans="1:16">
+      <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="14">
         <v>54.5</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="14">
         <v>14.98</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="14">
         <v>2.4958904109589</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="14">
         <v>4.8053</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="14">
         <v>3.93342</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="14">
         <v>0.725137614678899</v>
       </c>
-      <c r="L10" s="11">
-        <v>19.4939165792277</v>
-      </c>
-      <c r="M10" s="11">
+      <c r="L10" s="14">
+        <v>13.1455118350543</v>
+      </c>
+      <c r="M10" s="14">
+        <v>11</v>
+      </c>
+      <c r="N10" s="14">
+        <v>19</v>
+      </c>
+      <c r="O10" s="14">
+        <v>7</v>
+      </c>
+      <c r="P10" s="14">
+        <v>0.636363636363636</v>
+      </c>
+    </row>
+    <row r="11" s="4" customFormat="1" spans="1:16">
+      <c r="A11" s="13">
         <v>9</v>
       </c>
-      <c r="N10" s="11">
-        <v>17</v>
-      </c>
-      <c r="O10" s="11">
-        <v>6</v>
-      </c>
-      <c r="P10" s="11">
-        <v>0.666666666666667</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:16">
-      <c r="A11" s="10">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="14">
         <v>17.98</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="14">
         <v>7.66</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="14">
         <v>2.4986301369863</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="14">
         <v>12.5113</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="14">
         <v>10.14755</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="14">
         <v>0.573971078976641</v>
       </c>
-      <c r="L11" s="11">
-        <v>9.28186739475533</v>
-      </c>
-      <c r="M11" s="11">
-        <v>12</v>
-      </c>
-      <c r="N11" s="11">
-        <v>17</v>
-      </c>
-      <c r="O11" s="11">
-        <v>7</v>
-      </c>
-      <c r="P11" s="11">
-        <v>0.583333333333333</v>
+      <c r="L11" s="14">
+        <v>5.73298522326258</v>
+      </c>
+      <c r="M11" s="14">
+        <v>14</v>
+      </c>
+      <c r="N11" s="14">
+        <v>19</v>
+      </c>
+      <c r="O11" s="14">
+        <v>8</v>
+      </c>
+      <c r="P11" s="14">
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:16">
-      <c r="A12" s="6">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="8">
         <v>14.12</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="8">
         <v>6.25</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="8">
         <v>2.88493150684931</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="8">
         <v>35.4059</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="8">
         <v>0.529199</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="8">
         <v>0.557365439093484</v>
       </c>
-      <c r="L12" s="7">
-        <v>-16.7438671364981</v>
-      </c>
-      <c r="M12" s="7">
-        <v>9</v>
-      </c>
-      <c r="N12" s="7">
-        <v>17</v>
-      </c>
-      <c r="O12" s="7">
-        <v>4</v>
-      </c>
-      <c r="P12" s="7">
-        <v>0.444444444444444</v>
+      <c r="L12" s="8">
+        <v>-9.45566120566233</v>
+      </c>
+      <c r="M12" s="8">
+        <v>10</v>
+      </c>
+      <c r="N12" s="8">
+        <v>19</v>
+      </c>
+      <c r="O12" s="8">
+        <v>5</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:16">
-      <c r="A13" s="10">
+    <row r="13" s="4" customFormat="1" spans="1:16">
+      <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="14">
         <v>11.51</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="14">
         <v>8.25</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="14">
         <v>0.2</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="14">
         <v>5.2394</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="14">
         <v>9.085656</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="14">
         <v>0.283231972198089</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="14">
         <v>3.44471880713549</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="14">
         <v>5</v>
       </c>
-      <c r="N13" s="11">
-        <v>8</v>
-      </c>
-      <c r="O13" s="11">
+      <c r="N13" s="14">
+        <v>10</v>
+      </c>
+      <c r="O13" s="14">
         <v>3</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="14">
         <v>0.6</v>
       </c>
     </row>

--- a/daily_cum_performance_stat.xlsx
+++ b/daily_cum_performance_stat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13420"/>
+    <workbookView windowWidth="27660" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
   <si>
     <t>bond code</t>
   </si>
@@ -203,6 +203,54 @@
   </si>
   <si>
     <t>太阳纸业</t>
+  </si>
+  <si>
+    <t>128111.SZ</t>
+  </si>
+  <si>
+    <t>中矿转债</t>
+  </si>
+  <si>
+    <t>002738.SZ</t>
+  </si>
+  <si>
+    <t>中矿资源</t>
+  </si>
+  <si>
+    <t>128095.SZ</t>
+  </si>
+  <si>
+    <t>恩捷转债</t>
+  </si>
+  <si>
+    <t>002812.SZ</t>
+  </si>
+  <si>
+    <t>恩捷股份</t>
+  </si>
+  <si>
+    <t>113626.SH</t>
+  </si>
+  <si>
+    <t>伯特转债</t>
+  </si>
+  <si>
+    <t>603596.SH</t>
+  </si>
+  <si>
+    <t>伯特利</t>
+  </si>
+  <si>
+    <t>123092.SZ</t>
+  </si>
+  <si>
+    <t>天壕转债</t>
+  </si>
+  <si>
+    <t>300332.SZ</t>
+  </si>
+  <si>
+    <t>天壕环境</t>
   </si>
 </sst>
 </file>
@@ -211,8 +259,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -233,37 +281,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,21 +324,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -299,16 +331,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,14 +363,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,7 +379,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,22 +407,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,199 +452,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,8 +670,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,11 +700,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,21 +722,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,189 +741,182 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -892,10 +933,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1247,10 +1284,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1274,651 +1311,851 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:16">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="8">
-        <v>10.61</v>
-      </c>
-      <c r="G2" s="8">
+      <c r="F2" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="G2" s="7">
         <v>3.94</v>
       </c>
-      <c r="H2" s="8">
-        <v>3.43835616438356</v>
-      </c>
-      <c r="I2" s="8">
-        <v>23.1389</v>
-      </c>
-      <c r="J2" s="8">
+      <c r="H2" s="7">
+        <v>3.43013698630137</v>
+      </c>
+      <c r="I2" s="7">
+        <v>28.5972</v>
+      </c>
+      <c r="J2" s="7">
         <v>0.585301</v>
       </c>
-      <c r="K2" s="8">
-        <v>0.628652214891612</v>
-      </c>
-      <c r="L2" s="8">
-        <v>2.68086659374199</v>
-      </c>
-      <c r="M2" s="8">
-        <v>17</v>
-      </c>
-      <c r="N2" s="8">
-        <v>19</v>
-      </c>
-      <c r="O2" s="8">
-        <v>10</v>
-      </c>
-      <c r="P2" s="8">
-        <v>0.588235294117647</v>
+      <c r="K2" s="7">
+        <v>0.635185185185185</v>
+      </c>
+      <c r="L2" s="7">
+        <v>9.79477319374201</v>
+      </c>
+      <c r="M2" s="7">
+        <v>18</v>
+      </c>
+      <c r="N2" s="7">
+        <v>20</v>
+      </c>
+      <c r="O2" s="7">
+        <v>11</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0.611111111111111</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:16">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="10">
-        <v>140.33</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="F3" s="9">
+        <v>139.5</v>
+      </c>
+      <c r="G3" s="9">
         <v>102.4</v>
       </c>
-      <c r="H3" s="10">
-        <v>5.38904109589041</v>
-      </c>
-      <c r="I3" s="10">
-        <v>-0.3481</v>
-      </c>
-      <c r="J3" s="10">
-        <v>20.123192</v>
-      </c>
-      <c r="K3" s="10">
-        <v>0.270291455854058</v>
-      </c>
-      <c r="L3" s="10">
-        <v>-3.27943531364078</v>
-      </c>
-      <c r="M3" s="10">
-        <v>5</v>
-      </c>
-      <c r="N3" s="10">
-        <v>19</v>
-      </c>
-      <c r="O3" s="10">
-        <v>2</v>
-      </c>
-      <c r="P3" s="10">
-        <v>0.4</v>
+      <c r="H3" s="9">
+        <v>5.38082191780822</v>
+      </c>
+      <c r="I3" s="9">
+        <v>-0.4085</v>
+      </c>
+      <c r="J3" s="9">
+        <v>19.570799</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0.26594982078853</v>
+      </c>
+      <c r="L3" s="9">
+        <v>-2.92683021858699</v>
+      </c>
+      <c r="M3" s="9">
+        <v>6</v>
+      </c>
+      <c r="N3" s="9">
+        <v>20</v>
+      </c>
+      <c r="O3" s="9">
+        <v>3</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:16">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="10">
-        <v>12.15</v>
-      </c>
-      <c r="G4" s="10">
+      <c r="F4" s="9">
+        <v>12.48</v>
+      </c>
+      <c r="G4" s="9">
         <v>8.8</v>
       </c>
-      <c r="H4" s="10">
-        <v>3.08767123287671</v>
-      </c>
-      <c r="I4" s="10">
-        <v>-0.0016</v>
-      </c>
-      <c r="J4" s="10">
-        <v>35.90689</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0.275720164609054</v>
-      </c>
-      <c r="L4" s="10">
+      <c r="H4" s="9">
+        <v>3.07945205479452</v>
+      </c>
+      <c r="I4" s="9">
+        <v>-0.0008</v>
+      </c>
+      <c r="J4" s="9">
+        <v>35.441163</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.294871794871795</v>
+      </c>
+      <c r="L4" s="9">
         <v>0.322309479203913</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="9">
         <v>5</v>
       </c>
-      <c r="N4" s="10">
-        <v>19</v>
-      </c>
-      <c r="O4" s="10">
+      <c r="N4" s="9">
+        <v>20</v>
+      </c>
+      <c r="O4" s="9">
         <v>3</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="9">
         <v>0.6</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:16">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="10">
-        <v>11.41</v>
-      </c>
-      <c r="G5" s="10">
+      <c r="F5" s="9">
+        <v>11.77</v>
+      </c>
+      <c r="G5" s="9">
         <v>9.62</v>
       </c>
-      <c r="H5" s="10">
-        <v>3.11506849315068</v>
-      </c>
-      <c r="I5" s="10">
-        <v>4.5873</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="H5" s="9">
+        <v>3.10684931506849</v>
+      </c>
+      <c r="I5" s="9">
+        <v>4.7133</v>
+      </c>
+      <c r="J5" s="9">
         <v>30.054744</v>
       </c>
-      <c r="K5" s="10">
-        <v>0.156879929886065</v>
-      </c>
-      <c r="L5" s="10">
-        <v>2.92153807453622</v>
-      </c>
-      <c r="M5" s="10">
-        <v>8</v>
-      </c>
-      <c r="N5" s="10">
+      <c r="K5" s="9">
+        <v>0.182667799490229</v>
+      </c>
+      <c r="L5" s="9">
+        <v>2.82957119722099</v>
+      </c>
+      <c r="M5" s="9">
+        <v>9</v>
+      </c>
+      <c r="N5" s="9">
+        <v>20</v>
+      </c>
+      <c r="O5" s="9">
+        <v>5</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0.555555555555556</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:16">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="9">
+        <v>51.87</v>
+      </c>
+      <c r="G6" s="9">
+        <v>20.17</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1.06575342465753</v>
+      </c>
+      <c r="I6" s="9">
+        <v>22.9923</v>
+      </c>
+      <c r="J6" s="9">
+        <v>2.06378</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.61114324272219</v>
+      </c>
+      <c r="L6" s="9">
+        <v>-22.1622563358123</v>
+      </c>
+      <c r="M6" s="9">
+        <v>14</v>
+      </c>
+      <c r="N6" s="9">
+        <v>20</v>
+      </c>
+      <c r="O6" s="9">
+        <v>6</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0.428571428571428</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:16">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="11">
+        <v>38.04</v>
+      </c>
+      <c r="G7" s="11">
+        <v>21.33</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1.05205479452055</v>
+      </c>
+      <c r="I7" s="11">
+        <v>28.2945</v>
+      </c>
+      <c r="J7" s="11">
+        <v>5.517917</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0.439274447949527</v>
+      </c>
+      <c r="L7" s="11">
+        <v>13.8803776828634</v>
+      </c>
+      <c r="M7" s="11">
         <v>19</v>
       </c>
-      <c r="O5" s="10">
-        <v>5</v>
-      </c>
-      <c r="P5" s="10">
-        <v>0.625</v>
+      <c r="N7" s="11">
+        <v>20</v>
+      </c>
+      <c r="O7" s="11">
+        <v>11</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0.578947368421053</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:16">
-      <c r="A6" s="11">
+    <row r="8" s="3" customFormat="1" spans="1:16">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="11">
+        <v>78.3</v>
+      </c>
+      <c r="G8" s="11">
+        <v>19.13</v>
+      </c>
+      <c r="H8" s="11">
+        <v>2.65753424657534</v>
+      </c>
+      <c r="I8" s="11">
+        <v>7.6051</v>
+      </c>
+      <c r="J8" s="11">
+        <v>1.23959</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0.755683269476373</v>
+      </c>
+      <c r="L8" s="11">
+        <v>14.102096914077</v>
+      </c>
+      <c r="M8" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="12">
-        <v>49.73</v>
-      </c>
-      <c r="G6" s="12">
-        <v>20.17</v>
-      </c>
-      <c r="H6" s="12">
-        <v>1.07397260273973</v>
-      </c>
-      <c r="I6" s="12">
-        <v>20.3195</v>
-      </c>
-      <c r="J6" s="12">
-        <v>2.06385</v>
-      </c>
-      <c r="K6" s="12">
-        <v>0.594409812990147</v>
-      </c>
-      <c r="L6" s="12">
-        <v>-18.6192684201771</v>
-      </c>
-      <c r="M6" s="12">
-        <v>13</v>
-      </c>
-      <c r="N6" s="12">
-        <v>19</v>
-      </c>
-      <c r="O6" s="12">
-        <v>6</v>
-      </c>
-      <c r="P6" s="12">
-        <v>0.461538461538462</v>
-      </c>
-    </row>
-    <row r="7" s="4" customFormat="1" spans="1:16">
-      <c r="A7" s="13">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="14">
-        <v>36.92</v>
-      </c>
-      <c r="G7" s="14">
-        <v>21.33</v>
-      </c>
-      <c r="H7" s="14">
-        <v>1.06027397260274</v>
-      </c>
-      <c r="I7" s="14">
-        <v>19.7241</v>
-      </c>
-      <c r="J7" s="14">
-        <v>5.518117</v>
-      </c>
-      <c r="K7" s="14">
-        <v>0.422264355362947</v>
-      </c>
-      <c r="L7" s="14">
-        <v>10.5154020918539</v>
-      </c>
-      <c r="M7" s="14">
-        <v>18</v>
-      </c>
-      <c r="N7" s="14">
-        <v>19</v>
-      </c>
-      <c r="O7" s="14">
-        <v>10</v>
-      </c>
-      <c r="P7" s="14">
-        <v>0.555555555555556</v>
-      </c>
-    </row>
-    <row r="8" s="4" customFormat="1" spans="1:16">
-      <c r="A8" s="13">
-        <v>6</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="14">
-        <v>70.8</v>
-      </c>
-      <c r="G8" s="14">
-        <v>19.13</v>
-      </c>
-      <c r="H8" s="14">
-        <v>2.66575342465753</v>
-      </c>
-      <c r="I8" s="14">
-        <v>8.2609</v>
-      </c>
-      <c r="J8" s="14">
-        <v>1.2396</v>
-      </c>
-      <c r="K8" s="14">
-        <v>0.729802259887006</v>
-      </c>
-      <c r="L8" s="14">
-        <v>9.70819124304247</v>
-      </c>
-      <c r="M8" s="14">
+      <c r="N8" s="11">
+        <v>20</v>
+      </c>
+      <c r="O8" s="11">
         <v>3</v>
       </c>
-      <c r="N8" s="14">
-        <v>19</v>
-      </c>
-      <c r="O8" s="14">
-        <v>2</v>
-      </c>
-      <c r="P8" s="14">
-        <v>0.666666666666667</v>
+      <c r="P8" s="11">
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="5">
-        <v>69.74</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="4">
+        <v>73.69</v>
+      </c>
+      <c r="G9" s="4">
         <v>19.07</v>
       </c>
-      <c r="H9" s="5">
-        <v>2.66849315068493</v>
-      </c>
-      <c r="I9" s="5">
-        <v>-0.1929</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0.42906</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0.726555778606252</v>
-      </c>
-      <c r="L9" s="5">
+      <c r="H9" s="4">
+        <v>2.66027397260274</v>
+      </c>
+      <c r="I9" s="4">
+        <v>-0.7811</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.218769</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.741213190392183</v>
+      </c>
+      <c r="L9" s="4">
         <v>0</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <v>0</v>
       </c>
-      <c r="N9" s="5">
-        <v>19</v>
-      </c>
-      <c r="O9" s="5">
+      <c r="N9" s="4">
+        <v>20</v>
+      </c>
+      <c r="O9" s="4">
         <v>0</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" spans="1:16">
-      <c r="A10" s="13">
+    <row r="10" s="3" customFormat="1" spans="1:16">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="14">
-        <v>54.5</v>
-      </c>
-      <c r="G10" s="14">
+      <c r="F10" s="11">
+        <v>58.7</v>
+      </c>
+      <c r="G10" s="11">
         <v>14.98</v>
       </c>
-      <c r="H10" s="14">
-        <v>2.4958904109589</v>
-      </c>
-      <c r="I10" s="14">
-        <v>4.8053</v>
-      </c>
-      <c r="J10" s="14">
-        <v>3.93342</v>
-      </c>
-      <c r="K10" s="14">
-        <v>0.725137614678899</v>
-      </c>
-      <c r="L10" s="14">
-        <v>13.1455118350543</v>
-      </c>
-      <c r="M10" s="14">
-        <v>11</v>
-      </c>
-      <c r="N10" s="14">
-        <v>19</v>
-      </c>
-      <c r="O10" s="14">
-        <v>7</v>
-      </c>
-      <c r="P10" s="14">
-        <v>0.636363636363636</v>
+      <c r="H10" s="11">
+        <v>2.48767123287671</v>
+      </c>
+      <c r="I10" s="11">
+        <v>9.733</v>
+      </c>
+      <c r="J10" s="11">
+        <v>3.93338</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0.744804088586031</v>
+      </c>
+      <c r="L10" s="11">
+        <v>14.93481240439</v>
+      </c>
+      <c r="M10" s="11">
+        <v>12</v>
+      </c>
+      <c r="N10" s="11">
+        <v>20</v>
+      </c>
+      <c r="O10" s="11">
+        <v>8</v>
+      </c>
+      <c r="P10" s="11">
+        <v>0.666666666666667</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" spans="1:16">
-      <c r="A11" s="13">
+    <row r="11" s="3" customFormat="1" spans="1:16">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="14">
-        <v>17.98</v>
-      </c>
-      <c r="G11" s="14">
+      <c r="F11" s="11">
+        <v>19.43</v>
+      </c>
+      <c r="G11" s="11">
         <v>7.66</v>
       </c>
-      <c r="H11" s="14">
-        <v>2.4986301369863</v>
-      </c>
-      <c r="I11" s="14">
-        <v>12.5113</v>
-      </c>
-      <c r="J11" s="14">
-        <v>10.14755</v>
-      </c>
-      <c r="K11" s="14">
-        <v>0.573971078976641</v>
-      </c>
-      <c r="L11" s="14">
-        <v>5.73298522326258</v>
-      </c>
-      <c r="M11" s="14">
-        <v>14</v>
-      </c>
-      <c r="N11" s="14">
-        <v>19</v>
-      </c>
-      <c r="O11" s="14">
+      <c r="H11" s="11">
+        <v>2.49041095890411</v>
+      </c>
+      <c r="I11" s="11">
+        <v>16.4273</v>
+      </c>
+      <c r="J11" s="11">
+        <v>10.14751</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0.605764282038085</v>
+      </c>
+      <c r="L11" s="11">
+        <v>5.36759632269646</v>
+      </c>
+      <c r="M11" s="11">
+        <v>15</v>
+      </c>
+      <c r="N11" s="11">
+        <v>20</v>
+      </c>
+      <c r="O11" s="11">
         <v>8</v>
       </c>
-      <c r="P11" s="14">
-        <v>0.571428571428571</v>
+      <c r="P11" s="11">
+        <v>0.533333333333333</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:16">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="8">
-        <v>14.12</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="F12" s="7">
+        <v>14.6</v>
+      </c>
+      <c r="G12" s="7">
         <v>6.25</v>
       </c>
-      <c r="H12" s="8">
-        <v>2.88493150684931</v>
-      </c>
-      <c r="I12" s="8">
-        <v>35.4059</v>
-      </c>
-      <c r="J12" s="8">
+      <c r="H12" s="7">
+        <v>2.87671232876712</v>
+      </c>
+      <c r="I12" s="7">
+        <v>37.8425</v>
+      </c>
+      <c r="J12" s="7">
         <v>0.529199</v>
       </c>
-      <c r="K12" s="8">
-        <v>0.557365439093484</v>
-      </c>
-      <c r="L12" s="8">
+      <c r="K12" s="7">
+        <v>0.571917808219178</v>
+      </c>
+      <c r="L12" s="7">
         <v>-9.45566120566233</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <v>10</v>
       </c>
-      <c r="N12" s="8">
-        <v>19</v>
-      </c>
-      <c r="O12" s="8">
+      <c r="N12" s="7">
+        <v>20</v>
+      </c>
+      <c r="O12" s="7">
         <v>5</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" spans="1:16">
-      <c r="A13" s="13">
+    <row r="13" s="3" customFormat="1" spans="1:16">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="14">
-        <v>11.51</v>
-      </c>
-      <c r="G13" s="14">
+      <c r="F13" s="11">
+        <v>11.69</v>
+      </c>
+      <c r="G13" s="11">
         <v>8.25</v>
       </c>
-      <c r="H13" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="I13" s="14">
-        <v>5.2394</v>
-      </c>
-      <c r="J13" s="14">
-        <v>9.085656</v>
-      </c>
-      <c r="K13" s="14">
-        <v>0.283231972198089</v>
-      </c>
-      <c r="L13" s="14">
+      <c r="H13" s="11">
+        <v>0.191780821917808</v>
+      </c>
+      <c r="I13" s="11">
+        <v>5.648</v>
+      </c>
+      <c r="J13" s="11">
+        <v>9.085646</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0.294268605645851</v>
+      </c>
+      <c r="L13" s="11">
         <v>3.44471880713549</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="11">
         <v>5</v>
       </c>
-      <c r="N13" s="14">
-        <v>10</v>
-      </c>
-      <c r="O13" s="14">
+      <c r="N13" s="11">
+        <v>11</v>
+      </c>
+      <c r="O13" s="11">
         <v>3</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="11">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:16">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="7">
+        <v>85.65</v>
+      </c>
+      <c r="G14" s="7">
+        <v>10.96</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3.66027397260274</v>
+      </c>
+      <c r="I14" s="7">
+        <v>14.8335</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1.148071</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.872037361354349</v>
+      </c>
+      <c r="L14" s="7">
+        <v>-29.2215309639229</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:16">
+      <c r="A15" s="10">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="11">
+        <v>176.5</v>
+      </c>
+      <c r="G15" s="11">
+        <v>64.62</v>
+      </c>
+      <c r="H15" s="11">
+        <v>3.33150684931507</v>
+      </c>
+      <c r="I15" s="11">
+        <v>21.7338</v>
+      </c>
+      <c r="J15" s="11">
+        <v>4.539255</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0.633881019830028</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0.0565193521360218</v>
+      </c>
+      <c r="M15" s="11">
+        <v>1</v>
+      </c>
+      <c r="N15" s="11">
+        <v>1</v>
+      </c>
+      <c r="O15" s="11">
+        <v>1</v>
+      </c>
+      <c r="P15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:16">
+      <c r="A16" s="10">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="11">
+        <v>89.53</v>
+      </c>
+      <c r="G16" s="11">
+        <v>35.88</v>
+      </c>
+      <c r="H16" s="11">
+        <v>4.70958904109589</v>
+      </c>
+      <c r="I16" s="11">
+        <v>7.7185</v>
+      </c>
+      <c r="J16" s="11">
+        <v>8.35377</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0.59924047805205</v>
+      </c>
+      <c r="L16" s="11">
+        <v>4.98045513119621</v>
+      </c>
+      <c r="M16" s="11">
+        <v>1</v>
+      </c>
+      <c r="N16" s="11">
+        <v>1</v>
+      </c>
+      <c r="O16" s="11">
+        <v>1</v>
+      </c>
+      <c r="P16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="4">
+        <v>12.59</v>
+      </c>
+      <c r="G17" s="4">
+        <v>5.14</v>
+      </c>
+      <c r="H17" s="4">
+        <v>4.1972602739726</v>
+      </c>
+      <c r="I17" s="4">
+        <v>11.4551</v>
+      </c>
+      <c r="J17" s="4">
+        <v>4.142013</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.591739475774424</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/daily_cum_performance_stat.xlsx
+++ b/daily_cum_performance_stat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>bond code</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>天壕环境</t>
+  </si>
+  <si>
+    <t>sum pnl</t>
   </si>
 </sst>
 </file>
@@ -258,10 +261,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -288,6 +291,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -302,22 +320,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -328,74 +332,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -416,7 +352,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -430,8 +366,75 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,193 +455,205 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,17 +691,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,32 +704,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -741,15 +724,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -764,159 +738,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -933,6 +949,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1284,10 +1308,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1308,854 +1332,864 @@
     <col min="14" max="14" width="10.5384615384615" customWidth="1"/>
     <col min="15" max="15" width="4.92307692307692" customWidth="1"/>
     <col min="16" max="16" width="12.9230769230769" customWidth="1"/>
+    <col min="18" max="18" width="12.9230769230769"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:16">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="7">
-        <v>10.8</v>
-      </c>
-      <c r="G2" s="7">
+      <c r="F2" s="8">
+        <v>11.39</v>
+      </c>
+      <c r="G2" s="8">
         <v>3.94</v>
       </c>
-      <c r="H2" s="7">
-        <v>3.43013698630137</v>
-      </c>
-      <c r="I2" s="7">
-        <v>28.5972</v>
-      </c>
-      <c r="J2" s="7">
+      <c r="H2" s="8">
+        <v>3.42739726027397</v>
+      </c>
+      <c r="I2" s="8">
+        <v>27.4318</v>
+      </c>
+      <c r="J2" s="8">
         <v>0.585301</v>
       </c>
-      <c r="K2" s="7">
-        <v>0.635185185185185</v>
-      </c>
-      <c r="L2" s="7">
-        <v>9.79477319374201</v>
-      </c>
-      <c r="M2" s="7">
-        <v>18</v>
-      </c>
-      <c r="N2" s="7">
-        <v>20</v>
-      </c>
-      <c r="O2" s="7">
+      <c r="K2" s="8">
+        <v>0.654082528533802</v>
+      </c>
+      <c r="L2" s="8">
+        <v>9.07009698531359</v>
+      </c>
+      <c r="M2" s="8">
+        <v>19</v>
+      </c>
+      <c r="N2" s="8">
+        <v>21</v>
+      </c>
+      <c r="O2" s="8">
         <v>11</v>
       </c>
-      <c r="P2" s="7">
-        <v>0.611111111111111</v>
+      <c r="P2" s="8">
+        <v>0.578947368421053</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:16">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="9">
-        <v>139.5</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="F3" s="10">
+        <v>148</v>
+      </c>
+      <c r="G3" s="10">
         <v>102.4</v>
       </c>
-      <c r="H3" s="9">
-        <v>5.38082191780822</v>
-      </c>
-      <c r="I3" s="9">
-        <v>-0.4085</v>
-      </c>
-      <c r="J3" s="9">
-        <v>19.570799</v>
-      </c>
-      <c r="K3" s="9">
-        <v>0.26594982078853</v>
-      </c>
-      <c r="L3" s="9">
-        <v>-2.92683021858699</v>
-      </c>
-      <c r="M3" s="9">
-        <v>6</v>
-      </c>
-      <c r="N3" s="9">
-        <v>20</v>
-      </c>
-      <c r="O3" s="9">
-        <v>3</v>
-      </c>
-      <c r="P3" s="9">
-        <v>0.5</v>
+      <c r="H3" s="10">
+        <v>5.37808219178082</v>
+      </c>
+      <c r="I3" s="10">
+        <v>-2.1658</v>
+      </c>
+      <c r="J3" s="10">
+        <v>15.757158</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.308108108108108</v>
+      </c>
+      <c r="L3" s="10">
+        <v>-2.58418402561402</v>
+      </c>
+      <c r="M3" s="10">
+        <v>7</v>
+      </c>
+      <c r="N3" s="10">
+        <v>21</v>
+      </c>
+      <c r="O3" s="10">
+        <v>4</v>
+      </c>
+      <c r="P3" s="10">
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:16">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="9">
-        <v>12.48</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="F4" s="10">
+        <v>12.49</v>
+      </c>
+      <c r="G4" s="10">
         <v>8.8</v>
       </c>
-      <c r="H4" s="9">
-        <v>3.07945205479452</v>
-      </c>
-      <c r="I4" s="9">
-        <v>-0.0008</v>
-      </c>
-      <c r="J4" s="9">
+      <c r="H4" s="10">
+        <v>3.07671232876712</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.2348</v>
+      </c>
+      <c r="J4" s="10">
         <v>35.441163</v>
       </c>
-      <c r="K4" s="9">
-        <v>0.294871794871795</v>
-      </c>
-      <c r="L4" s="9">
+      <c r="K4" s="10">
+        <v>0.295436349079263</v>
+      </c>
+      <c r="L4" s="10">
         <v>0.322309479203913</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="10">
         <v>5</v>
       </c>
-      <c r="N4" s="9">
-        <v>20</v>
-      </c>
-      <c r="O4" s="9">
+      <c r="N4" s="10">
+        <v>21</v>
+      </c>
+      <c r="O4" s="10">
         <v>3</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="10">
         <v>0.6</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:16">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="9">
-        <v>11.77</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="F5" s="10">
+        <v>11.89</v>
+      </c>
+      <c r="G5" s="10">
         <v>9.62</v>
       </c>
-      <c r="H5" s="9">
-        <v>3.10684931506849</v>
-      </c>
-      <c r="I5" s="9">
-        <v>4.7133</v>
-      </c>
-      <c r="J5" s="9">
+      <c r="H5" s="10">
+        <v>3.1041095890411</v>
+      </c>
+      <c r="I5" s="10">
+        <v>3.5594</v>
+      </c>
+      <c r="J5" s="10">
         <v>30.054744</v>
       </c>
-      <c r="K5" s="9">
-        <v>0.182667799490229</v>
-      </c>
-      <c r="L5" s="9">
-        <v>2.82957119722099</v>
-      </c>
-      <c r="M5" s="9">
-        <v>9</v>
-      </c>
-      <c r="N5" s="9">
+      <c r="K5" s="10">
+        <v>0.190916736753575</v>
+      </c>
+      <c r="L5" s="10">
+        <v>1.65322120495859</v>
+      </c>
+      <c r="M5" s="10">
+        <v>10</v>
+      </c>
+      <c r="N5" s="10">
+        <v>21</v>
+      </c>
+      <c r="O5" s="10">
+        <v>5</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:16">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="12">
+        <v>54.44</v>
+      </c>
+      <c r="G6" s="12">
+        <v>20.17</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1.06301369863014</v>
+      </c>
+      <c r="I6" s="12">
+        <v>19.8288</v>
+      </c>
+      <c r="J6" s="12">
+        <v>2.06374</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0.629500367376929</v>
+      </c>
+      <c r="L6" s="12">
+        <v>-19.024859471999</v>
+      </c>
+      <c r="M6" s="12">
+        <v>15</v>
+      </c>
+      <c r="N6" s="12">
+        <v>21</v>
+      </c>
+      <c r="O6" s="12">
+        <v>7</v>
+      </c>
+      <c r="P6" s="12">
+        <v>0.466666666666667</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" spans="1:16">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="14">
+        <v>38.93</v>
+      </c>
+      <c r="G7" s="14">
+        <v>21.33</v>
+      </c>
+      <c r="H7" s="14">
+        <v>1.04931506849315</v>
+      </c>
+      <c r="I7" s="14">
+        <v>25.3057</v>
+      </c>
+      <c r="J7" s="14">
+        <v>5.517917</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0.452093501155921</v>
+      </c>
+      <c r="L7" s="14">
+        <v>13.3191114422263</v>
+      </c>
+      <c r="M7" s="14">
         <v>20</v>
       </c>
-      <c r="O5" s="9">
+      <c r="N7" s="14">
+        <v>21</v>
+      </c>
+      <c r="O7" s="14">
+        <v>11</v>
+      </c>
+      <c r="P7" s="14">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" spans="1:16">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="14">
+        <v>81.35</v>
+      </c>
+      <c r="G8" s="14">
+        <v>19.13</v>
+      </c>
+      <c r="H8" s="14">
+        <v>2.65479452054794</v>
+      </c>
+      <c r="I8" s="14">
+        <v>5.8756</v>
+      </c>
+      <c r="J8" s="14">
+        <v>1.23959</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0.764843269821758</v>
+      </c>
+      <c r="L8" s="14">
+        <v>11.9875346153677</v>
+      </c>
+      <c r="M8" s="14">
         <v>5</v>
       </c>
-      <c r="P5" s="9">
-        <v>0.555555555555556</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:16">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="9">
-        <v>51.87</v>
-      </c>
-      <c r="G6" s="9">
-        <v>20.17</v>
-      </c>
-      <c r="H6" s="9">
-        <v>1.06575342465753</v>
-      </c>
-      <c r="I6" s="9">
-        <v>22.9923</v>
-      </c>
-      <c r="J6" s="9">
-        <v>2.06378</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0.61114324272219</v>
-      </c>
-      <c r="L6" s="9">
-        <v>-22.1622563358123</v>
-      </c>
-      <c r="M6" s="9">
-        <v>14</v>
-      </c>
-      <c r="N6" s="9">
-        <v>20</v>
-      </c>
-      <c r="O6" s="9">
-        <v>6</v>
-      </c>
-      <c r="P6" s="9">
-        <v>0.428571428571428</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:16">
-      <c r="A7" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="11">
-        <v>38.04</v>
-      </c>
-      <c r="G7" s="11">
-        <v>21.33</v>
-      </c>
-      <c r="H7" s="11">
-        <v>1.05205479452055</v>
-      </c>
-      <c r="I7" s="11">
-        <v>28.2945</v>
-      </c>
-      <c r="J7" s="11">
-        <v>5.517917</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0.439274447949527</v>
-      </c>
-      <c r="L7" s="11">
-        <v>13.8803776828634</v>
-      </c>
-      <c r="M7" s="11">
-        <v>19</v>
-      </c>
-      <c r="N7" s="11">
-        <v>20</v>
-      </c>
-      <c r="O7" s="11">
-        <v>11</v>
-      </c>
-      <c r="P7" s="11">
-        <v>0.578947368421053</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:16">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="11">
-        <v>78.3</v>
-      </c>
-      <c r="G8" s="11">
-        <v>19.13</v>
-      </c>
-      <c r="H8" s="11">
-        <v>2.65753424657534</v>
-      </c>
-      <c r="I8" s="11">
-        <v>7.6051</v>
-      </c>
-      <c r="J8" s="11">
-        <v>1.23959</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0.755683269476373</v>
-      </c>
-      <c r="L8" s="11">
-        <v>14.102096914077</v>
-      </c>
-      <c r="M8" s="11">
-        <v>4</v>
-      </c>
-      <c r="N8" s="11">
-        <v>20</v>
-      </c>
-      <c r="O8" s="11">
+      <c r="N8" s="14">
+        <v>21</v>
+      </c>
+      <c r="O8" s="14">
         <v>3</v>
       </c>
-      <c r="P8" s="11">
-        <v>0.75</v>
+      <c r="P8" s="14">
+        <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="4">
-        <v>73.69</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="F9" s="5">
+        <v>75.02</v>
+      </c>
+      <c r="G9" s="5">
         <v>19.07</v>
       </c>
-      <c r="H9" s="4">
-        <v>2.66027397260274</v>
-      </c>
-      <c r="I9" s="4">
-        <v>-0.7811</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0.218769</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0.741213190392183</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="H9" s="5">
+        <v>2.65753424657534</v>
+      </c>
+      <c r="I9" s="5">
+        <v>-0.1786</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.162682</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.745801119701413</v>
+      </c>
+      <c r="L9" s="5">
         <v>0</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="5">
         <v>0</v>
       </c>
-      <c r="N9" s="4">
-        <v>20</v>
-      </c>
-      <c r="O9" s="4">
+      <c r="N9" s="5">
+        <v>21</v>
+      </c>
+      <c r="O9" s="5">
         <v>0</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:16">
-      <c r="A10" s="10">
+    <row r="10" s="4" customFormat="1" spans="1:16">
+      <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="11">
-        <v>58.7</v>
-      </c>
-      <c r="G10" s="11">
+      <c r="F10" s="14">
+        <v>56.7</v>
+      </c>
+      <c r="G10" s="14">
         <v>14.98</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="14">
+        <v>2.48493150684931</v>
+      </c>
+      <c r="I10" s="14">
+        <v>11.4412</v>
+      </c>
+      <c r="J10" s="14">
+        <v>3.93338</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0.735802469135802</v>
+      </c>
+      <c r="L10" s="14">
+        <v>24.2723120855187</v>
+      </c>
+      <c r="M10" s="14">
+        <v>13</v>
+      </c>
+      <c r="N10" s="14">
+        <v>21</v>
+      </c>
+      <c r="O10" s="14">
+        <v>9</v>
+      </c>
+      <c r="P10" s="14">
+        <v>0.692307692307692</v>
+      </c>
+    </row>
+    <row r="11" s="4" customFormat="1" spans="1:16">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="14">
+        <v>19.75</v>
+      </c>
+      <c r="G11" s="14">
+        <v>7.66</v>
+      </c>
+      <c r="H11" s="14">
         <v>2.48767123287671</v>
       </c>
-      <c r="I10" s="11">
-        <v>9.733</v>
-      </c>
-      <c r="J10" s="11">
-        <v>3.93338</v>
-      </c>
-      <c r="K10" s="11">
-        <v>0.744804088586031</v>
-      </c>
-      <c r="L10" s="11">
-        <v>14.93481240439</v>
-      </c>
-      <c r="M10" s="11">
-        <v>12</v>
-      </c>
-      <c r="N10" s="11">
-        <v>20</v>
-      </c>
-      <c r="O10" s="11">
+      <c r="I11" s="14">
+        <v>18.4345</v>
+      </c>
+      <c r="J11" s="14">
+        <v>10.14751</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0.612151898734177</v>
+      </c>
+      <c r="L11" s="14">
+        <v>2.64776025484839</v>
+      </c>
+      <c r="M11" s="14">
+        <v>16</v>
+      </c>
+      <c r="N11" s="14">
+        <v>21</v>
+      </c>
+      <c r="O11" s="14">
         <v>8</v>
       </c>
-      <c r="P10" s="11">
-        <v>0.666666666666667</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:16">
-      <c r="A11" s="10">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="11">
-        <v>19.43</v>
-      </c>
-      <c r="G11" s="11">
-        <v>7.66</v>
-      </c>
-      <c r="H11" s="11">
-        <v>2.49041095890411</v>
-      </c>
-      <c r="I11" s="11">
-        <v>16.4273</v>
-      </c>
-      <c r="J11" s="11">
-        <v>10.14751</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0.605764282038085</v>
-      </c>
-      <c r="L11" s="11">
-        <v>5.36759632269646</v>
-      </c>
-      <c r="M11" s="11">
-        <v>15</v>
-      </c>
-      <c r="N11" s="11">
-        <v>20</v>
-      </c>
-      <c r="O11" s="11">
-        <v>8</v>
-      </c>
-      <c r="P11" s="11">
-        <v>0.533333333333333</v>
+      <c r="P11" s="14">
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:16">
-      <c r="A12" s="6">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="7">
-        <v>14.6</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="F12" s="8">
+        <v>14.96</v>
+      </c>
+      <c r="G12" s="8">
         <v>6.25</v>
       </c>
-      <c r="H12" s="7">
-        <v>2.87671232876712</v>
-      </c>
-      <c r="I12" s="7">
-        <v>37.8425</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="H12" s="8">
+        <v>2.87397260273973</v>
+      </c>
+      <c r="I12" s="8">
+        <v>38.689</v>
+      </c>
+      <c r="J12" s="8">
         <v>0.529199</v>
       </c>
-      <c r="K12" s="7">
-        <v>0.571917808219178</v>
-      </c>
-      <c r="L12" s="7">
-        <v>-9.45566120566233</v>
-      </c>
-      <c r="M12" s="7">
-        <v>10</v>
-      </c>
-      <c r="N12" s="7">
-        <v>20</v>
-      </c>
-      <c r="O12" s="7">
+      <c r="K12" s="8">
+        <v>0.582219251336898</v>
+      </c>
+      <c r="L12" s="8">
+        <v>-1.50279388534145</v>
+      </c>
+      <c r="M12" s="8">
+        <v>11</v>
+      </c>
+      <c r="N12" s="8">
+        <v>21</v>
+      </c>
+      <c r="O12" s="8">
+        <v>6</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0.545454545454545</v>
+      </c>
+    </row>
+    <row r="13" s="4" customFormat="1" spans="1:16">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="14">
+        <v>11.89</v>
+      </c>
+      <c r="G13" s="14">
+        <v>8.25</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0.189041095890411</v>
+      </c>
+      <c r="I13" s="14">
+        <v>5.4668</v>
+      </c>
+      <c r="J13" s="14">
+        <v>9.085646</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0.306139613120269</v>
+      </c>
+      <c r="L13" s="14">
+        <v>3.44471880713549</v>
+      </c>
+      <c r="M13" s="14">
         <v>5</v>
       </c>
-      <c r="P12" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:16">
-      <c r="A13" s="10">
-        <v>11</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="11">
-        <v>11.69</v>
-      </c>
-      <c r="G13" s="11">
-        <v>8.25</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0.191780821917808</v>
-      </c>
-      <c r="I13" s="11">
-        <v>5.648</v>
-      </c>
-      <c r="J13" s="11">
-        <v>9.085646</v>
-      </c>
-      <c r="K13" s="11">
-        <v>0.294268605645851</v>
-      </c>
-      <c r="L13" s="11">
-        <v>3.44471880713549</v>
-      </c>
-      <c r="M13" s="11">
-        <v>5</v>
-      </c>
-      <c r="N13" s="11">
-        <v>11</v>
-      </c>
-      <c r="O13" s="11">
+      <c r="N13" s="14">
+        <v>12</v>
+      </c>
+      <c r="O13" s="14">
         <v>3</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="14">
         <v>0.6</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:16">
-      <c r="A14" s="6">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="7">
-        <v>85.65</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="F14" s="8">
+        <v>92.55</v>
+      </c>
+      <c r="G14" s="8">
         <v>10.96</v>
       </c>
-      <c r="H14" s="7">
-        <v>3.66027397260274</v>
-      </c>
-      <c r="I14" s="7">
-        <v>14.8335</v>
-      </c>
-      <c r="J14" s="7">
-        <v>1.148071</v>
-      </c>
-      <c r="K14" s="7">
-        <v>0.872037361354349</v>
-      </c>
-      <c r="L14" s="7">
-        <v>-29.2215309639229</v>
-      </c>
-      <c r="M14" s="7">
+      <c r="H14" s="8">
+        <v>3.65753424657534</v>
+      </c>
+      <c r="I14" s="8">
+        <v>9.8983</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1.148061</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0.881577525661804</v>
+      </c>
+      <c r="L14" s="8">
+        <v>-25.2173297975694</v>
+      </c>
+      <c r="M14" s="8">
+        <v>2</v>
+      </c>
+      <c r="N14" s="8">
+        <v>2</v>
+      </c>
+      <c r="O14" s="8">
         <v>1</v>
       </c>
-      <c r="N14" s="7">
-        <v>1</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
-        <v>0</v>
+      <c r="P14" s="8">
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" spans="1:16">
-      <c r="A15" s="10">
+      <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="11">
-        <v>176.5</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="F15" s="12">
+        <v>175.76</v>
+      </c>
+      <c r="G15" s="12">
         <v>64.62</v>
       </c>
-      <c r="H15" s="11">
-        <v>3.33150684931507</v>
-      </c>
-      <c r="I15" s="11">
-        <v>21.7338</v>
-      </c>
-      <c r="J15" s="11">
+      <c r="H15" s="12">
+        <v>3.32876712328767</v>
+      </c>
+      <c r="I15" s="12">
+        <v>23.1294</v>
+      </c>
+      <c r="J15" s="12">
         <v>4.539255</v>
       </c>
-      <c r="K15" s="11">
-        <v>0.633881019830028</v>
-      </c>
-      <c r="L15" s="11">
-        <v>0.0565193521360218</v>
-      </c>
-      <c r="M15" s="11">
+      <c r="K15" s="12">
+        <v>0.632339553937187</v>
+      </c>
+      <c r="L15" s="12">
+        <v>-9.04816665933416</v>
+      </c>
+      <c r="M15" s="12">
+        <v>2</v>
+      </c>
+      <c r="N15" s="12">
+        <v>2</v>
+      </c>
+      <c r="O15" s="12">
         <v>1</v>
       </c>
-      <c r="N15" s="11">
-        <v>1</v>
-      </c>
-      <c r="O15" s="11">
-        <v>1</v>
-      </c>
-      <c r="P15" s="11">
-        <v>1</v>
+      <c r="P15" s="12">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:16">
-      <c r="A16" s="10">
+    <row r="16" s="4" customFormat="1" spans="1:16">
+      <c r="A16" s="13">
         <v>14</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="11">
-        <v>89.53</v>
-      </c>
-      <c r="G16" s="11">
+      <c r="F16" s="14">
+        <v>88.69</v>
+      </c>
+      <c r="G16" s="14">
         <v>35.88</v>
       </c>
-      <c r="H16" s="11">
-        <v>4.70958904109589</v>
-      </c>
-      <c r="I16" s="11">
-        <v>7.7185</v>
-      </c>
-      <c r="J16" s="11">
+      <c r="H16" s="14">
+        <v>4.70684931506849</v>
+      </c>
+      <c r="I16" s="14">
+        <v>7.7221</v>
+      </c>
+      <c r="J16" s="14">
         <v>8.35377</v>
       </c>
-      <c r="K16" s="11">
-        <v>0.59924047805205</v>
-      </c>
-      <c r="L16" s="11">
-        <v>4.98045513119621</v>
-      </c>
-      <c r="M16" s="11">
-        <v>1</v>
-      </c>
-      <c r="N16" s="11">
-        <v>1</v>
-      </c>
-      <c r="O16" s="11">
-        <v>1</v>
-      </c>
-      <c r="P16" s="11">
+      <c r="K16" s="14">
+        <v>0.595444807757357</v>
+      </c>
+      <c r="L16" s="14">
+        <v>10.5134207824986</v>
+      </c>
+      <c r="M16" s="14">
+        <v>2</v>
+      </c>
+      <c r="N16" s="14">
+        <v>2</v>
+      </c>
+      <c r="O16" s="14">
+        <v>2</v>
+      </c>
+      <c r="P16" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="4">
-        <v>12.59</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="F17" s="5">
+        <v>13.19</v>
+      </c>
+      <c r="G17" s="5">
         <v>5.14</v>
       </c>
-      <c r="H17" s="4">
-        <v>4.1972602739726</v>
-      </c>
-      <c r="I17" s="4">
-        <v>11.4551</v>
-      </c>
-      <c r="J17" s="4">
+      <c r="H17" s="5">
+        <v>4.1945205479452</v>
+      </c>
+      <c r="I17" s="5">
+        <v>9.9699</v>
+      </c>
+      <c r="J17" s="5">
         <v>4.142013</v>
       </c>
-      <c r="K17" s="4">
-        <v>0.591739475774424</v>
-      </c>
-      <c r="L17" s="4">
+      <c r="K17" s="5">
+        <v>0.610310841546626</v>
+      </c>
+      <c r="L17" s="5">
         <v>0</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="5">
         <v>0</v>
       </c>
-      <c r="N17" s="4">
-        <v>1</v>
-      </c>
-      <c r="O17" s="4">
+      <c r="N17" s="5">
+        <v>2</v>
+      </c>
+      <c r="O17" s="5">
         <v>0</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="5">
         <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="17:18">
+      <c r="Q19" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="R19" s="5">
+        <f>SUM(L2:L17)</f>
+        <v>19.8531518172132</v>
       </c>
     </row>
   </sheetData>

--- a/daily_cum_performance_stat.xlsx
+++ b/daily_cum_performance_stat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
   <si>
     <t>bond code</t>
   </si>
@@ -251,9 +251,6 @@
   </si>
   <si>
     <t>天壕环境</t>
-  </si>
-  <si>
-    <t>sum pnl</t>
   </si>
 </sst>
 </file>
@@ -261,10 +258,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -290,6 +287,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -299,6 +304,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -312,22 +325,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -337,15 +334,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,22 +381,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,7 +403,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,24 +430,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,7 +464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,31 +476,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,61 +626,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,79 +644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,20 +682,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,6 +712,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -735,21 +741,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,152 +773,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -953,10 +944,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1308,10 +1295,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1332,7 +1319,6 @@
     <col min="14" max="14" width="10.5384615384615" customWidth="1"/>
     <col min="15" max="15" width="4.92307692307692" customWidth="1"/>
     <col min="16" max="16" width="12.9230769230769" customWidth="1"/>
-    <col min="18" max="18" width="12.9230769230769"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1367,7 +1353,7 @@
       <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="6" t="s">
@@ -1400,37 +1386,37 @@
         <v>18</v>
       </c>
       <c r="F2" s="8">
-        <v>11.39</v>
+        <v>11.34</v>
       </c>
       <c r="G2" s="8">
         <v>3.94</v>
       </c>
       <c r="H2" s="8">
-        <v>3.42739726027397</v>
+        <v>3.41917808219178</v>
       </c>
       <c r="I2" s="8">
-        <v>27.4318</v>
+        <v>25.4268</v>
       </c>
       <c r="J2" s="8">
         <v>0.585301</v>
       </c>
       <c r="K2" s="8">
-        <v>0.654082528533802</v>
+        <v>0.652557319223986</v>
       </c>
       <c r="L2" s="8">
-        <v>9.07009698531359</v>
+        <v>9.41154765092205</v>
       </c>
       <c r="M2" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O2" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P2" s="8">
-        <v>0.578947368421053</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:16">
@@ -1450,22 +1436,22 @@
         <v>22</v>
       </c>
       <c r="F3" s="10">
-        <v>148</v>
+        <v>141.1</v>
       </c>
       <c r="G3" s="10">
         <v>102.4</v>
       </c>
       <c r="H3" s="10">
-        <v>5.37808219178082</v>
+        <v>5.36986301369863</v>
       </c>
       <c r="I3" s="10">
-        <v>-2.1658</v>
+        <v>-0.2301</v>
       </c>
       <c r="J3" s="10">
-        <v>15.757158</v>
+        <v>15.271459</v>
       </c>
       <c r="K3" s="10">
-        <v>0.308108108108108</v>
+        <v>0.274273564847626</v>
       </c>
       <c r="L3" s="10">
         <v>-2.58418402561402</v>
@@ -1474,7 +1460,7 @@
         <v>7</v>
       </c>
       <c r="N3" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O3" s="10">
         <v>4</v>
@@ -1500,22 +1486,22 @@
         <v>26</v>
       </c>
       <c r="F4" s="10">
-        <v>12.49</v>
+        <v>12.33</v>
       </c>
       <c r="G4" s="10">
         <v>8.8</v>
       </c>
       <c r="H4" s="10">
-        <v>3.07671232876712</v>
+        <v>3.06849315068493</v>
       </c>
       <c r="I4" s="10">
-        <v>0.2348</v>
+        <v>0.1452</v>
       </c>
       <c r="J4" s="10">
-        <v>35.441163</v>
+        <v>35.439923</v>
       </c>
       <c r="K4" s="10">
-        <v>0.295436349079263</v>
+        <v>0.286293592862936</v>
       </c>
       <c r="L4" s="10">
         <v>0.322309479203913</v>
@@ -1524,7 +1510,7 @@
         <v>5</v>
       </c>
       <c r="N4" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O4" s="10">
         <v>3</v>
@@ -1550,22 +1536,22 @@
         <v>30</v>
       </c>
       <c r="F5" s="10">
-        <v>11.89</v>
+        <v>12.24</v>
       </c>
       <c r="G5" s="10">
         <v>9.62</v>
       </c>
       <c r="H5" s="10">
-        <v>3.1041095890411</v>
+        <v>3.0958904109589</v>
       </c>
       <c r="I5" s="10">
-        <v>3.5594</v>
+        <v>1.5869</v>
       </c>
       <c r="J5" s="10">
         <v>30.054744</v>
       </c>
       <c r="K5" s="10">
-        <v>0.190916736753575</v>
+        <v>0.214052287581699</v>
       </c>
       <c r="L5" s="10">
         <v>1.65322120495859</v>
@@ -1574,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="N5" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O5" s="10">
         <v>5</v>
@@ -1600,37 +1586,37 @@
         <v>34</v>
       </c>
       <c r="F6" s="12">
-        <v>54.44</v>
+        <v>53.71</v>
       </c>
       <c r="G6" s="12">
         <v>20.17</v>
       </c>
       <c r="H6" s="12">
-        <v>1.06301369863014</v>
+        <v>1.05479452054794</v>
       </c>
       <c r="I6" s="12">
-        <v>19.8288</v>
+        <v>20.5404</v>
       </c>
       <c r="J6" s="12">
         <v>2.06374</v>
       </c>
       <c r="K6" s="12">
-        <v>0.629500367376929</v>
+        <v>0.624464717929622</v>
       </c>
       <c r="L6" s="12">
-        <v>-19.024859471999</v>
+        <v>-18.4877594821275</v>
       </c>
       <c r="M6" s="12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N6" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O6" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P6" s="12">
-        <v>0.466666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" spans="1:16">
@@ -1650,37 +1636,37 @@
         <v>38</v>
       </c>
       <c r="F7" s="14">
-        <v>38.93</v>
+        <v>38.85</v>
       </c>
       <c r="G7" s="14">
         <v>21.33</v>
       </c>
       <c r="H7" s="14">
-        <v>1.04931506849315</v>
+        <v>1.04109589041096</v>
       </c>
       <c r="I7" s="14">
-        <v>25.3057</v>
+        <v>23.6695</v>
       </c>
       <c r="J7" s="14">
         <v>5.517917</v>
       </c>
       <c r="K7" s="14">
-        <v>0.452093501155921</v>
+        <v>0.450965250965251</v>
       </c>
       <c r="L7" s="14">
-        <v>13.3191114422263</v>
+        <v>11.9336869347359</v>
       </c>
       <c r="M7" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N7" s="14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O7" s="14">
         <v>11</v>
       </c>
       <c r="P7" s="14">
-        <v>0.55</v>
+        <v>0.523809523809524</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" spans="1:16">
@@ -1700,37 +1686,37 @@
         <v>42</v>
       </c>
       <c r="F8" s="14">
-        <v>81.35</v>
+        <v>73.85</v>
       </c>
       <c r="G8" s="14">
         <v>19.13</v>
       </c>
       <c r="H8" s="14">
-        <v>2.65479452054794</v>
+        <v>2.64657534246575</v>
       </c>
       <c r="I8" s="14">
-        <v>5.8756</v>
+        <v>9.8619</v>
       </c>
       <c r="J8" s="14">
         <v>1.23959</v>
       </c>
       <c r="K8" s="14">
-        <v>0.764843269821758</v>
+        <v>0.740961408259986</v>
       </c>
       <c r="L8" s="14">
-        <v>11.9875346153677</v>
+        <v>11.757091975801</v>
       </c>
       <c r="M8" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N8" s="14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O8" s="14">
         <v>3</v>
       </c>
       <c r="P8" s="14">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1750,22 +1736,22 @@
         <v>46</v>
       </c>
       <c r="F9" s="5">
-        <v>75.02</v>
+        <v>75.84</v>
       </c>
       <c r="G9" s="5">
         <v>19.07</v>
       </c>
       <c r="H9" s="5">
-        <v>2.65753424657534</v>
+        <v>2.64931506849315</v>
       </c>
       <c r="I9" s="5">
-        <v>-0.1786</v>
+        <v>-0.0233</v>
       </c>
       <c r="J9" s="5">
-        <v>0.162682</v>
+        <v>0.131223</v>
       </c>
       <c r="K9" s="5">
-        <v>0.745801119701413</v>
+        <v>0.748549578059072</v>
       </c>
       <c r="L9" s="5">
         <v>0</v>
@@ -1774,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="5">
         <v>0</v>
@@ -1800,37 +1786,37 @@
         <v>50</v>
       </c>
       <c r="F10" s="14">
-        <v>56.7</v>
+        <v>54.3</v>
       </c>
       <c r="G10" s="14">
         <v>14.98</v>
       </c>
       <c r="H10" s="14">
-        <v>2.48493150684931</v>
+        <v>2.47671232876712</v>
       </c>
       <c r="I10" s="14">
-        <v>11.4412</v>
+        <v>11.5773</v>
       </c>
       <c r="J10" s="14">
         <v>3.93338</v>
       </c>
       <c r="K10" s="14">
-        <v>0.735802469135802</v>
+        <v>0.724125230202578</v>
       </c>
       <c r="L10" s="14">
-        <v>24.2723120855187</v>
+        <v>31.2121281324063</v>
       </c>
       <c r="M10" s="14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N10" s="14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O10" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P10" s="14">
-        <v>0.692307692307692</v>
+        <v>0.714285714285714</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" spans="1:16">
@@ -1850,22 +1836,22 @@
         <v>54</v>
       </c>
       <c r="F11" s="14">
-        <v>19.75</v>
+        <v>19.74</v>
       </c>
       <c r="G11" s="14">
         <v>7.66</v>
       </c>
       <c r="H11" s="14">
-        <v>2.48767123287671</v>
+        <v>2.47945205479452</v>
       </c>
       <c r="I11" s="14">
-        <v>18.4345</v>
+        <v>15.4382</v>
       </c>
       <c r="J11" s="14">
         <v>10.14751</v>
       </c>
       <c r="K11" s="14">
-        <v>0.612151898734177</v>
+        <v>0.611955420466059</v>
       </c>
       <c r="L11" s="14">
         <v>2.64776025484839</v>
@@ -1874,7 +1860,7 @@
         <v>16</v>
       </c>
       <c r="N11" s="14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O11" s="14">
         <v>8</v>
@@ -1900,22 +1886,22 @@
         <v>58</v>
       </c>
       <c r="F12" s="8">
-        <v>14.96</v>
+        <v>15.42</v>
       </c>
       <c r="G12" s="8">
         <v>6.25</v>
       </c>
       <c r="H12" s="8">
-        <v>2.87397260273973</v>
+        <v>2.86575342465753</v>
       </c>
       <c r="I12" s="8">
-        <v>38.689</v>
+        <v>39.4293</v>
       </c>
       <c r="J12" s="8">
         <v>0.529199</v>
       </c>
       <c r="K12" s="8">
-        <v>0.582219251336898</v>
+        <v>0.594682230869001</v>
       </c>
       <c r="L12" s="8">
         <v>-1.50279388534145</v>
@@ -1924,7 +1910,7 @@
         <v>11</v>
       </c>
       <c r="N12" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O12" s="8">
         <v>6</v>
@@ -1950,22 +1936,22 @@
         <v>62</v>
       </c>
       <c r="F13" s="14">
-        <v>11.89</v>
+        <v>12</v>
       </c>
       <c r="G13" s="14">
         <v>8.25</v>
       </c>
       <c r="H13" s="14">
-        <v>0.189041095890411</v>
+        <v>0.180821917808219</v>
       </c>
       <c r="I13" s="14">
-        <v>5.4668</v>
+        <v>5.05</v>
       </c>
       <c r="J13" s="14">
         <v>9.085646</v>
       </c>
       <c r="K13" s="14">
-        <v>0.306139613120269</v>
+        <v>0.3125</v>
       </c>
       <c r="L13" s="14">
         <v>3.44471880713549</v>
@@ -1974,7 +1960,7 @@
         <v>5</v>
       </c>
       <c r="N13" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O13" s="14">
         <v>3</v>
@@ -2000,22 +1986,22 @@
         <v>66</v>
       </c>
       <c r="F14" s="8">
-        <v>92.55</v>
+        <v>90.21</v>
       </c>
       <c r="G14" s="8">
         <v>10.96</v>
       </c>
       <c r="H14" s="8">
-        <v>3.65753424657534</v>
+        <v>3.64931506849315</v>
       </c>
       <c r="I14" s="8">
-        <v>9.8983</v>
+        <v>11.54</v>
       </c>
       <c r="J14" s="8">
         <v>1.148061</v>
       </c>
       <c r="K14" s="8">
-        <v>0.881577525661804</v>
+        <v>0.878505708901452</v>
       </c>
       <c r="L14" s="8">
         <v>-25.2173297975694</v>
@@ -2024,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="N14" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O14" s="8">
         <v>1</v>
@@ -2050,37 +2036,37 @@
         <v>70</v>
       </c>
       <c r="F15" s="12">
-        <v>175.76</v>
+        <v>172.6</v>
       </c>
       <c r="G15" s="12">
         <v>64.62</v>
       </c>
       <c r="H15" s="12">
-        <v>3.32876712328767</v>
+        <v>3.32054794520548</v>
       </c>
       <c r="I15" s="12">
-        <v>23.1294</v>
+        <v>18.1579</v>
       </c>
       <c r="J15" s="12">
         <v>4.539255</v>
       </c>
       <c r="K15" s="12">
-        <v>0.632339553937187</v>
+        <v>0.625608342989571</v>
       </c>
       <c r="L15" s="12">
-        <v>-9.04816665933416</v>
+        <v>-5.49531831031908</v>
       </c>
       <c r="M15" s="12">
+        <v>3</v>
+      </c>
+      <c r="N15" s="12">
+        <v>3</v>
+      </c>
+      <c r="O15" s="12">
         <v>2</v>
       </c>
-      <c r="N15" s="12">
-        <v>2</v>
-      </c>
-      <c r="O15" s="12">
-        <v>1</v>
-      </c>
       <c r="P15" s="12">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" spans="1:16">
@@ -2100,37 +2086,37 @@
         <v>74</v>
       </c>
       <c r="F16" s="14">
-        <v>88.69</v>
+        <v>85.11</v>
       </c>
       <c r="G16" s="14">
         <v>35.88</v>
       </c>
       <c r="H16" s="14">
-        <v>4.70684931506849</v>
+        <v>4.6986301369863</v>
       </c>
       <c r="I16" s="14">
-        <v>7.7221</v>
+        <v>9.1884</v>
       </c>
       <c r="J16" s="14">
         <v>8.35377</v>
       </c>
       <c r="K16" s="14">
-        <v>0.595444807757357</v>
+        <v>0.578427916813535</v>
       </c>
       <c r="L16" s="14">
-        <v>10.5134207824986</v>
+        <v>10.1794707703261</v>
       </c>
       <c r="M16" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O16" s="14">
         <v>2</v>
       </c>
       <c r="P16" s="14">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2150,22 +2136,22 @@
         <v>78</v>
       </c>
       <c r="F17" s="5">
-        <v>13.19</v>
+        <v>12.82</v>
       </c>
       <c r="G17" s="5">
         <v>5.14</v>
       </c>
       <c r="H17" s="5">
-        <v>4.1945205479452</v>
+        <v>4.18630136986301</v>
       </c>
       <c r="I17" s="5">
-        <v>9.9699</v>
+        <v>11.6607</v>
       </c>
       <c r="J17" s="5">
         <v>4.142013</v>
       </c>
       <c r="K17" s="5">
-        <v>0.610310841546626</v>
+        <v>0.599063962558502</v>
       </c>
       <c r="L17" s="5">
         <v>0</v>
@@ -2174,22 +2160,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O17" s="5">
         <v>0</v>
       </c>
       <c r="P17" s="5">
         <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="17:18">
-      <c r="Q19" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="R19" s="5">
-        <f>SUM(L2:L17)</f>
-        <v>19.8531518172132</v>
       </c>
     </row>
   </sheetData>

--- a/daily_cum_performance_stat.xlsx
+++ b/daily_cum_performance_stat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="13420"/>
+    <workbookView windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -258,10 +258,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -287,14 +287,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -302,9 +294,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,6 +310,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -325,15 +332,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -347,17 +354,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,9 +378,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,37 +387,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,7 +417,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,13 +464,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,169 +590,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,36 +682,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -721,11 +691,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,16 +722,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,148 +746,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1297,8 +1297,8 @@
   <sheetPr/>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1386,22 +1386,22 @@
         <v>18</v>
       </c>
       <c r="F2" s="8">
-        <v>11.34</v>
+        <v>11.16</v>
       </c>
       <c r="G2" s="8">
         <v>3.94</v>
       </c>
       <c r="H2" s="8">
-        <v>3.41917808219178</v>
+        <v>3.41369863013699</v>
       </c>
       <c r="I2" s="8">
-        <v>25.4268</v>
+        <v>27.2373</v>
       </c>
       <c r="J2" s="8">
         <v>0.585301</v>
       </c>
       <c r="K2" s="8">
-        <v>0.652557319223986</v>
+        <v>0.646953405017921</v>
       </c>
       <c r="L2" s="8">
         <v>9.41154765092205</v>
@@ -1410,7 +1410,7 @@
         <v>20</v>
       </c>
       <c r="N2" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O2" s="8">
         <v>12</v>
@@ -1436,22 +1436,22 @@
         <v>22</v>
       </c>
       <c r="F3" s="10">
-        <v>141.1</v>
+        <v>138.64</v>
       </c>
       <c r="G3" s="10">
         <v>102.4</v>
       </c>
       <c r="H3" s="10">
-        <v>5.36986301369863</v>
+        <v>5.36438356164384</v>
       </c>
       <c r="I3" s="10">
-        <v>-0.2301</v>
+        <v>-0.1312</v>
       </c>
       <c r="J3" s="10">
-        <v>15.271459</v>
+        <v>14.22509</v>
       </c>
       <c r="K3" s="10">
-        <v>0.274273564847626</v>
+        <v>0.261396422388921</v>
       </c>
       <c r="L3" s="10">
         <v>-2.58418402561402</v>
@@ -1460,7 +1460,7 @@
         <v>7</v>
       </c>
       <c r="N3" s="10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O3" s="10">
         <v>4</v>
@@ -1486,22 +1486,22 @@
         <v>26</v>
       </c>
       <c r="F4" s="10">
-        <v>12.33</v>
+        <v>12.22</v>
       </c>
       <c r="G4" s="10">
         <v>8.8</v>
       </c>
       <c r="H4" s="10">
-        <v>3.06849315068493</v>
+        <v>3.06301369863014</v>
       </c>
       <c r="I4" s="10">
-        <v>0.1452</v>
+        <v>-0.0069</v>
       </c>
       <c r="J4" s="10">
-        <v>35.439923</v>
+        <v>35.439163</v>
       </c>
       <c r="K4" s="10">
-        <v>0.286293592862936</v>
+        <v>0.27986906710311</v>
       </c>
       <c r="L4" s="10">
         <v>0.322309479203913</v>
@@ -1510,7 +1510,7 @@
         <v>5</v>
       </c>
       <c r="N4" s="10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O4" s="10">
         <v>3</v>
@@ -1536,22 +1536,22 @@
         <v>30</v>
       </c>
       <c r="F5" s="10">
-        <v>12.24</v>
+        <v>12.14</v>
       </c>
       <c r="G5" s="10">
         <v>9.62</v>
       </c>
       <c r="H5" s="10">
-        <v>3.0958904109589</v>
+        <v>3.09041095890411</v>
       </c>
       <c r="I5" s="10">
-        <v>1.5869</v>
+        <v>1.5108</v>
       </c>
       <c r="J5" s="10">
-        <v>30.054744</v>
+        <v>30.054544</v>
       </c>
       <c r="K5" s="10">
-        <v>0.214052287581699</v>
+        <v>0.207578253706755</v>
       </c>
       <c r="L5" s="10">
         <v>1.65322120495859</v>
@@ -1560,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="N5" s="10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O5" s="10">
         <v>5</v>
@@ -1586,37 +1586,37 @@
         <v>34</v>
       </c>
       <c r="F6" s="12">
-        <v>53.71</v>
+        <v>52.98</v>
       </c>
       <c r="G6" s="12">
         <v>20.17</v>
       </c>
       <c r="H6" s="12">
-        <v>1.05479452054794</v>
+        <v>1.04931506849315</v>
       </c>
       <c r="I6" s="12">
-        <v>20.5404</v>
+        <v>24.3371</v>
       </c>
       <c r="J6" s="12">
         <v>2.06374</v>
       </c>
       <c r="K6" s="12">
-        <v>0.624464717929622</v>
+        <v>0.619290298225746</v>
       </c>
       <c r="L6" s="12">
-        <v>-18.4877594821275</v>
+        <v>-13.0051788063253</v>
       </c>
       <c r="M6" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N6" s="12">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O6" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P6" s="12">
-        <v>0.5</v>
+        <v>0.529411764705882</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" spans="1:16">
@@ -1636,37 +1636,37 @@
         <v>38</v>
       </c>
       <c r="F7" s="14">
-        <v>38.85</v>
+        <v>38.98</v>
       </c>
       <c r="G7" s="14">
         <v>21.33</v>
       </c>
       <c r="H7" s="14">
-        <v>1.04109589041096</v>
+        <v>1.03561643835616</v>
       </c>
       <c r="I7" s="14">
-        <v>23.6695</v>
+        <v>23.9964</v>
       </c>
       <c r="J7" s="14">
         <v>5.517917</v>
       </c>
       <c r="K7" s="14">
-        <v>0.450965250965251</v>
+        <v>0.452796305797845</v>
       </c>
       <c r="L7" s="14">
-        <v>11.9336869347359</v>
+        <v>11.2426681569091</v>
       </c>
       <c r="M7" s="14">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N7" s="14">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O7" s="14">
         <v>11</v>
       </c>
       <c r="P7" s="14">
-        <v>0.523809523809524</v>
+        <v>0.478260869565217</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" spans="1:16">
@@ -1686,34 +1686,34 @@
         <v>42</v>
       </c>
       <c r="F8" s="14">
-        <v>73.85</v>
+        <v>74.55</v>
       </c>
       <c r="G8" s="14">
         <v>19.13</v>
       </c>
       <c r="H8" s="14">
-        <v>2.64657534246575</v>
+        <v>2.64109589041096</v>
       </c>
       <c r="I8" s="14">
-        <v>9.8619</v>
+        <v>9.683</v>
       </c>
       <c r="J8" s="14">
         <v>1.23959</v>
       </c>
       <c r="K8" s="14">
-        <v>0.740961408259986</v>
+        <v>0.743393695506372</v>
       </c>
       <c r="L8" s="14">
-        <v>11.757091975801</v>
+        <v>21.260817459376</v>
       </c>
       <c r="M8" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N8" s="14">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O8" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P8" s="14">
         <v>0.5</v>
@@ -1736,37 +1736,37 @@
         <v>46</v>
       </c>
       <c r="F9" s="5">
-        <v>75.84</v>
+        <v>79.02</v>
       </c>
       <c r="G9" s="5">
         <v>19.07</v>
       </c>
       <c r="H9" s="5">
-        <v>2.64931506849315</v>
+        <v>2.64383561643836</v>
       </c>
       <c r="I9" s="5">
-        <v>-0.0233</v>
+        <v>-2.7114</v>
       </c>
       <c r="J9" s="5">
-        <v>0.131223</v>
+        <v>0.006037</v>
       </c>
       <c r="K9" s="5">
-        <v>0.748549578059072</v>
+        <v>0.758668691470514</v>
       </c>
       <c r="L9" s="5">
-        <v>0</v>
+        <v>0.146919582222208</v>
       </c>
       <c r="M9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" spans="1:16">
@@ -1786,37 +1786,37 @@
         <v>50</v>
       </c>
       <c r="F10" s="14">
-        <v>54.3</v>
+        <v>57.22</v>
       </c>
       <c r="G10" s="14">
         <v>14.98</v>
       </c>
       <c r="H10" s="14">
-        <v>2.47671232876712</v>
+        <v>2.47123287671233</v>
       </c>
       <c r="I10" s="14">
-        <v>11.5773</v>
+        <v>11.0384</v>
       </c>
       <c r="J10" s="14">
-        <v>3.93338</v>
+        <v>3.93337</v>
       </c>
       <c r="K10" s="14">
-        <v>0.724125230202578</v>
+        <v>0.738203425375743</v>
       </c>
       <c r="L10" s="14">
-        <v>31.2121281324063</v>
+        <v>26.4204273368441</v>
       </c>
       <c r="M10" s="14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N10" s="14">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O10" s="14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P10" s="14">
-        <v>0.714285714285714</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" spans="1:16">
@@ -1836,37 +1836,37 @@
         <v>54</v>
       </c>
       <c r="F11" s="14">
-        <v>19.74</v>
+        <v>19.02</v>
       </c>
       <c r="G11" s="14">
         <v>7.66</v>
       </c>
       <c r="H11" s="14">
-        <v>2.47945205479452</v>
+        <v>2.47397260273973</v>
       </c>
       <c r="I11" s="14">
-        <v>15.4382</v>
+        <v>16.8524</v>
       </c>
       <c r="J11" s="14">
         <v>10.14751</v>
       </c>
       <c r="K11" s="14">
-        <v>0.611955420466059</v>
+        <v>0.59726603575184</v>
       </c>
       <c r="L11" s="14">
-        <v>2.64776025484839</v>
+        <v>7.92720779554237</v>
       </c>
       <c r="M11" s="14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N11" s="14">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O11" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P11" s="14">
-        <v>0.5</v>
+        <v>0.529411764705882</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:16">
@@ -1886,37 +1886,37 @@
         <v>58</v>
       </c>
       <c r="F12" s="8">
-        <v>15.42</v>
+        <v>15.02</v>
       </c>
       <c r="G12" s="8">
         <v>6.25</v>
       </c>
       <c r="H12" s="8">
-        <v>2.86575342465753</v>
+        <v>2.86027397260274</v>
       </c>
       <c r="I12" s="8">
-        <v>39.4293</v>
+        <v>40.5468</v>
       </c>
       <c r="J12" s="8">
         <v>0.529199</v>
       </c>
       <c r="K12" s="8">
-        <v>0.594682230869001</v>
+        <v>0.583888149134487</v>
       </c>
       <c r="L12" s="8">
-        <v>-1.50279388534145</v>
+        <v>2.19035681319383</v>
       </c>
       <c r="M12" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N12" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O12" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P12" s="8">
-        <v>0.545454545454545</v>
+        <v>0.583333333333333</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" spans="1:16">
@@ -1936,37 +1936,37 @@
         <v>62</v>
       </c>
       <c r="F13" s="14">
-        <v>12</v>
+        <v>11.78</v>
       </c>
       <c r="G13" s="14">
         <v>8.25</v>
       </c>
       <c r="H13" s="14">
-        <v>0.180821917808219</v>
+        <v>0.175342465753425</v>
       </c>
       <c r="I13" s="14">
-        <v>5.05</v>
+        <v>6.6617</v>
       </c>
       <c r="J13" s="14">
         <v>9.085646</v>
       </c>
       <c r="K13" s="14">
-        <v>0.3125</v>
+        <v>0.299660441426146</v>
       </c>
       <c r="L13" s="14">
-        <v>3.44471880713549</v>
+        <v>4.84334226492131</v>
       </c>
       <c r="M13" s="14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N13" s="14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O13" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P13" s="14">
-        <v>0.6</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:16">
@@ -1986,37 +1986,37 @@
         <v>66</v>
       </c>
       <c r="F14" s="8">
-        <v>90.21</v>
+        <v>91.99</v>
       </c>
       <c r="G14" s="8">
         <v>10.96</v>
       </c>
       <c r="H14" s="8">
-        <v>3.64931506849315</v>
+        <v>3.64383561643836</v>
       </c>
       <c r="I14" s="8">
-        <v>11.54</v>
+        <v>11.2082</v>
       </c>
       <c r="J14" s="8">
         <v>1.148061</v>
       </c>
       <c r="K14" s="8">
-        <v>0.878505708901452</v>
+        <v>0.88085661484944</v>
       </c>
       <c r="L14" s="8">
-        <v>-25.2173297975694</v>
+        <v>-5.39322697788705</v>
       </c>
       <c r="M14" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N14" s="8">
+        <v>5</v>
+      </c>
+      <c r="O14" s="8">
         <v>3</v>
       </c>
-      <c r="O14" s="8">
-        <v>1</v>
-      </c>
       <c r="P14" s="8">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" spans="1:16">
@@ -2036,37 +2036,37 @@
         <v>70</v>
       </c>
       <c r="F15" s="12">
-        <v>172.6</v>
+        <v>172.7</v>
       </c>
       <c r="G15" s="12">
         <v>64.62</v>
       </c>
       <c r="H15" s="12">
-        <v>3.32054794520548</v>
+        <v>3.31506849315068</v>
       </c>
       <c r="I15" s="12">
-        <v>18.1579</v>
+        <v>18.8005</v>
       </c>
       <c r="J15" s="12">
         <v>4.539255</v>
       </c>
       <c r="K15" s="12">
-        <v>0.625608342989571</v>
+        <v>0.625825130283729</v>
       </c>
       <c r="L15" s="12">
-        <v>-5.49531831031908</v>
+        <v>-4.72451875282049</v>
       </c>
       <c r="M15" s="12">
+        <v>4</v>
+      </c>
+      <c r="N15" s="12">
+        <v>5</v>
+      </c>
+      <c r="O15" s="12">
         <v>3</v>
       </c>
-      <c r="N15" s="12">
-        <v>3</v>
-      </c>
-      <c r="O15" s="12">
-        <v>2</v>
-      </c>
       <c r="P15" s="12">
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" spans="1:16">
@@ -2086,37 +2086,37 @@
         <v>74</v>
       </c>
       <c r="F16" s="14">
-        <v>85.11</v>
+        <v>85.56</v>
       </c>
       <c r="G16" s="14">
         <v>35.88</v>
       </c>
       <c r="H16" s="14">
-        <v>4.6986301369863</v>
+        <v>4.69315068493151</v>
       </c>
       <c r="I16" s="14">
-        <v>9.1884</v>
+        <v>8.0355</v>
       </c>
       <c r="J16" s="14">
         <v>8.35377</v>
       </c>
       <c r="K16" s="14">
-        <v>0.578427916813535</v>
+        <v>0.580645161290323</v>
       </c>
       <c r="L16" s="14">
-        <v>10.1794707703261</v>
+        <v>11.7285352579096</v>
       </c>
       <c r="M16" s="14">
+        <v>5</v>
+      </c>
+      <c r="N16" s="14">
+        <v>5</v>
+      </c>
+      <c r="O16" s="14">
         <v>3</v>
       </c>
-      <c r="N16" s="14">
-        <v>3</v>
-      </c>
-      <c r="O16" s="14">
-        <v>2</v>
-      </c>
       <c r="P16" s="14">
-        <v>0.666666666666667</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2136,22 +2136,22 @@
         <v>78</v>
       </c>
       <c r="F17" s="5">
-        <v>12.82</v>
+        <v>12.8</v>
       </c>
       <c r="G17" s="5">
         <v>5.14</v>
       </c>
       <c r="H17" s="5">
-        <v>4.18630136986301</v>
+        <v>4.18082191780822</v>
       </c>
       <c r="I17" s="5">
-        <v>11.6607</v>
+        <v>10.9317</v>
       </c>
       <c r="J17" s="5">
         <v>4.142013</v>
       </c>
       <c r="K17" s="5">
-        <v>0.599063962558502</v>
+        <v>0.5984375</v>
       </c>
       <c r="L17" s="5">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O17" s="5">
         <v>0</v>

--- a/daily_cum_performance_stat.xlsx
+++ b/daily_cum_performance_stat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020"/>
+    <workbookView windowWidth="27660" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -258,10 +258,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -281,6 +281,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -289,44 +296,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,6 +316,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -354,9 +394,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,66 +424,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -464,31 +464,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,151 +638,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,7 +686,57 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,201 +770,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1297,8 +1297,8 @@
   <sheetPr/>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/daily_cum_performance_stat.xlsx
+++ b/daily_cum_performance_stat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>bond code</t>
   </si>
@@ -143,18 +143,6 @@
   </si>
   <si>
     <t>文灿股份</t>
-  </si>
-  <si>
-    <t>123027.SZ</t>
-  </si>
-  <si>
-    <t>蓝晓转债</t>
-  </si>
-  <si>
-    <t>300487.SZ</t>
-  </si>
-  <si>
-    <t>蓝晓科技</t>
   </si>
   <si>
     <t>113534.SH</t>
@@ -258,10 +246,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -287,8 +275,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,6 +287,13 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,6 +312,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -324,48 +327,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,23 +367,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,16 +412,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,13 +458,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,13 +530,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,150 +632,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -673,6 +661,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -691,11 +707,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,184 +763,163 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -944,6 +945,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1297,8 +1301,8 @@
   <sheetPr/>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1386,37 +1390,37 @@
         <v>18</v>
       </c>
       <c r="F2" s="8">
-        <v>11.16</v>
+        <v>10.56</v>
       </c>
       <c r="G2" s="8">
         <v>3.94</v>
       </c>
       <c r="H2" s="8">
-        <v>3.41369863013699</v>
+        <v>3.4</v>
       </c>
       <c r="I2" s="8">
-        <v>27.2373</v>
+        <v>28.0221</v>
       </c>
       <c r="J2" s="8">
         <v>0.585301</v>
       </c>
       <c r="K2" s="8">
-        <v>0.646953405017921</v>
+        <v>0.626893939393939</v>
       </c>
       <c r="L2" s="8">
-        <v>9.41154765092205</v>
+        <v>8.27799321228572</v>
       </c>
       <c r="M2" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N2" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" s="8">
         <v>12</v>
       </c>
       <c r="P2" s="8">
-        <v>0.6</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:16">
@@ -1436,22 +1440,22 @@
         <v>22</v>
       </c>
       <c r="F3" s="10">
-        <v>138.64</v>
+        <v>134.19</v>
       </c>
       <c r="G3" s="10">
         <v>102.4</v>
       </c>
       <c r="H3" s="10">
-        <v>5.36438356164384</v>
+        <v>5.35068493150685</v>
       </c>
       <c r="I3" s="10">
-        <v>-0.1312</v>
+        <v>-0.3858</v>
       </c>
       <c r="J3" s="10">
-        <v>14.22509</v>
+        <v>13.02117</v>
       </c>
       <c r="K3" s="10">
-        <v>0.261396422388921</v>
+        <v>0.23690289887473</v>
       </c>
       <c r="L3" s="10">
         <v>-2.58418402561402</v>
@@ -1460,7 +1464,7 @@
         <v>7</v>
       </c>
       <c r="N3" s="10">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O3" s="10">
         <v>4</v>
@@ -1486,37 +1490,37 @@
         <v>26</v>
       </c>
       <c r="F4" s="10">
-        <v>12.22</v>
+        <v>11.75</v>
       </c>
       <c r="G4" s="10">
         <v>8.8</v>
       </c>
       <c r="H4" s="10">
-        <v>3.06301369863014</v>
+        <v>3.04931506849315</v>
       </c>
       <c r="I4" s="10">
-        <v>-0.0069</v>
+        <v>0.2446</v>
       </c>
       <c r="J4" s="10">
-        <v>35.439163</v>
+        <v>35.167055</v>
       </c>
       <c r="K4" s="10">
-        <v>0.27986906710311</v>
+        <v>0.251063829787234</v>
       </c>
       <c r="L4" s="10">
-        <v>0.322309479203913</v>
+        <v>0.696256481171418</v>
       </c>
       <c r="M4" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N4" s="10">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O4" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4" s="10">
-        <v>0.6</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:16">
@@ -1536,22 +1540,22 @@
         <v>30</v>
       </c>
       <c r="F5" s="10">
-        <v>12.14</v>
+        <v>11.92</v>
       </c>
       <c r="G5" s="10">
         <v>9.62</v>
       </c>
       <c r="H5" s="10">
-        <v>3.09041095890411</v>
+        <v>3.07671232876712</v>
       </c>
       <c r="I5" s="10">
-        <v>1.5108</v>
+        <v>2.125</v>
       </c>
       <c r="J5" s="10">
         <v>30.054544</v>
       </c>
       <c r="K5" s="10">
-        <v>0.207578253706755</v>
+        <v>0.192953020134228</v>
       </c>
       <c r="L5" s="10">
         <v>1.65322120495859</v>
@@ -1560,7 +1564,7 @@
         <v>10</v>
       </c>
       <c r="N5" s="10">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O5" s="10">
         <v>5</v>
@@ -1586,22 +1590,22 @@
         <v>34</v>
       </c>
       <c r="F6" s="12">
-        <v>52.98</v>
+        <v>50.96</v>
       </c>
       <c r="G6" s="12">
         <v>20.17</v>
       </c>
       <c r="H6" s="12">
-        <v>1.04931506849315</v>
+        <v>1.03561643835616</v>
       </c>
       <c r="I6" s="12">
-        <v>24.3371</v>
+        <v>23.9604</v>
       </c>
       <c r="J6" s="12">
         <v>2.06374</v>
       </c>
       <c r="K6" s="12">
-        <v>0.619290298225746</v>
+        <v>0.604199372056515</v>
       </c>
       <c r="L6" s="12">
         <v>-13.0051788063253</v>
@@ -1610,7 +1614,7 @@
         <v>17</v>
       </c>
       <c r="N6" s="12">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O6" s="12">
         <v>9</v>
@@ -1636,37 +1640,37 @@
         <v>38</v>
       </c>
       <c r="F7" s="14">
-        <v>38.98</v>
+        <v>37.11</v>
       </c>
       <c r="G7" s="14">
         <v>21.33</v>
       </c>
       <c r="H7" s="14">
-        <v>1.03561643835616</v>
+        <v>1.02191780821918</v>
       </c>
       <c r="I7" s="14">
-        <v>23.9964</v>
+        <v>20.8311</v>
       </c>
       <c r="J7" s="14">
         <v>5.517917</v>
       </c>
       <c r="K7" s="14">
-        <v>0.452796305797845</v>
+        <v>0.425222312045271</v>
       </c>
       <c r="L7" s="14">
-        <v>11.2426681569091</v>
+        <v>15.7711609809576</v>
       </c>
       <c r="M7" s="14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N7" s="14">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O7" s="14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P7" s="14">
-        <v>0.478260869565217</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" spans="1:16">
@@ -1686,37 +1690,37 @@
         <v>42</v>
       </c>
       <c r="F8" s="14">
-        <v>74.55</v>
+        <v>70.65</v>
       </c>
       <c r="G8" s="14">
         <v>19.13</v>
       </c>
       <c r="H8" s="14">
-        <v>2.64109589041096</v>
+        <v>2.62739726027397</v>
       </c>
       <c r="I8" s="14">
-        <v>9.683</v>
+        <v>7.4944</v>
       </c>
       <c r="J8" s="14">
         <v>1.23959</v>
       </c>
       <c r="K8" s="14">
-        <v>0.743393695506372</v>
+        <v>0.729228591648974</v>
       </c>
       <c r="L8" s="14">
-        <v>21.260817459376</v>
+        <v>26.9352947711946</v>
       </c>
       <c r="M8" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N8" s="14">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O8" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P8" s="14">
-        <v>0.5</v>
+        <v>0.555555555555556</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1736,22 +1740,22 @@
         <v>46</v>
       </c>
       <c r="F9" s="5">
-        <v>79.02</v>
+        <v>52.68</v>
       </c>
       <c r="G9" s="5">
-        <v>19.07</v>
+        <v>14.98</v>
       </c>
       <c r="H9" s="5">
-        <v>2.64383561643836</v>
+        <v>2.45753424657534</v>
       </c>
       <c r="I9" s="5">
-        <v>-2.7114</v>
+        <v>14.6641</v>
       </c>
       <c r="J9" s="5">
-        <v>0.006037</v>
+        <v>3.93337</v>
       </c>
       <c r="K9" s="5">
-        <v>0.758668691470514</v>
+        <v>0.715641609719059</v>
       </c>
       <c r="L9" s="5">
         <v>0.146919582222208</v>
@@ -1786,287 +1790,287 @@
         <v>50</v>
       </c>
       <c r="F10" s="14">
-        <v>57.22</v>
+        <v>17.3</v>
       </c>
       <c r="G10" s="14">
-        <v>14.98</v>
+        <v>7.66</v>
       </c>
       <c r="H10" s="14">
-        <v>2.47123287671233</v>
+        <v>2.46027397260274</v>
       </c>
       <c r="I10" s="14">
-        <v>11.0384</v>
+        <v>11.3041</v>
       </c>
       <c r="J10" s="14">
-        <v>3.93337</v>
+        <v>10.14751</v>
       </c>
       <c r="K10" s="14">
-        <v>0.738203425375743</v>
+        <v>0.557225433526012</v>
       </c>
       <c r="L10" s="14">
-        <v>26.4204273368441</v>
+        <v>29.6065878875274</v>
       </c>
       <c r="M10" s="14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N10" s="14">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O10" s="14">
+        <v>12</v>
+      </c>
+      <c r="P10" s="14">
+        <v>0.705882352941177</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:16">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="8">
+        <v>15.13</v>
+      </c>
+      <c r="G11" s="8">
+        <v>6.25</v>
+      </c>
+      <c r="H11" s="8">
+        <v>2.84657534246575</v>
+      </c>
+      <c r="I11" s="8">
+        <v>32.2785</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.529199</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0.586913417052214</v>
+      </c>
+      <c r="L11" s="8">
+        <v>6.71797213596697</v>
+      </c>
+      <c r="M11" s="8">
+        <v>19</v>
+      </c>
+      <c r="N11" s="8">
+        <v>26</v>
+      </c>
+      <c r="O11" s="8">
+        <v>10</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0.526315789473684</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:16">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="10">
+        <v>11.7</v>
+      </c>
+      <c r="G12" s="10">
+        <v>8.25</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0.161643835616438</v>
+      </c>
+      <c r="I12" s="10">
+        <v>5.4801</v>
+      </c>
+      <c r="J12" s="10">
+        <v>9.085636</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0.294871794871795</v>
+      </c>
+      <c r="L12" s="10">
+        <v>-2.19412237755301</v>
+      </c>
+      <c r="M12" s="10">
+        <v>13</v>
+      </c>
+      <c r="N12" s="10">
+        <v>26</v>
+      </c>
+      <c r="O12" s="10">
+        <v>7</v>
+      </c>
+      <c r="P12" s="10">
+        <v>0.538461538461538</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:16">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="P10" s="14">
-        <v>0.6875</v>
+      <c r="B13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="8">
+        <v>87.27</v>
+      </c>
+      <c r="G13" s="8">
+        <v>10.96</v>
+      </c>
+      <c r="H13" s="8">
+        <v>3.63013698630137</v>
+      </c>
+      <c r="I13" s="8">
+        <v>12.378</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1.148051</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0.874412742064856</v>
+      </c>
+      <c r="L13" s="8">
+        <v>6.21469177774181</v>
+      </c>
+      <c r="M13" s="8">
+        <v>8</v>
+      </c>
+      <c r="N13" s="8">
+        <v>17</v>
+      </c>
+      <c r="O13" s="8">
+        <v>5</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0.625</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" spans="1:16">
-      <c r="A11" s="13">
-        <v>9</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="14">
-        <v>19.02</v>
-      </c>
-      <c r="G11" s="14">
-        <v>7.66</v>
-      </c>
-      <c r="H11" s="14">
-        <v>2.47397260273973</v>
-      </c>
-      <c r="I11" s="14">
-        <v>16.8524</v>
-      </c>
-      <c r="J11" s="14">
-        <v>10.14751</v>
-      </c>
-      <c r="K11" s="14">
-        <v>0.59726603575184</v>
-      </c>
-      <c r="L11" s="14">
-        <v>7.92720779554237</v>
-      </c>
-      <c r="M11" s="14">
-        <v>17</v>
-      </c>
-      <c r="N11" s="14">
-        <v>24</v>
-      </c>
-      <c r="O11" s="14">
-        <v>9</v>
-      </c>
-      <c r="P11" s="14">
-        <v>0.529411764705882</v>
+    <row r="14" s="2" customFormat="1" spans="1:16">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="10">
+        <v>160.51</v>
+      </c>
+      <c r="G14" s="10">
+        <v>64.62</v>
+      </c>
+      <c r="H14" s="10">
+        <v>3.3013698630137</v>
+      </c>
+      <c r="I14" s="10">
+        <v>9.7711</v>
+      </c>
+      <c r="J14" s="10">
+        <v>4.539255</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0.597408261167528</v>
+      </c>
+      <c r="L14" s="10">
+        <v>-6.81063571491512</v>
+      </c>
+      <c r="M14" s="10">
+        <v>6</v>
+      </c>
+      <c r="N14" s="10">
+        <v>7</v>
+      </c>
+      <c r="O14" s="10">
+        <v>4</v>
+      </c>
+      <c r="P14" s="10">
+        <v>0.666666666666667</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:16">
-      <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="8">
-        <v>15.02</v>
-      </c>
-      <c r="G12" s="8">
-        <v>6.25</v>
-      </c>
-      <c r="H12" s="8">
-        <v>2.86027397260274</v>
-      </c>
-      <c r="I12" s="8">
-        <v>40.5468</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0.529199</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0.583888149134487</v>
-      </c>
-      <c r="L12" s="8">
-        <v>2.19035681319383</v>
-      </c>
-      <c r="M12" s="8">
-        <v>12</v>
-      </c>
-      <c r="N12" s="8">
-        <v>24</v>
-      </c>
-      <c r="O12" s="8">
+    <row r="15" s="2" customFormat="1" spans="1:16">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="10">
+        <v>89.67</v>
+      </c>
+      <c r="G15" s="10">
+        <v>35.88</v>
+      </c>
+      <c r="H15" s="10">
+        <v>4.67945205479452</v>
+      </c>
+      <c r="I15" s="10">
+        <v>4.0653</v>
+      </c>
+      <c r="J15" s="10">
+        <v>8.35377</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0.599866175978588</v>
+      </c>
+      <c r="L15" s="10">
+        <v>-3.10466980401734</v>
+      </c>
+      <c r="M15" s="10">
+        <v>6</v>
+      </c>
+      <c r="N15" s="10">
         <v>7</v>
       </c>
-      <c r="P12" s="8">
-        <v>0.583333333333333</v>
-      </c>
-    </row>
-    <row r="13" s="4" customFormat="1" spans="1:16">
-      <c r="A13" s="13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="14">
-        <v>11.78</v>
-      </c>
-      <c r="G13" s="14">
-        <v>8.25</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0.175342465753425</v>
-      </c>
-      <c r="I13" s="14">
-        <v>6.6617</v>
-      </c>
-      <c r="J13" s="14">
-        <v>9.085646</v>
-      </c>
-      <c r="K13" s="14">
-        <v>0.299660441426146</v>
-      </c>
-      <c r="L13" s="14">
-        <v>4.84334226492131</v>
-      </c>
-      <c r="M13" s="14">
-        <v>7</v>
-      </c>
-      <c r="N13" s="14">
-        <v>15</v>
-      </c>
-      <c r="O13" s="14">
+      <c r="O15" s="10">
         <v>4</v>
       </c>
-      <c r="P13" s="14">
-        <v>0.571428571428571</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:16">
-      <c r="A14" s="7">
-        <v>12</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="8">
-        <v>91.99</v>
-      </c>
-      <c r="G14" s="8">
-        <v>10.96</v>
-      </c>
-      <c r="H14" s="8">
-        <v>3.64383561643836</v>
-      </c>
-      <c r="I14" s="8">
-        <v>11.2082</v>
-      </c>
-      <c r="J14" s="8">
-        <v>1.148061</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0.88085661484944</v>
-      </c>
-      <c r="L14" s="8">
-        <v>-5.39322697788705</v>
-      </c>
-      <c r="M14" s="8">
-        <v>4</v>
-      </c>
-      <c r="N14" s="8">
-        <v>5</v>
-      </c>
-      <c r="O14" s="8">
-        <v>3</v>
-      </c>
-      <c r="P14" s="8">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:16">
-      <c r="A15" s="11">
-        <v>13</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="12">
-        <v>172.7</v>
-      </c>
-      <c r="G15" s="12">
-        <v>64.62</v>
-      </c>
-      <c r="H15" s="12">
-        <v>3.31506849315068</v>
-      </c>
-      <c r="I15" s="12">
-        <v>18.8005</v>
-      </c>
-      <c r="J15" s="12">
-        <v>4.539255</v>
-      </c>
-      <c r="K15" s="12">
-        <v>0.625825130283729</v>
-      </c>
-      <c r="L15" s="12">
-        <v>-4.72451875282049</v>
-      </c>
-      <c r="M15" s="12">
-        <v>4</v>
-      </c>
-      <c r="N15" s="12">
-        <v>5</v>
-      </c>
-      <c r="O15" s="12">
-        <v>3</v>
-      </c>
-      <c r="P15" s="12">
-        <v>0.75</v>
+      <c r="P15" s="10">
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" spans="1:16">
@@ -2086,87 +2090,57 @@
         <v>74</v>
       </c>
       <c r="F16" s="14">
-        <v>85.56</v>
+        <v>12.49</v>
       </c>
       <c r="G16" s="14">
-        <v>35.88</v>
+        <v>5.14</v>
       </c>
       <c r="H16" s="14">
-        <v>4.69315068493151</v>
+        <v>4.16712328767123</v>
       </c>
       <c r="I16" s="14">
-        <v>8.0355</v>
+        <v>8.4226</v>
       </c>
       <c r="J16" s="14">
-        <v>8.35377</v>
+        <v>4.142013</v>
       </c>
       <c r="K16" s="14">
-        <v>0.580645161290323</v>
+        <v>0.588470776621297</v>
       </c>
       <c r="L16" s="14">
-        <v>11.7285352579096</v>
+        <v>7.7881864988638</v>
       </c>
       <c r="M16" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N16" s="14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O16" s="14">
         <v>3</v>
       </c>
       <c r="P16" s="14">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="6">
+      <c r="A17" s="15">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="5">
-        <v>12.8</v>
-      </c>
-      <c r="G17" s="5">
-        <v>5.14</v>
-      </c>
-      <c r="H17" s="5">
-        <v>4.18082191780822</v>
-      </c>
-      <c r="I17" s="5">
-        <v>10.9317</v>
-      </c>
-      <c r="J17" s="5">
-        <v>4.142013</v>
-      </c>
-      <c r="K17" s="5">
-        <v>0.5984375</v>
-      </c>
-      <c r="L17" s="5">
-        <v>0</v>
-      </c>
-      <c r="M17" s="5">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5">
-        <v>5</v>
-      </c>
-      <c r="O17" s="5">
-        <v>0</v>
-      </c>
-      <c r="P17" s="5">
-        <v>0</v>
+      <c r="L17">
+        <v>0.812894083426795</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>7</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/daily_cum_performance_stat.xlsx
+++ b/daily_cum_performance_stat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>bond code</t>
   </si>
@@ -59,6 +59,186 @@
   </si>
   <si>
     <t>win rate</t>
+  </si>
+  <si>
+    <t>123046.SZ</t>
+  </si>
+  <si>
+    <t>113642.SH</t>
+  </si>
+  <si>
+    <t>110061.SH</t>
+  </si>
+  <si>
+    <t>128081.SZ</t>
+  </si>
+  <si>
+    <t>113016.SH</t>
+  </si>
+  <si>
+    <t>128017.SZ</t>
+  </si>
+  <si>
+    <t>113537.SH</t>
+  </si>
+  <si>
+    <t>113534.SH</t>
+  </si>
+  <si>
+    <t>113025.SH</t>
+  </si>
+  <si>
+    <t>123031.SZ</t>
+  </si>
+  <si>
+    <t>128029.SZ</t>
+  </si>
+  <si>
+    <t>128111.SZ</t>
+  </si>
+  <si>
+    <t>128095.SZ</t>
+  </si>
+  <si>
+    <t>113626.SH</t>
+  </si>
+  <si>
+    <t>123092.SZ</t>
+  </si>
+  <si>
+    <t>天铁转债</t>
+  </si>
+  <si>
+    <t>上22转债</t>
+  </si>
+  <si>
+    <t>川投转债</t>
+  </si>
+  <si>
+    <t>海亮转债</t>
+  </si>
+  <si>
+    <t>小康转债</t>
+  </si>
+  <si>
+    <t>金禾转债</t>
+  </si>
+  <si>
+    <t>文灿转债</t>
+  </si>
+  <si>
+    <t>鼎胜转债</t>
+  </si>
+  <si>
+    <t>明泰转债</t>
+  </si>
+  <si>
+    <t>晶瑞转债</t>
+  </si>
+  <si>
+    <t>太阳转债</t>
+  </si>
+  <si>
+    <t>中矿转债</t>
+  </si>
+  <si>
+    <t>恩捷转债</t>
+  </si>
+  <si>
+    <t>伯特转债</t>
+  </si>
+  <si>
+    <t>天壕转债</t>
+  </si>
+  <si>
+    <t>300587.SZ</t>
+  </si>
+  <si>
+    <t>603185.SH</t>
+  </si>
+  <si>
+    <t>600674.SH</t>
+  </si>
+  <si>
+    <t>002203.SZ</t>
+  </si>
+  <si>
+    <t>601127.SH</t>
+  </si>
+  <si>
+    <t>002597.SZ</t>
+  </si>
+  <si>
+    <t>603348.SH</t>
+  </si>
+  <si>
+    <t>603876.SH</t>
+  </si>
+  <si>
+    <t>601677.SH</t>
+  </si>
+  <si>
+    <t>300655.SZ</t>
+  </si>
+  <si>
+    <t>002078.SZ</t>
+  </si>
+  <si>
+    <t>002738.SZ</t>
+  </si>
+  <si>
+    <t>002812.SZ</t>
+  </si>
+  <si>
+    <t>603596.SH</t>
+  </si>
+  <si>
+    <t>300332.SZ</t>
+  </si>
+  <si>
+    <t>天铁股份</t>
+  </si>
+  <si>
+    <t>上机数控</t>
+  </si>
+  <si>
+    <t>川投能源</t>
+  </si>
+  <si>
+    <t>海亮股份</t>
+  </si>
+  <si>
+    <t>赛力斯</t>
+  </si>
+  <si>
+    <t>金禾实业</t>
+  </si>
+  <si>
+    <t>文灿股份</t>
+  </si>
+  <si>
+    <t>鼎胜新材</t>
+  </si>
+  <si>
+    <t>明泰铝业</t>
+  </si>
+  <si>
+    <t>晶瑞电材</t>
+  </si>
+  <si>
+    <t>太阳纸业</t>
+  </si>
+  <si>
+    <t>中矿资源</t>
+  </si>
+  <si>
+    <t>恩捷股份</t>
+  </si>
+  <si>
+    <t>伯特利</t>
+  </si>
+  <si>
+    <t>天壕环境</t>
   </si>
 </sst>
 </file>
@@ -473,6 +653,36 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2">
+        <v>10.5</v>
+      </c>
+      <c r="G2">
+        <v>3.94</v>
+      </c>
+      <c r="H2">
+        <v>3.397260273972603</v>
+      </c>
+      <c r="I2">
+        <v>29.5697</v>
+      </c>
+      <c r="J2">
+        <v>0.585301</v>
+      </c>
+      <c r="K2">
+        <v>0.6247619047619049</v>
+      </c>
       <c r="L2">
         <v>8.835051884240428</v>
       </c>
@@ -480,7 +690,7 @@
         <v>22</v>
       </c>
       <c r="N2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O2">
         <v>13</v>
@@ -493,6 +703,36 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3">
+        <v>135.88</v>
+      </c>
+      <c r="G3">
+        <v>102.4</v>
+      </c>
+      <c r="H3">
+        <v>5.347945205479452</v>
+      </c>
+      <c r="I3">
+        <v>-0.1947</v>
+      </c>
+      <c r="J3">
+        <v>12.20161</v>
+      </c>
+      <c r="K3">
+        <v>0.2463938769502501</v>
+      </c>
       <c r="L3">
         <v>-2.584184025614019</v>
       </c>
@@ -500,7 +740,7 @@
         <v>7</v>
       </c>
       <c r="N3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O3">
         <v>4</v>
@@ -513,6 +753,36 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4">
+        <v>11.44</v>
+      </c>
+      <c r="G4">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H4">
+        <v>3.046575342465753</v>
+      </c>
+      <c r="I4">
+        <v>-0.1608</v>
+      </c>
+      <c r="J4">
+        <v>35.114655</v>
+      </c>
+      <c r="K4">
+        <v>0.2307692307692307</v>
+      </c>
       <c r="L4">
         <v>0.696256481171418</v>
       </c>
@@ -520,7 +790,7 @@
         <v>7</v>
       </c>
       <c r="N4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O4">
         <v>4</v>
@@ -533,26 +803,86 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5">
+        <v>11.62</v>
+      </c>
+      <c r="G5">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="H5">
+        <v>3.073972602739726</v>
+      </c>
+      <c r="I5">
+        <v>2.5946</v>
+      </c>
+      <c r="J5">
+        <v>30.054544</v>
+      </c>
+      <c r="K5">
+        <v>0.1721170395869191</v>
+      </c>
       <c r="L5">
-        <v>1.65322120495859</v>
+        <v>1.154891723030873</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O5">
         <v>5</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6">
+        <v>50.32</v>
+      </c>
+      <c r="G6">
+        <v>20.17</v>
+      </c>
+      <c r="H6">
+        <v>1.032876712328767</v>
+      </c>
+      <c r="I6">
+        <v>23.3256</v>
+      </c>
+      <c r="J6">
+        <v>2.06374</v>
+      </c>
+      <c r="K6">
+        <v>0.5991653418124006</v>
+      </c>
       <c r="L6">
         <v>-13.00517880632529</v>
       </c>
@@ -560,7 +890,7 @@
         <v>17</v>
       </c>
       <c r="N6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O6">
         <v>9</v>
@@ -573,26 +903,86 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7">
+        <v>35.77</v>
+      </c>
+      <c r="G7">
+        <v>21.33</v>
+      </c>
+      <c r="H7">
+        <v>1.019178082191781</v>
+      </c>
+      <c r="I7">
+        <v>17.473</v>
+      </c>
+      <c r="J7">
+        <v>5.517917</v>
+      </c>
+      <c r="K7">
+        <v>0.403690243220576</v>
+      </c>
       <c r="L7">
-        <v>19.64850929126404</v>
+        <v>19.51472583742005</v>
       </c>
       <c r="M7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O7">
         <v>14</v>
       </c>
       <c r="P7">
-        <v>0.5384615384615384</v>
+        <v>0.5185185185185185</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8">
+        <v>73.34</v>
+      </c>
+      <c r="G8">
+        <v>19.13</v>
+      </c>
+      <c r="H8">
+        <v>2.624657534246575</v>
+      </c>
+      <c r="I8">
+        <v>5.6013</v>
+      </c>
+      <c r="J8">
+        <v>1.23958</v>
+      </c>
+      <c r="K8">
+        <v>0.7391600763566949</v>
+      </c>
       <c r="L8">
         <v>30.36718644923771</v>
       </c>
@@ -600,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="N8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O8">
         <v>6</v>
@@ -613,6 +1003,36 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9">
+        <v>54.37</v>
+      </c>
+      <c r="G9">
+        <v>14.98</v>
+      </c>
+      <c r="H9">
+        <v>2.454794520547945</v>
+      </c>
+      <c r="I9">
+        <v>13.5893</v>
+      </c>
+      <c r="J9">
+        <v>3.93337</v>
+      </c>
+      <c r="K9">
+        <v>0.7244804119919074</v>
+      </c>
       <c r="L9">
         <v>0.1469195822222078</v>
       </c>
@@ -633,106 +1053,286 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10">
+        <v>17.14</v>
+      </c>
+      <c r="G10">
+        <v>7.66</v>
+      </c>
+      <c r="H10">
+        <v>2.457534246575342</v>
+      </c>
+      <c r="I10">
+        <v>13.0704</v>
+      </c>
+      <c r="J10">
+        <v>10.14751</v>
+      </c>
+      <c r="K10">
+        <v>0.5530921820303384</v>
+      </c>
       <c r="L10">
-        <v>33.06989358307676</v>
+        <v>30.88765199444329</v>
       </c>
       <c r="M10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10">
         <v>13</v>
       </c>
       <c r="P10">
-        <v>0.7222222222222222</v>
+        <v>0.6842105263157895</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11">
+        <v>16.24</v>
+      </c>
+      <c r="G11">
+        <v>6.25</v>
+      </c>
+      <c r="H11">
+        <v>2.843835616438356</v>
+      </c>
+      <c r="I11">
+        <v>33.2358</v>
+      </c>
+      <c r="J11">
+        <v>0.529199</v>
+      </c>
+      <c r="K11">
+        <v>0.6151477832512315</v>
+      </c>
       <c r="L11">
-        <v>6.717972135966966</v>
+        <v>5.606471711929634</v>
       </c>
       <c r="M11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O11">
         <v>10</v>
       </c>
       <c r="P11">
-        <v>0.5263157894736842</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12">
+        <v>11.5</v>
+      </c>
+      <c r="G12">
+        <v>8.25</v>
+      </c>
+      <c r="H12">
+        <v>0.1589041095890411</v>
+      </c>
+      <c r="I12">
+        <v>5.5261</v>
+      </c>
+      <c r="J12">
+        <v>9.085635999999999</v>
+      </c>
+      <c r="K12">
+        <v>0.2826086956521739</v>
+      </c>
       <c r="L12">
-        <v>-2.194122377553007</v>
+        <v>7.797940572200709</v>
       </c>
       <c r="M12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N12">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P12">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13">
+        <v>88.3</v>
+      </c>
+      <c r="G13">
+        <v>10.96</v>
+      </c>
+      <c r="H13">
+        <v>3.627397260273972</v>
+      </c>
+      <c r="I13">
+        <v>10.928</v>
+      </c>
+      <c r="J13">
+        <v>1.148051</v>
+      </c>
+      <c r="K13">
+        <v>0.8758776896942243</v>
+      </c>
       <c r="L13">
-        <v>7.975425201963256</v>
+        <v>8.270921432050216</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P13">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14">
+        <v>159.35</v>
+      </c>
+      <c r="G14">
+        <v>64.62</v>
+      </c>
+      <c r="H14">
+        <v>3.298630136986302</v>
+      </c>
+      <c r="I14">
+        <v>12.3256</v>
+      </c>
+      <c r="J14">
+        <v>4.539255</v>
+      </c>
+      <c r="K14">
+        <v>0.5944775651082522</v>
+      </c>
       <c r="L14">
-        <v>5.427071537278357</v>
+        <v>-0.7681820511473898</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O14">
         <v>5</v>
       </c>
       <c r="P14">
-        <v>0.7142857142857143</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15">
+        <v>95.83</v>
+      </c>
+      <c r="G15">
+        <v>35.88</v>
+      </c>
+      <c r="H15">
+        <v>4.676712328767123</v>
+      </c>
+      <c r="I15">
+        <v>0.5591</v>
+      </c>
+      <c r="J15">
+        <v>8.35375</v>
+      </c>
+      <c r="K15">
+        <v>0.6255869769383282</v>
+      </c>
       <c r="L15">
         <v>0.2976480011108156</v>
       </c>
@@ -740,7 +1340,7 @@
         <v>7</v>
       </c>
       <c r="N15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O15">
         <v>5</v>
@@ -753,20 +1353,50 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16">
+        <v>12.4</v>
+      </c>
+      <c r="G16">
+        <v>5.14</v>
+      </c>
+      <c r="H16">
+        <v>4.164383561643835</v>
+      </c>
+      <c r="I16">
+        <v>9.017799999999999</v>
+      </c>
+      <c r="J16">
+        <v>4.142013</v>
+      </c>
+      <c r="K16">
+        <v>0.585483870967742</v>
+      </c>
       <c r="L16">
-        <v>4.111445009562567</v>
+        <v>1.253777006431993</v>
       </c>
       <c r="M16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O16">
         <v>3</v>
       </c>
       <c r="P16">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -780,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O17">
         <v>1</v>

--- a/daily_cum_performance_stat.xlsx
+++ b/daily_cum_performance_stat.xlsx
@@ -666,22 +666,22 @@
         <v>60</v>
       </c>
       <c r="F2">
-        <v>10.5</v>
+        <v>10.45</v>
       </c>
       <c r="G2">
         <v>3.94</v>
       </c>
       <c r="H2">
-        <v>3.397260273972603</v>
+        <v>3.394520547945206</v>
       </c>
       <c r="I2">
-        <v>29.5697</v>
+        <v>29.2863</v>
       </c>
       <c r="J2">
         <v>0.585301</v>
       </c>
       <c r="K2">
-        <v>0.6247619047619049</v>
+        <v>0.6229665071770335</v>
       </c>
       <c r="L2">
         <v>8.835051884240428</v>
@@ -690,7 +690,7 @@
         <v>22</v>
       </c>
       <c r="N2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2">
         <v>13</v>
@@ -716,22 +716,22 @@
         <v>61</v>
       </c>
       <c r="F3">
-        <v>135.88</v>
+        <v>135.65</v>
       </c>
       <c r="G3">
         <v>102.4</v>
       </c>
       <c r="H3">
-        <v>5.347945205479452</v>
+        <v>5.345205479452055</v>
       </c>
       <c r="I3">
-        <v>-0.1947</v>
+        <v>-0.2799</v>
       </c>
       <c r="J3">
-        <v>12.20161</v>
+        <v>11.668573</v>
       </c>
       <c r="K3">
-        <v>0.2463938769502501</v>
+        <v>0.24511610762993</v>
       </c>
       <c r="L3">
         <v>-2.584184025614019</v>
@@ -740,7 +740,7 @@
         <v>7</v>
       </c>
       <c r="N3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O3">
         <v>4</v>
@@ -766,37 +766,37 @@
         <v>62</v>
       </c>
       <c r="F4">
-        <v>11.44</v>
+        <v>11.25</v>
       </c>
       <c r="G4">
         <v>8.800000000000001</v>
       </c>
       <c r="H4">
-        <v>3.046575342465753</v>
+        <v>3.043835616438356</v>
       </c>
       <c r="I4">
-        <v>-0.1608</v>
+        <v>0.1354</v>
       </c>
       <c r="J4">
-        <v>35.114655</v>
+        <v>35.111995</v>
       </c>
       <c r="K4">
-        <v>0.2307692307692307</v>
+        <v>0.2177777777777777</v>
       </c>
       <c r="L4">
-        <v>0.696256481171418</v>
+        <v>1.400693289349219</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P4">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -816,37 +816,37 @@
         <v>63</v>
       </c>
       <c r="F5">
-        <v>11.62</v>
+        <v>12.14</v>
       </c>
       <c r="G5">
         <v>9.619999999999999</v>
       </c>
       <c r="H5">
-        <v>3.073972602739726</v>
+        <v>3.071232876712329</v>
       </c>
       <c r="I5">
-        <v>2.5946</v>
+        <v>1.1297</v>
       </c>
       <c r="J5">
         <v>30.054544</v>
       </c>
       <c r="K5">
-        <v>0.1721170395869191</v>
+        <v>0.2075782537067546</v>
       </c>
       <c r="L5">
-        <v>1.154891723030873</v>
+        <v>2.354042633574565</v>
       </c>
       <c r="M5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P5">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -866,37 +866,37 @@
         <v>64</v>
       </c>
       <c r="F6">
-        <v>50.32</v>
+        <v>50.24</v>
       </c>
       <c r="G6">
         <v>20.17</v>
       </c>
       <c r="H6">
-        <v>1.032876712328767</v>
+        <v>1.03013698630137</v>
       </c>
       <c r="I6">
-        <v>23.3256</v>
+        <v>23.6601</v>
       </c>
       <c r="J6">
         <v>2.06374</v>
       </c>
       <c r="K6">
-        <v>0.5991653418124006</v>
+        <v>0.5985270700636942</v>
       </c>
       <c r="L6">
-        <v>-13.00517880632529</v>
+        <v>-14.94585142670747</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O6">
         <v>9</v>
       </c>
       <c r="P6">
-        <v>0.5294117647058824</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -916,37 +916,37 @@
         <v>65</v>
       </c>
       <c r="F7">
-        <v>35.77</v>
+        <v>34.63</v>
       </c>
       <c r="G7">
         <v>21.33</v>
       </c>
       <c r="H7">
-        <v>1.019178082191781</v>
+        <v>1.016438356164383</v>
       </c>
       <c r="I7">
-        <v>17.473</v>
+        <v>18.8148</v>
       </c>
       <c r="J7">
         <v>5.517917</v>
       </c>
       <c r="K7">
-        <v>0.403690243220576</v>
+        <v>0.3840600635287324</v>
       </c>
       <c r="L7">
-        <v>19.51472583742005</v>
+        <v>16.59966027305389</v>
       </c>
       <c r="M7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O7">
         <v>14</v>
       </c>
       <c r="P7">
-        <v>0.5185185185185185</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -966,22 +966,22 @@
         <v>66</v>
       </c>
       <c r="F8">
-        <v>73.34</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="G8">
         <v>19.13</v>
       </c>
       <c r="H8">
-        <v>2.624657534246575</v>
+        <v>2.621917808219178</v>
       </c>
       <c r="I8">
-        <v>5.6013</v>
+        <v>5.3045</v>
       </c>
       <c r="J8">
         <v>1.23958</v>
       </c>
       <c r="K8">
-        <v>0.7391600763566949</v>
+        <v>0.7366827253957331</v>
       </c>
       <c r="L8">
         <v>30.36718644923771</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="N8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O8">
         <v>6</v>
@@ -1016,22 +1016,22 @@
         <v>67</v>
       </c>
       <c r="F9">
-        <v>54.37</v>
+        <v>54.45</v>
       </c>
       <c r="G9">
         <v>14.98</v>
       </c>
       <c r="H9">
-        <v>2.454794520547945</v>
+        <v>2.452054794520548</v>
       </c>
       <c r="I9">
-        <v>13.5893</v>
+        <v>16.296</v>
       </c>
       <c r="J9">
         <v>3.93337</v>
       </c>
       <c r="K9">
-        <v>0.7244804119919074</v>
+        <v>0.7248852157943066</v>
       </c>
       <c r="L9">
         <v>0.1469195822222078</v>
@@ -1066,22 +1066,22 @@
         <v>68</v>
       </c>
       <c r="F10">
-        <v>17.14</v>
+        <v>17.18</v>
       </c>
       <c r="G10">
         <v>7.66</v>
       </c>
       <c r="H10">
-        <v>2.457534246575342</v>
+        <v>2.454794520547945</v>
       </c>
       <c r="I10">
-        <v>13.0704</v>
+        <v>10.7244</v>
       </c>
       <c r="J10">
         <v>10.14751</v>
       </c>
       <c r="K10">
-        <v>0.5530921820303384</v>
+        <v>0.5541327124563445</v>
       </c>
       <c r="L10">
         <v>30.88765199444329</v>
@@ -1090,7 +1090,7 @@
         <v>19</v>
       </c>
       <c r="N10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10">
         <v>13</v>
@@ -1116,22 +1116,22 @@
         <v>69</v>
       </c>
       <c r="F11">
-        <v>16.24</v>
+        <v>15.97</v>
       </c>
       <c r="G11">
         <v>6.25</v>
       </c>
       <c r="H11">
-        <v>2.843835616438356</v>
+        <v>2.841095890410959</v>
       </c>
       <c r="I11">
-        <v>33.2358</v>
+        <v>34.9444</v>
       </c>
       <c r="J11">
         <v>0.529199</v>
       </c>
       <c r="K11">
-        <v>0.6151477832512315</v>
+        <v>0.6086412022542267</v>
       </c>
       <c r="L11">
         <v>5.606471711929634</v>
@@ -1140,7 +1140,7 @@
         <v>20</v>
       </c>
       <c r="N11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11">
         <v>10</v>
@@ -1166,22 +1166,22 @@
         <v>70</v>
       </c>
       <c r="F12">
-        <v>11.5</v>
+        <v>11.63</v>
       </c>
       <c r="G12">
         <v>8.25</v>
       </c>
       <c r="H12">
-        <v>0.1589041095890411</v>
+        <v>0.1561643835616438</v>
       </c>
       <c r="I12">
-        <v>5.5261</v>
+        <v>6.6314</v>
       </c>
       <c r="J12">
         <v>9.085635999999999</v>
       </c>
       <c r="K12">
-        <v>0.2826086956521739</v>
+        <v>0.2906276870163371</v>
       </c>
       <c r="L12">
         <v>7.797940572200709</v>
@@ -1190,7 +1190,7 @@
         <v>14</v>
       </c>
       <c r="N12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O12">
         <v>8</v>
@@ -1216,37 +1216,37 @@
         <v>71</v>
       </c>
       <c r="F13">
-        <v>88.3</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="G13">
         <v>10.96</v>
       </c>
       <c r="H13">
-        <v>3.627397260273972</v>
+        <v>3.624657534246575</v>
       </c>
       <c r="I13">
-        <v>10.928</v>
+        <v>8.8773</v>
       </c>
       <c r="J13">
         <v>1.148051</v>
       </c>
       <c r="K13">
-        <v>0.8758776896942243</v>
+        <v>0.8795472029893395</v>
       </c>
       <c r="L13">
-        <v>8.270921432050216</v>
+        <v>5.899089507716626</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O13">
         <v>7</v>
       </c>
       <c r="P13">
-        <v>0.7</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1266,37 +1266,37 @@
         <v>72</v>
       </c>
       <c r="F14">
-        <v>159.35</v>
+        <v>158.8</v>
       </c>
       <c r="G14">
         <v>64.62</v>
       </c>
       <c r="H14">
-        <v>3.298630136986302</v>
+        <v>3.295890410958904</v>
       </c>
       <c r="I14">
-        <v>12.3256</v>
+        <v>11.9049</v>
       </c>
       <c r="J14">
         <v>4.539255</v>
       </c>
       <c r="K14">
-        <v>0.5944775651082522</v>
+        <v>0.5930730478589421</v>
       </c>
       <c r="L14">
-        <v>-0.7681820511473898</v>
+        <v>10.24556529722062</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P14">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1316,37 +1316,37 @@
         <v>73</v>
       </c>
       <c r="F15">
-        <v>95.83</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="G15">
         <v>35.88</v>
       </c>
       <c r="H15">
-        <v>4.676712328767123</v>
+        <v>4.673972602739726</v>
       </c>
       <c r="I15">
-        <v>0.5591</v>
+        <v>3.7723</v>
       </c>
       <c r="J15">
         <v>8.35375</v>
       </c>
       <c r="K15">
-        <v>0.6255869769383282</v>
+        <v>0.6104234527687296</v>
       </c>
       <c r="L15">
-        <v>0.2976480011108156</v>
+        <v>-1.366648154052862</v>
       </c>
       <c r="M15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O15">
         <v>5</v>
       </c>
       <c r="P15">
-        <v>0.7142857142857143</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1366,22 +1366,22 @@
         <v>74</v>
       </c>
       <c r="F16">
-        <v>12.4</v>
+        <v>12.48</v>
       </c>
       <c r="G16">
         <v>5.14</v>
       </c>
       <c r="H16">
-        <v>4.164383561643835</v>
+        <v>4.161643835616438</v>
       </c>
       <c r="I16">
-        <v>9.017799999999999</v>
+        <v>8.114599999999999</v>
       </c>
       <c r="J16">
         <v>4.142013</v>
       </c>
       <c r="K16">
-        <v>0.585483870967742</v>
+        <v>0.5881410256410257</v>
       </c>
       <c r="L16">
         <v>1.253777006431993</v>
@@ -1390,7 +1390,7 @@
         <v>8</v>
       </c>
       <c r="N16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O16">
         <v>3</v>
@@ -1410,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O17">
         <v>1</v>

--- a/daily_cum_performance_stat.xlsx
+++ b/daily_cum_performance_stat.xlsx
@@ -666,37 +666,37 @@
         <v>60</v>
       </c>
       <c r="F2">
-        <v>10.45</v>
+        <v>10.62</v>
       </c>
       <c r="G2">
         <v>3.94</v>
       </c>
       <c r="H2">
-        <v>3.394520547945206</v>
+        <v>3.391780821917808</v>
       </c>
       <c r="I2">
-        <v>29.2863</v>
+        <v>30.4058</v>
       </c>
       <c r="J2">
         <v>0.585301</v>
       </c>
       <c r="K2">
-        <v>0.6229665071770335</v>
+        <v>0.6290018832391714</v>
       </c>
       <c r="L2">
-        <v>8.835051884240428</v>
+        <v>8.415918514748881</v>
       </c>
       <c r="M2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2">
         <v>13</v>
       </c>
       <c r="P2">
-        <v>0.5909090909090909</v>
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -716,22 +716,22 @@
         <v>61</v>
       </c>
       <c r="F3">
-        <v>135.65</v>
+        <v>135.92</v>
       </c>
       <c r="G3">
         <v>102.4</v>
       </c>
       <c r="H3">
-        <v>5.345205479452055</v>
+        <v>5.342465753424658</v>
       </c>
       <c r="I3">
-        <v>-0.2799</v>
+        <v>-0.0854</v>
       </c>
       <c r="J3">
-        <v>11.668573</v>
+        <v>11.615582</v>
       </c>
       <c r="K3">
-        <v>0.24511610762993</v>
+        <v>0.2466156562683931</v>
       </c>
       <c r="L3">
         <v>-2.584184025614019</v>
@@ -740,7 +740,7 @@
         <v>7</v>
       </c>
       <c r="N3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3">
         <v>4</v>
@@ -766,37 +766,37 @@
         <v>62</v>
       </c>
       <c r="F4">
-        <v>11.25</v>
+        <v>11.2</v>
       </c>
       <c r="G4">
         <v>8.800000000000001</v>
       </c>
       <c r="H4">
-        <v>3.043835616438356</v>
+        <v>3.041095890410959</v>
       </c>
       <c r="I4">
-        <v>0.1354</v>
+        <v>1.4334</v>
       </c>
       <c r="J4">
-        <v>35.111995</v>
+        <v>35.111985</v>
       </c>
       <c r="K4">
-        <v>0.2177777777777777</v>
+        <v>0.2142857142857142</v>
       </c>
       <c r="L4">
-        <v>1.400693289349219</v>
+        <v>2.126844281849241</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P4">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -816,37 +816,37 @@
         <v>63</v>
       </c>
       <c r="F5">
-        <v>12.14</v>
+        <v>12.21</v>
       </c>
       <c r="G5">
         <v>9.619999999999999</v>
       </c>
       <c r="H5">
-        <v>3.071232876712329</v>
+        <v>3.068493150684931</v>
       </c>
       <c r="I5">
-        <v>1.1297</v>
+        <v>0.8871</v>
       </c>
       <c r="J5">
         <v>30.054544</v>
       </c>
       <c r="K5">
-        <v>0.2075782537067546</v>
+        <v>0.2121212121212122</v>
       </c>
       <c r="L5">
-        <v>2.354042633574565</v>
+        <v>1.853732280257601</v>
       </c>
       <c r="M5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O5">
         <v>6</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -866,37 +866,37 @@
         <v>64</v>
       </c>
       <c r="F6">
-        <v>50.24</v>
+        <v>48.71</v>
       </c>
       <c r="G6">
         <v>20.17</v>
       </c>
       <c r="H6">
-        <v>1.03013698630137</v>
+        <v>1.027397260273973</v>
       </c>
       <c r="I6">
-        <v>23.6601</v>
+        <v>26.495</v>
       </c>
       <c r="J6">
         <v>2.06374</v>
       </c>
       <c r="K6">
-        <v>0.5985270700636942</v>
+        <v>0.5859166495586121</v>
       </c>
       <c r="L6">
-        <v>-14.94585142670747</v>
+        <v>-11.00033186752052</v>
       </c>
       <c r="M6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P6">
-        <v>0.5</v>
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -916,37 +916,37 @@
         <v>65</v>
       </c>
       <c r="F7">
-        <v>34.63</v>
+        <v>34.26</v>
       </c>
       <c r="G7">
         <v>21.33</v>
       </c>
       <c r="H7">
-        <v>1.016438356164383</v>
+        <v>1.013698630136986</v>
       </c>
       <c r="I7">
-        <v>18.8148</v>
+        <v>21.9458</v>
       </c>
       <c r="J7">
         <v>5.517917</v>
       </c>
       <c r="K7">
-        <v>0.3840600635287324</v>
+        <v>0.3774080560420315</v>
       </c>
       <c r="L7">
-        <v>16.59966027305389</v>
+        <v>16.14742801210821</v>
       </c>
       <c r="M7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O7">
         <v>14</v>
       </c>
       <c r="P7">
-        <v>0.5</v>
+        <v>0.4827586206896552</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -966,22 +966,22 @@
         <v>66</v>
       </c>
       <c r="F8">
-        <v>72.65000000000001</v>
+        <v>70.66</v>
       </c>
       <c r="G8">
         <v>19.13</v>
       </c>
       <c r="H8">
-        <v>2.621917808219178</v>
+        <v>2.619178082191781</v>
       </c>
       <c r="I8">
-        <v>5.3045</v>
+        <v>7.4813</v>
       </c>
       <c r="J8">
-        <v>1.23958</v>
+        <v>1.23957</v>
       </c>
       <c r="K8">
-        <v>0.7366827253957331</v>
+        <v>0.7292669119728277</v>
       </c>
       <c r="L8">
         <v>30.36718644923771</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="N8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O8">
         <v>6</v>
@@ -1016,22 +1016,22 @@
         <v>67</v>
       </c>
       <c r="F9">
-        <v>54.45</v>
+        <v>52.89</v>
       </c>
       <c r="G9">
         <v>14.98</v>
       </c>
       <c r="H9">
-        <v>2.452054794520548</v>
+        <v>2.449315068493151</v>
       </c>
       <c r="I9">
-        <v>16.296</v>
+        <v>17.4872</v>
       </c>
       <c r="J9">
         <v>3.93337</v>
       </c>
       <c r="K9">
-        <v>0.7248852157943066</v>
+        <v>0.7167706560786538</v>
       </c>
       <c r="L9">
         <v>0.1469195822222078</v>
@@ -1066,37 +1066,37 @@
         <v>68</v>
       </c>
       <c r="F10">
-        <v>17.18</v>
+        <v>17.11</v>
       </c>
       <c r="G10">
         <v>7.66</v>
       </c>
       <c r="H10">
-        <v>2.454794520547945</v>
+        <v>2.452054794520548</v>
       </c>
       <c r="I10">
-        <v>10.7244</v>
+        <v>11.4694</v>
       </c>
       <c r="J10">
         <v>10.14751</v>
       </c>
       <c r="K10">
-        <v>0.5541327124563445</v>
+        <v>0.5523085914669783</v>
       </c>
       <c r="L10">
-        <v>30.88765199444329</v>
+        <v>41.10676895893566</v>
       </c>
       <c r="M10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P10">
-        <v>0.6842105263157895</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1116,37 +1116,37 @@
         <v>69</v>
       </c>
       <c r="F11">
-        <v>15.97</v>
+        <v>16.22</v>
       </c>
       <c r="G11">
         <v>6.25</v>
       </c>
       <c r="H11">
-        <v>2.841095890410959</v>
+        <v>2.838356164383562</v>
       </c>
       <c r="I11">
-        <v>34.9444</v>
+        <v>36.0184</v>
       </c>
       <c r="J11">
         <v>0.529199</v>
       </c>
       <c r="K11">
-        <v>0.6086412022542267</v>
+        <v>0.6146732429099876</v>
       </c>
       <c r="L11">
-        <v>5.606471711929634</v>
+        <v>6.143593108890533</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P11">
-        <v>0.5</v>
+        <v>0.5238095238095238</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1166,37 +1166,37 @@
         <v>70</v>
       </c>
       <c r="F12">
-        <v>11.63</v>
+        <v>11.95</v>
       </c>
       <c r="G12">
         <v>8.25</v>
       </c>
       <c r="H12">
-        <v>0.1561643835616438</v>
+        <v>0.1534246575342466</v>
       </c>
       <c r="I12">
-        <v>6.6314</v>
+        <v>3.7429</v>
       </c>
       <c r="J12">
         <v>9.085635999999999</v>
       </c>
       <c r="K12">
-        <v>0.2906276870163371</v>
+        <v>0.3096234309623431</v>
       </c>
       <c r="L12">
-        <v>7.797940572200709</v>
+        <v>14.88091334778646</v>
       </c>
       <c r="M12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P12">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1216,37 +1216,37 @@
         <v>71</v>
       </c>
       <c r="F13">
-        <v>90.98999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="G13">
         <v>10.96</v>
       </c>
       <c r="H13">
-        <v>3.624657534246575</v>
+        <v>3.621917808219178</v>
       </c>
       <c r="I13">
-        <v>8.8773</v>
+        <v>9.2379</v>
       </c>
       <c r="J13">
-        <v>1.148051</v>
+        <v>1.148001</v>
       </c>
       <c r="K13">
-        <v>0.8795472029893395</v>
+        <v>0.8792951541850221</v>
       </c>
       <c r="L13">
-        <v>5.899089507716626</v>
+        <v>7.506118779683139</v>
       </c>
       <c r="M13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P13">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1266,37 +1266,37 @@
         <v>72</v>
       </c>
       <c r="F14">
-        <v>158.8</v>
+        <v>153.42</v>
       </c>
       <c r="G14">
         <v>64.62</v>
       </c>
       <c r="H14">
-        <v>3.295890410958904</v>
+        <v>3.293150684931507</v>
       </c>
       <c r="I14">
-        <v>11.9049</v>
+        <v>14.1645</v>
       </c>
       <c r="J14">
         <v>4.539255</v>
       </c>
       <c r="K14">
-        <v>0.5930730478589421</v>
+        <v>0.5788032850997262</v>
       </c>
       <c r="L14">
-        <v>10.24556529722062</v>
+        <v>19.78902704435725</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P14">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1316,37 +1316,37 @@
         <v>73</v>
       </c>
       <c r="F15">
-        <v>92.09999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="G15">
         <v>35.88</v>
       </c>
       <c r="H15">
-        <v>4.673972602739726</v>
+        <v>4.671232876712329</v>
       </c>
       <c r="I15">
-        <v>3.7723</v>
+        <v>4.6333</v>
       </c>
       <c r="J15">
         <v>8.35375</v>
       </c>
       <c r="K15">
-        <v>0.6104234527687296</v>
+        <v>0.6061470911086717</v>
       </c>
       <c r="L15">
-        <v>-1.366648154052862</v>
+        <v>-5.881468956738287</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O15">
         <v>5</v>
       </c>
       <c r="P15">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1366,37 +1366,37 @@
         <v>74</v>
       </c>
       <c r="F16">
-        <v>12.48</v>
+        <v>12.41</v>
       </c>
       <c r="G16">
         <v>5.14</v>
       </c>
       <c r="H16">
-        <v>4.161643835616438</v>
+        <v>4.158904109589042</v>
       </c>
       <c r="I16">
-        <v>8.114599999999999</v>
+        <v>8.4954</v>
       </c>
       <c r="J16">
         <v>4.142013</v>
       </c>
       <c r="K16">
-        <v>0.5881410256410257</v>
+        <v>0.5858178887993554</v>
       </c>
       <c r="L16">
-        <v>1.253777006431993</v>
+        <v>6.233286818287084</v>
       </c>
       <c r="M16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1410,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O17">
         <v>1</v>

--- a/daily_cum_performance_stat.xlsx
+++ b/daily_cum_performance_stat.xlsx
@@ -666,37 +666,37 @@
         <v>60</v>
       </c>
       <c r="F2">
-        <v>10.62</v>
+        <v>11.34</v>
       </c>
       <c r="G2">
         <v>3.94</v>
       </c>
       <c r="H2">
-        <v>3.391780821917808</v>
+        <v>3.375342465753425</v>
       </c>
       <c r="I2">
-        <v>30.4058</v>
+        <v>21.9531</v>
       </c>
       <c r="J2">
         <v>0.585301</v>
       </c>
       <c r="K2">
-        <v>0.6290018832391714</v>
+        <v>0.652557319223986</v>
       </c>
       <c r="L2">
-        <v>8.415918514748881</v>
+        <v>11.86500018536431</v>
       </c>
       <c r="M2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P2">
-        <v>0.5652173913043478</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -716,22 +716,22 @@
         <v>61</v>
       </c>
       <c r="F3">
-        <v>135.92</v>
+        <v>128.28</v>
       </c>
       <c r="G3">
         <v>102.4</v>
       </c>
       <c r="H3">
-        <v>5.342465753424658</v>
+        <v>5.326027397260274</v>
       </c>
       <c r="I3">
-        <v>-0.0854</v>
+        <v>-0.0076</v>
       </c>
       <c r="J3">
-        <v>11.615582</v>
+        <v>9.116198000000001</v>
       </c>
       <c r="K3">
-        <v>0.2466156562683931</v>
+        <v>0.2017461802307452</v>
       </c>
       <c r="L3">
         <v>-2.584184025614019</v>
@@ -740,7 +740,7 @@
         <v>7</v>
       </c>
       <c r="N3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O3">
         <v>4</v>
@@ -766,37 +766,37 @@
         <v>62</v>
       </c>
       <c r="F4">
-        <v>11.2</v>
+        <v>11.23</v>
       </c>
       <c r="G4">
         <v>8.800000000000001</v>
       </c>
       <c r="H4">
-        <v>3.041095890410959</v>
+        <v>3.024657534246575</v>
       </c>
       <c r="I4">
-        <v>1.4334</v>
+        <v>2.1137</v>
       </c>
       <c r="J4">
-        <v>35.111985</v>
+        <v>35.111875</v>
       </c>
       <c r="K4">
-        <v>0.2142857142857142</v>
+        <v>0.2163846838824577</v>
       </c>
       <c r="L4">
-        <v>2.126844281849241</v>
+        <v>4.009340994265321</v>
       </c>
       <c r="M4">
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <v>34</v>
+      </c>
+      <c r="O4">
         <v>9</v>
       </c>
-      <c r="N4">
-        <v>30</v>
-      </c>
-      <c r="O4">
-        <v>6</v>
-      </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -816,37 +816,37 @@
         <v>63</v>
       </c>
       <c r="F5">
-        <v>12.21</v>
+        <v>11.63</v>
       </c>
       <c r="G5">
         <v>9.619999999999999</v>
       </c>
       <c r="H5">
-        <v>3.068493150684931</v>
+        <v>3.052054794520548</v>
       </c>
       <c r="I5">
-        <v>0.8871</v>
+        <v>3.7256</v>
       </c>
       <c r="J5">
-        <v>30.054544</v>
+        <v>30.054124</v>
       </c>
       <c r="K5">
-        <v>0.2121212121212122</v>
+        <v>0.1728288907996562</v>
       </c>
       <c r="L5">
-        <v>1.853732280257601</v>
+        <v>1.703936127336362</v>
       </c>
       <c r="M5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N5">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O5">
         <v>6</v>
       </c>
       <c r="P5">
-        <v>0.4615384615384616</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -866,37 +866,37 @@
         <v>64</v>
       </c>
       <c r="F6">
-        <v>48.71</v>
+        <v>52.1</v>
       </c>
       <c r="G6">
         <v>20.17</v>
       </c>
       <c r="H6">
-        <v>1.027397260273973</v>
+        <v>1.010958904109589</v>
       </c>
       <c r="I6">
-        <v>26.495</v>
+        <v>29.436</v>
       </c>
       <c r="J6">
-        <v>2.06374</v>
+        <v>2.06368</v>
       </c>
       <c r="K6">
-        <v>0.5859166495586121</v>
+        <v>0.6128598848368522</v>
       </c>
       <c r="L6">
-        <v>-11.00033186752052</v>
+        <v>-11.69125701857344</v>
       </c>
       <c r="M6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N6">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P6">
-        <v>0.5263157894736842</v>
+        <v>0.5238095238095238</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -916,37 +916,37 @@
         <v>65</v>
       </c>
       <c r="F7">
-        <v>34.26</v>
+        <v>33.9</v>
       </c>
       <c r="G7">
         <v>21.33</v>
       </c>
       <c r="H7">
-        <v>1.013698630136986</v>
+        <v>0.9972602739726028</v>
       </c>
       <c r="I7">
-        <v>21.9458</v>
+        <v>23.6385</v>
       </c>
       <c r="J7">
         <v>5.517917</v>
       </c>
       <c r="K7">
-        <v>0.3774080560420315</v>
+        <v>0.3707964601769912</v>
       </c>
       <c r="L7">
-        <v>16.14742801210821</v>
+        <v>12.5511828381548</v>
       </c>
       <c r="M7">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N7">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P7">
-        <v>0.4827586206896552</v>
+        <v>0.4848484848484849</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -966,37 +966,37 @@
         <v>66</v>
       </c>
       <c r="F8">
-        <v>70.66</v>
+        <v>73.19</v>
       </c>
       <c r="G8">
         <v>19.13</v>
       </c>
       <c r="H8">
-        <v>2.619178082191781</v>
+        <v>2.602739726027397</v>
       </c>
       <c r="I8">
-        <v>7.4813</v>
+        <v>7.151</v>
       </c>
       <c r="J8">
         <v>1.23957</v>
       </c>
       <c r="K8">
-        <v>0.7292669119728277</v>
+        <v>0.7386254952862413</v>
       </c>
       <c r="L8">
-        <v>30.36718644923771</v>
+        <v>40.24733711897932</v>
       </c>
       <c r="M8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N8">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P8">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1016,22 +1016,22 @@
         <v>67</v>
       </c>
       <c r="F9">
-        <v>52.89</v>
+        <v>52.75</v>
       </c>
       <c r="G9">
         <v>14.98</v>
       </c>
       <c r="H9">
-        <v>2.449315068493151</v>
+        <v>2.432876712328767</v>
       </c>
       <c r="I9">
-        <v>17.4872</v>
+        <v>14.1848</v>
       </c>
       <c r="J9">
         <v>3.93337</v>
       </c>
       <c r="K9">
-        <v>0.7167706560786538</v>
+        <v>0.7160189573459715</v>
       </c>
       <c r="L9">
         <v>0.1469195822222078</v>
@@ -1066,37 +1066,37 @@
         <v>68</v>
       </c>
       <c r="F10">
-        <v>17.11</v>
+        <v>13.83</v>
       </c>
       <c r="G10">
         <v>7.66</v>
       </c>
       <c r="H10">
-        <v>2.452054794520548</v>
+        <v>2.435616438356164</v>
       </c>
       <c r="I10">
-        <v>11.4694</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="J10">
-        <v>10.14751</v>
+        <v>10.14716</v>
       </c>
       <c r="K10">
-        <v>0.5523085914669783</v>
+        <v>0.4461315979754157</v>
       </c>
       <c r="L10">
-        <v>41.10676895893566</v>
+        <v>34.07528678303635</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N10">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O10">
         <v>14</v>
       </c>
       <c r="P10">
-        <v>0.7</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1116,37 +1116,37 @@
         <v>69</v>
       </c>
       <c r="F11">
-        <v>16.22</v>
+        <v>16.33</v>
       </c>
       <c r="G11">
         <v>6.25</v>
       </c>
       <c r="H11">
-        <v>2.838356164383562</v>
+        <v>2.821917808219178</v>
       </c>
       <c r="I11">
-        <v>36.0184</v>
+        <v>31.8509</v>
       </c>
       <c r="J11">
         <v>0.529199</v>
       </c>
       <c r="K11">
-        <v>0.6146732429099876</v>
+        <v>0.6172688303735456</v>
       </c>
       <c r="L11">
-        <v>6.143593108890533</v>
+        <v>-15.30952707936436</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N11">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P11">
-        <v>0.5238095238095238</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1166,37 +1166,37 @@
         <v>70</v>
       </c>
       <c r="F12">
-        <v>11.95</v>
+        <v>10.37</v>
       </c>
       <c r="G12">
         <v>8.25</v>
       </c>
       <c r="H12">
-        <v>0.1534246575342466</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="I12">
-        <v>3.7429</v>
+        <v>2.8752</v>
       </c>
       <c r="J12">
-        <v>9.085635999999999</v>
+        <v>9.084526</v>
       </c>
       <c r="K12">
-        <v>0.3096234309623431</v>
+        <v>0.2044358727097396</v>
       </c>
       <c r="L12">
-        <v>14.88091334778646</v>
+        <v>15.86347714120837</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N12">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P12">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1216,37 +1216,37 @@
         <v>71</v>
       </c>
       <c r="F13">
-        <v>90.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="G13">
         <v>10.96</v>
       </c>
       <c r="H13">
-        <v>3.621917808219178</v>
+        <v>3.605479452054794</v>
       </c>
       <c r="I13">
-        <v>9.2379</v>
+        <v>6.3526</v>
       </c>
       <c r="J13">
-        <v>1.148001</v>
+        <v>1.147911</v>
       </c>
       <c r="K13">
-        <v>0.8792951541850221</v>
+        <v>0.8835281615302868</v>
       </c>
       <c r="L13">
-        <v>7.506118779683139</v>
+        <v>11.60089925414683</v>
       </c>
       <c r="M13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N13">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P13">
-        <v>0.6666666666666666</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1266,37 +1266,37 @@
         <v>72</v>
       </c>
       <c r="F14">
-        <v>153.42</v>
+        <v>162.99</v>
       </c>
       <c r="G14">
         <v>64.62</v>
       </c>
       <c r="H14">
-        <v>3.293150684931507</v>
+        <v>3.276712328767123</v>
       </c>
       <c r="I14">
-        <v>14.1645</v>
+        <v>12.7922</v>
       </c>
       <c r="J14">
         <v>4.539255</v>
       </c>
       <c r="K14">
-        <v>0.5788032850997262</v>
+        <v>0.6035339591385974</v>
       </c>
       <c r="L14">
-        <v>19.78902704435725</v>
+        <v>24.30493594375733</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N14">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P14">
-        <v>0.7</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1316,37 +1316,37 @@
         <v>73</v>
       </c>
       <c r="F15">
-        <v>91.09999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="G15">
         <v>35.88</v>
       </c>
       <c r="H15">
-        <v>4.671232876712329</v>
+        <v>4.654794520547945</v>
       </c>
       <c r="I15">
-        <v>4.6333</v>
+        <v>1.5237</v>
       </c>
       <c r="J15">
-        <v>8.35375</v>
+        <v>8.353730000000001</v>
       </c>
       <c r="K15">
-        <v>0.6061470911086717</v>
+        <v>0.6211193241816262</v>
       </c>
       <c r="L15">
-        <v>-5.881468956738287</v>
+        <v>-14.32065123995165</v>
       </c>
       <c r="M15">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N15">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P15">
-        <v>0.5555555555555556</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1366,37 +1366,37 @@
         <v>74</v>
       </c>
       <c r="F16">
-        <v>12.41</v>
+        <v>12.25</v>
       </c>
       <c r="G16">
         <v>5.14</v>
       </c>
       <c r="H16">
-        <v>4.158904109589042</v>
+        <v>4.142465753424657</v>
       </c>
       <c r="I16">
-        <v>8.4954</v>
+        <v>5.229</v>
       </c>
       <c r="J16">
         <v>4.142013</v>
       </c>
       <c r="K16">
-        <v>0.5858178887993554</v>
+        <v>0.5804081632653062</v>
       </c>
       <c r="L16">
-        <v>6.233286818287084</v>
+        <v>-1.032365084883258</v>
       </c>
       <c r="M16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N16">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O16">
         <v>4</v>
       </c>
       <c r="P16">
-        <v>0.4444444444444444</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1404,19 +1404,19 @@
         <v>15</v>
       </c>
       <c r="L17">
-        <v>0.8128940834267953</v>
+        <v>-0.6103364409513292</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O17">
         <v>1</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/daily_cum_performance_stat.xlsx
+++ b/daily_cum_performance_stat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>bond code</t>
   </si>
@@ -73,18 +73,6 @@
     <t>天铁股份</t>
   </si>
   <si>
-    <t>113642.SH</t>
-  </si>
-  <si>
-    <t>上22转债</t>
-  </si>
-  <si>
-    <t>603185.SH</t>
-  </si>
-  <si>
-    <t>上机数控</t>
-  </si>
-  <si>
     <t>110061.SH</t>
   </si>
   <si>
@@ -239,6 +227,9 @@
   </si>
   <si>
     <t>天壕环境</t>
+  </si>
+  <si>
+    <t>b/m</t>
   </si>
 </sst>
 </file>
@@ -247,9 +238,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -269,13 +260,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -289,47 +273,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,16 +288,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,6 +342,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -373,8 +371,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,29 +409,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -458,79 +449,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,7 +593,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,85 +623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,8 +655,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,6 +690,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,26 +716,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,170 +749,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -930,6 +921,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1281,33 +1274,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="3.69230769230769" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.8461538461538" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.6923076923077" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.8461538461538" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6923076923077" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.0769230769231" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.3076923076923" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.9230769230769" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.1538461538462" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.9230769230769" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12.9230769230769" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.0769230769231" style="4" customWidth="1"/>
-    <col min="13" max="13" width="11.3846153846154" style="4" customWidth="1"/>
-    <col min="14" max="14" width="10.5384615384615" style="4" customWidth="1"/>
-    <col min="15" max="15" width="4.92307692307692" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.9230769230769" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.69230769230769" customWidth="1"/>
+    <col min="2" max="2" width="10.8461538461538" customWidth="1"/>
+    <col min="3" max="3" width="11.6923076923077" customWidth="1"/>
+    <col min="4" max="4" width="10.8461538461538" customWidth="1"/>
+    <col min="5" max="5" width="11.6923076923077" customWidth="1"/>
+    <col min="6" max="6" width="11.0769230769231" customWidth="1"/>
+    <col min="7" max="7" width="13.3076923076923" customWidth="1"/>
+    <col min="8" max="8" width="12.9230769230769" customWidth="1"/>
+    <col min="9" max="9" width="14.1538461538462" customWidth="1"/>
+    <col min="10" max="10" width="13.9230769230769" customWidth="1"/>
+    <col min="11" max="11" width="12.9230769230769" customWidth="1"/>
+    <col min="12" max="12" width="14.0769230769231" customWidth="1"/>
+    <col min="13" max="13" width="11.3846153846154" customWidth="1"/>
+    <col min="14" max="14" width="10.5384615384615" customWidth="1"/>
+    <col min="15" max="15" width="4.92307692307692" customWidth="1"/>
+    <col min="16" max="16" width="12.9230769230769" customWidth="1"/>
+    <col min="17" max="17" width="12.9230769230769"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16">
+    <row r="1" spans="1:16">
+      <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1389,19 +1384,19 @@
         <v>0.703536493604214</v>
       </c>
       <c r="L2" s="7">
-        <v>30.7821800594154</v>
+        <v>35.5127791477096</v>
       </c>
       <c r="M2" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N2" s="7">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P2" s="7">
-        <v>0.580645161290323</v>
+        <v>0.575757575757576</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:16">
@@ -1421,37 +1416,37 @@
         <v>22</v>
       </c>
       <c r="F3" s="9">
-        <v>140.01</v>
+        <v>11.28</v>
       </c>
       <c r="G3" s="9">
-        <v>102.4</v>
+        <v>8.8</v>
       </c>
       <c r="H3" s="9">
-        <v>5.30684931506849</v>
+        <v>3.00547945205479</v>
       </c>
       <c r="I3" s="9">
-        <v>-0.5351</v>
+        <v>1.3935</v>
       </c>
       <c r="J3" s="9">
-        <v>1.990169</v>
+        <v>35.111715</v>
       </c>
       <c r="K3" s="9">
-        <v>0.268623669737876</v>
+        <v>0.219858156028369</v>
       </c>
       <c r="L3" s="9">
-        <v>-2.58418402561402</v>
+        <v>4.82477510100893</v>
       </c>
       <c r="M3" s="9">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N3" s="9">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O3" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P3" s="9">
-        <v>0.571428571428571</v>
+        <v>0.611111111111111</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:16">
@@ -1471,137 +1466,137 @@
         <v>26</v>
       </c>
       <c r="F4" s="9">
-        <v>11.28</v>
+        <v>12.4</v>
       </c>
       <c r="G4" s="9">
-        <v>8.8</v>
+        <v>9.62</v>
       </c>
       <c r="H4" s="9">
-        <v>3.00547945205479</v>
+        <v>3.03287671232877</v>
       </c>
       <c r="I4" s="9">
-        <v>1.3935</v>
+        <v>0.3801</v>
       </c>
       <c r="J4" s="9">
-        <v>35.111715</v>
+        <v>30.053794</v>
       </c>
       <c r="K4" s="9">
-        <v>0.219858156028369</v>
+        <v>0.224193548387097</v>
       </c>
       <c r="L4" s="9">
-        <v>4.97322855814039</v>
+        <v>-0.731016050430313</v>
       </c>
       <c r="M4" s="9">
+        <v>18</v>
+      </c>
+      <c r="N4" s="9">
+        <v>41</v>
+      </c>
+      <c r="O4" s="9">
+        <v>7</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0.388888888888889</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:16">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="7">
+        <v>54.8</v>
+      </c>
+      <c r="G5" s="7">
+        <v>20.17</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.991780821917808</v>
+      </c>
+      <c r="I5" s="7">
+        <v>31.6442</v>
+      </c>
+      <c r="J5" s="7">
+        <v>2.06364</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.631934306569343</v>
+      </c>
+      <c r="L5" s="7">
+        <v>13.715767658612</v>
+      </c>
+      <c r="M5" s="7">
+        <v>28</v>
+      </c>
+      <c r="N5" s="7">
+        <v>41</v>
+      </c>
+      <c r="O5" s="7">
         <v>16</v>
       </c>
-      <c r="N4" s="9">
+      <c r="P5" s="7">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:16">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="11">
+        <v>34.04</v>
+      </c>
+      <c r="G6" s="11">
+        <v>21.33</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.978082191780822</v>
+      </c>
+      <c r="I6" s="11">
+        <v>17.7348</v>
+      </c>
+      <c r="J6" s="11">
+        <v>5.517917</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0.373384253819036</v>
+      </c>
+      <c r="L6" s="11">
+        <v>13.7950494155929</v>
+      </c>
+      <c r="M6" s="11">
         <v>39</v>
       </c>
-      <c r="O4" s="9">
-        <v>11</v>
-      </c>
-      <c r="P4" s="9">
-        <v>0.6875</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:16">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="9">
-        <v>12.4</v>
-      </c>
-      <c r="G5" s="9">
-        <v>9.62</v>
-      </c>
-      <c r="H5" s="9">
-        <v>3.03287671232877</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0.3801</v>
-      </c>
-      <c r="J5" s="9">
-        <v>30.053794</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0.224193548387097</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0.636424187724326</v>
-      </c>
-      <c r="M5" s="9">
-        <v>16</v>
-      </c>
-      <c r="N5" s="9">
-        <v>39</v>
-      </c>
-      <c r="O5" s="9">
-        <v>6</v>
-      </c>
-      <c r="P5" s="9">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:16">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="7">
-        <v>54.8</v>
-      </c>
-      <c r="G6" s="7">
-        <v>20.17</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.991780821917808</v>
-      </c>
-      <c r="I6" s="7">
-        <v>31.6442</v>
-      </c>
-      <c r="J6" s="7">
-        <v>2.06364</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0.631934306569343</v>
-      </c>
-      <c r="L6" s="7">
-        <v>6.11248478713375</v>
-      </c>
-      <c r="M6" s="7">
-        <v>26</v>
-      </c>
-      <c r="N6" s="7">
-        <v>39</v>
-      </c>
-      <c r="O6" s="7">
-        <v>14</v>
-      </c>
-      <c r="P6" s="7">
-        <v>0.538461538461538</v>
+      <c r="N6" s="11">
+        <v>41</v>
+      </c>
+      <c r="O6" s="11">
+        <v>19</v>
+      </c>
+      <c r="P6" s="11">
+        <v>0.487179487179487</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:16">
@@ -1621,37 +1616,37 @@
         <v>38</v>
       </c>
       <c r="F7" s="11">
-        <v>34.04</v>
+        <v>72.8</v>
       </c>
       <c r="G7" s="11">
-        <v>21.33</v>
+        <v>19.13</v>
       </c>
       <c r="H7" s="11">
-        <v>0.978082191780822</v>
+        <v>2.58356164383562</v>
       </c>
       <c r="I7" s="11">
-        <v>17.7348</v>
+        <v>9.0809</v>
       </c>
       <c r="J7" s="11">
-        <v>5.517917</v>
+        <v>1.23957</v>
       </c>
       <c r="K7" s="11">
-        <v>0.373384253819036</v>
+        <v>0.737225274725275</v>
       </c>
       <c r="L7" s="11">
-        <v>19.1182700994031</v>
+        <v>39.5396924377554</v>
       </c>
       <c r="M7" s="11">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="N7" s="11">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O7" s="11">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="P7" s="11">
-        <v>0.513513513513513</v>
+        <v>0.615384615384615</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:16">
@@ -1671,287 +1666,287 @@
         <v>42</v>
       </c>
       <c r="F8" s="11">
-        <v>72.8</v>
+        <v>52.94</v>
       </c>
       <c r="G8" s="11">
-        <v>19.13</v>
+        <v>14.98</v>
       </c>
       <c r="H8" s="11">
-        <v>2.58356164383562</v>
+        <v>2.41369863013699</v>
       </c>
       <c r="I8" s="11">
-        <v>9.0809</v>
+        <v>15.0681</v>
       </c>
       <c r="J8" s="11">
-        <v>1.23957</v>
+        <v>3.93337</v>
       </c>
       <c r="K8" s="11">
-        <v>0.737225274725275</v>
+        <v>0.717038156403476</v>
       </c>
       <c r="L8" s="11">
-        <v>39.5396924377554</v>
+        <v>9.47454966795384</v>
       </c>
       <c r="M8" s="11">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N8" s="11">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O8" s="11">
+        <v>16</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:16">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="9">
+        <v>14.98</v>
+      </c>
+      <c r="G9" s="9">
+        <v>7.66</v>
+      </c>
+      <c r="H9" s="9">
+        <v>2.41643835616438</v>
+      </c>
+      <c r="I9" s="9">
+        <v>8.1722</v>
+      </c>
+      <c r="J9" s="9">
+        <v>10.14715</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0.488651535380507</v>
+      </c>
+      <c r="L9" s="9">
+        <v>-10.5222492110443</v>
+      </c>
+      <c r="M9" s="9">
+        <v>29</v>
+      </c>
+      <c r="N9" s="9">
+        <v>41</v>
+      </c>
+      <c r="O9" s="9">
+        <v>16</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0.551724137931034</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:16">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="P8" s="11">
-        <v>0.615384615384615</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="1:16">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="11">
-        <v>52.94</v>
-      </c>
-      <c r="G9" s="11">
-        <v>14.98</v>
-      </c>
-      <c r="H9" s="11">
-        <v>2.41369863013699</v>
-      </c>
-      <c r="I9" s="11">
-        <v>15.0681</v>
-      </c>
-      <c r="J9" s="11">
-        <v>3.93337</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0.717038156403476</v>
-      </c>
-      <c r="L9" s="11">
-        <v>22.2764396330208</v>
-      </c>
-      <c r="M9" s="11">
-        <v>26</v>
-      </c>
-      <c r="N9" s="11">
-        <v>39</v>
-      </c>
-      <c r="O9" s="11">
+      <c r="B10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7">
+        <v>16.32</v>
+      </c>
+      <c r="G10" s="7">
+        <v>6.25</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2.8027397260274</v>
+      </c>
+      <c r="I10" s="7">
+        <v>32.6976</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.529199</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.61703431372549</v>
+      </c>
+      <c r="L10" s="7">
+        <v>15.8634771412084</v>
+      </c>
+      <c r="M10" s="7">
         <v>16</v>
       </c>
-      <c r="P9" s="11">
-        <v>0.615384615384615</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:16">
-      <c r="A10" s="8">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="9">
-        <v>14.98</v>
-      </c>
-      <c r="G10" s="9">
-        <v>7.66</v>
-      </c>
-      <c r="H10" s="9">
-        <v>2.41643835616438</v>
-      </c>
-      <c r="I10" s="9">
-        <v>8.1722</v>
-      </c>
-      <c r="J10" s="9">
-        <v>10.14715</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0.488651535380507</v>
-      </c>
-      <c r="L10" s="9">
-        <v>-9.95459794764175</v>
-      </c>
-      <c r="M10" s="9">
-        <v>27</v>
-      </c>
-      <c r="N10" s="9">
-        <v>39</v>
-      </c>
-      <c r="O10" s="9">
+      <c r="N10" s="7">
+        <v>41</v>
+      </c>
+      <c r="O10" s="7">
+        <v>10</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:16">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="11">
+        <v>10.22</v>
+      </c>
+      <c r="G11" s="11">
+        <v>8.25</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.117808219178082</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1.8738</v>
+      </c>
+      <c r="J11" s="11">
+        <v>7.450963</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0.192759295499022</v>
+      </c>
+      <c r="L11" s="11">
+        <v>11.3824805153066</v>
+      </c>
+      <c r="M11" s="11">
+        <v>17</v>
+      </c>
+      <c r="N11" s="11">
+        <v>32</v>
+      </c>
+      <c r="O11" s="11">
+        <v>12</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0.705882352941177</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:16">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="7">
+        <v>91.01</v>
+      </c>
+      <c r="G12" s="7">
+        <v>10.96</v>
+      </c>
+      <c r="H12" s="7">
+        <v>3.58630136986301</v>
+      </c>
+      <c r="I12" s="7">
+        <v>6.323</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1.147891</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.879573673222723</v>
+      </c>
+      <c r="L12" s="7">
+        <v>89.8444841914211</v>
+      </c>
+      <c r="M12" s="7">
+        <v>20</v>
+      </c>
+      <c r="N12" s="7">
+        <v>22</v>
+      </c>
+      <c r="O12" s="7">
         <v>15</v>
       </c>
-      <c r="P10" s="9">
-        <v>0.555555555555556</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:16">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="7">
-        <v>16.32</v>
-      </c>
-      <c r="G11" s="7">
-        <v>6.25</v>
-      </c>
-      <c r="H11" s="7">
-        <v>2.8027397260274</v>
-      </c>
-      <c r="I11" s="7">
-        <v>32.6976</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0.529199</v>
-      </c>
-      <c r="K11" s="7">
-        <v>0.61703431372549</v>
-      </c>
-      <c r="L11" s="7">
-        <v>15.8634771412084</v>
-      </c>
-      <c r="M11" s="7">
-        <v>16</v>
-      </c>
-      <c r="N11" s="7">
-        <v>39</v>
-      </c>
-      <c r="O11" s="7">
-        <v>10</v>
-      </c>
-      <c r="P11" s="7">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:16">
-      <c r="A12" s="10">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="11">
-        <v>10.22</v>
-      </c>
-      <c r="G12" s="11">
-        <v>8.25</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0.117808219178082</v>
-      </c>
-      <c r="I12" s="11">
-        <v>1.8738</v>
-      </c>
-      <c r="J12" s="11">
-        <v>7.450963</v>
-      </c>
-      <c r="K12" s="11">
-        <v>0.192759295499022</v>
-      </c>
-      <c r="L12" s="11">
-        <v>10.8638940823268</v>
-      </c>
-      <c r="M12" s="11">
-        <v>16</v>
-      </c>
-      <c r="N12" s="11">
-        <v>30</v>
-      </c>
-      <c r="O12" s="11">
+      <c r="P12" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:16">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="P12" s="11">
-        <v>0.6875</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:16">
-      <c r="A13" s="6">
+      <c r="B13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="9">
+        <v>168.11</v>
+      </c>
+      <c r="G13" s="9">
+        <v>64.62</v>
+      </c>
+      <c r="H13" s="9">
+        <v>3.25753424657534</v>
+      </c>
+      <c r="I13" s="9">
+        <v>12.665</v>
+      </c>
+      <c r="J13" s="9">
+        <v>4.539255</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0.615608827553388</v>
+      </c>
+      <c r="L13" s="9">
+        <v>-2.09643103996043</v>
+      </c>
+      <c r="M13" s="9">
+        <v>19</v>
+      </c>
+      <c r="N13" s="9">
+        <v>22</v>
+      </c>
+      <c r="O13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="7">
-        <v>91.01</v>
-      </c>
-      <c r="G13" s="7">
-        <v>10.96</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3.58630136986301</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6.323</v>
-      </c>
-      <c r="J13" s="7">
-        <v>1.147891</v>
-      </c>
-      <c r="K13" s="7">
-        <v>0.879573673222723</v>
-      </c>
-      <c r="L13" s="7">
-        <v>71.3563190440638</v>
-      </c>
-      <c r="M13" s="7">
-        <v>18</v>
-      </c>
-      <c r="N13" s="7">
-        <v>20</v>
-      </c>
-      <c r="O13" s="7">
-        <v>13</v>
-      </c>
-      <c r="P13" s="7">
-        <v>0.722222222222222</v>
+      <c r="P13" s="9">
+        <v>0.578947368421053</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:16">
@@ -1971,37 +1966,37 @@
         <v>66</v>
       </c>
       <c r="F14" s="9">
-        <v>168.11</v>
+        <v>94.65</v>
       </c>
       <c r="G14" s="9">
-        <v>64.62</v>
+        <v>35.88</v>
       </c>
       <c r="H14" s="9">
-        <v>3.25753424657534</v>
+        <v>4.63561643835616</v>
       </c>
       <c r="I14" s="9">
-        <v>12.665</v>
+        <v>1.8556</v>
       </c>
       <c r="J14" s="9">
-        <v>4.539255</v>
+        <v>8.137309</v>
       </c>
       <c r="K14" s="9">
-        <v>0.615608827553388</v>
+        <v>0.620919175911252</v>
       </c>
       <c r="L14" s="9">
-        <v>-6.04799905264898</v>
+        <v>-5.41009744225677</v>
       </c>
       <c r="M14" s="9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N14" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O14" s="9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P14" s="9">
-        <v>0.529411764705882</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:16">
@@ -2021,87 +2016,844 @@
         <v>70</v>
       </c>
       <c r="F15" s="9">
+        <v>13.26</v>
+      </c>
+      <c r="G15" s="9">
+        <v>5.14</v>
+      </c>
+      <c r="H15" s="9">
+        <v>4.12328767123288</v>
+      </c>
+      <c r="I15" s="9">
+        <v>4.2803</v>
+      </c>
+      <c r="J15" s="9">
+        <v>4.142013</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.61236802413273</v>
+      </c>
+      <c r="L15" s="9">
+        <v>-0.610336440951329</v>
+      </c>
+      <c r="M15" s="9">
+        <v>2</v>
+      </c>
+      <c r="N15" s="9">
+        <v>22</v>
+      </c>
+      <c r="O15" s="9">
+        <v>1</v>
+      </c>
+      <c r="P15" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="6">
+        <v>0</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="7">
+        <v>13.29</v>
+      </c>
+      <c r="G19" s="7">
+        <v>3.94</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3.35616438356164</v>
+      </c>
+      <c r="I19" s="7">
+        <v>17.3699</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.585301</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.703536493604214</v>
+      </c>
+      <c r="L19" s="7">
+        <v>35.5127791477096</v>
+      </c>
+      <c r="M19" s="7">
+        <v>33</v>
+      </c>
+      <c r="N19" s="7">
+        <v>41</v>
+      </c>
+      <c r="O19" s="7">
+        <v>19</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0.575757575757576</v>
+      </c>
+      <c r="Q19" s="4">
+        <f>J19/K19</f>
+        <v>0.831941207486631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="8">
+        <v>1</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="9">
+        <v>11.28</v>
+      </c>
+      <c r="G20" s="9">
+        <v>8.8</v>
+      </c>
+      <c r="H20" s="9">
+        <v>3.00547945205479</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1.3935</v>
+      </c>
+      <c r="J20" s="9">
+        <v>35.111715</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0.219858156028369</v>
+      </c>
+      <c r="L20" s="9">
+        <v>4.82477510100893</v>
+      </c>
+      <c r="M20" s="9">
+        <v>18</v>
+      </c>
+      <c r="N20" s="9">
+        <v>41</v>
+      </c>
+      <c r="O20" s="9">
+        <v>11</v>
+      </c>
+      <c r="P20" s="9">
+        <v>0.611111111111111</v>
+      </c>
+      <c r="Q20" s="13">
+        <f t="shared" ref="Q20:Q32" si="0">J20/K20</f>
+        <v>159.701671451613</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="8">
+        <v>2</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="9">
+        <v>12.4</v>
+      </c>
+      <c r="G21" s="9">
+        <v>9.62</v>
+      </c>
+      <c r="H21" s="9">
+        <v>3.03287671232877</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0.3801</v>
+      </c>
+      <c r="J21" s="9">
+        <v>30.053794</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0.224193548387097</v>
+      </c>
+      <c r="L21" s="9">
+        <v>-0.731016050430313</v>
+      </c>
+      <c r="M21" s="9">
+        <v>18</v>
+      </c>
+      <c r="N21" s="9">
+        <v>41</v>
+      </c>
+      <c r="O21" s="9">
+        <v>7</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="Q21" s="13">
+        <f t="shared" si="0"/>
+        <v>134.052894100719</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="6">
+        <v>3</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="7">
+        <v>54.8</v>
+      </c>
+      <c r="G22" s="7">
+        <v>20.17</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.991780821917808</v>
+      </c>
+      <c r="I22" s="7">
+        <v>31.6442</v>
+      </c>
+      <c r="J22" s="7">
+        <v>2.06364</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0.631934306569343</v>
+      </c>
+      <c r="L22" s="7">
+        <v>13.715767658612</v>
+      </c>
+      <c r="M22" s="7">
+        <v>28</v>
+      </c>
+      <c r="N22" s="7">
+        <v>41</v>
+      </c>
+      <c r="O22" s="7">
+        <v>16</v>
+      </c>
+      <c r="P22" s="7">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="Q22" s="4">
+        <f t="shared" si="0"/>
+        <v>3.26559260756569</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="10">
+        <v>4</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="11">
+        <v>34.04</v>
+      </c>
+      <c r="G23" s="11">
+        <v>21.33</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0.978082191780822</v>
+      </c>
+      <c r="I23" s="11">
+        <v>17.7348</v>
+      </c>
+      <c r="J23" s="11">
+        <v>5.517917</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0.373384253819036</v>
+      </c>
+      <c r="L23" s="11">
+        <v>13.7950494155929</v>
+      </c>
+      <c r="M23" s="11">
+        <v>39</v>
+      </c>
+      <c r="N23" s="11">
+        <v>41</v>
+      </c>
+      <c r="O23" s="11">
+        <v>19</v>
+      </c>
+      <c r="P23" s="11">
+        <v>0.487179487179487</v>
+      </c>
+      <c r="Q23" s="13">
+        <f t="shared" si="0"/>
+        <v>14.7781191723053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="10">
+        <v>5</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="11">
+        <v>72.8</v>
+      </c>
+      <c r="G24" s="11">
+        <v>19.13</v>
+      </c>
+      <c r="H24" s="11">
+        <v>2.58356164383562</v>
+      </c>
+      <c r="I24" s="11">
+        <v>9.0809</v>
+      </c>
+      <c r="J24" s="11">
+        <v>1.23957</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0.737225274725275</v>
+      </c>
+      <c r="L24" s="11">
+        <v>39.5396924377554</v>
+      </c>
+      <c r="M24" s="11">
+        <v>13</v>
+      </c>
+      <c r="N24" s="11">
+        <v>41</v>
+      </c>
+      <c r="O24" s="11">
+        <v>8</v>
+      </c>
+      <c r="P24" s="11">
+        <v>0.615384615384615</v>
+      </c>
+      <c r="Q24" s="4">
+        <f t="shared" si="0"/>
+        <v>1.68139921743991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="10">
+        <v>6</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="11">
+        <v>52.94</v>
+      </c>
+      <c r="G25" s="11">
+        <v>14.98</v>
+      </c>
+      <c r="H25" s="11">
+        <v>2.41369863013699</v>
+      </c>
+      <c r="I25" s="11">
+        <v>15.0681</v>
+      </c>
+      <c r="J25" s="11">
+        <v>3.93337</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0.717038156403476</v>
+      </c>
+      <c r="L25" s="11">
+        <v>9.47454966795384</v>
+      </c>
+      <c r="M25" s="11">
+        <v>28</v>
+      </c>
+      <c r="N25" s="11">
+        <v>41</v>
+      </c>
+      <c r="O25" s="11">
+        <v>16</v>
+      </c>
+      <c r="P25" s="11">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="Q25" s="4">
+        <f t="shared" si="0"/>
+        <v>5.48557976290833</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="8">
+        <v>7</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="9">
+        <v>14.98</v>
+      </c>
+      <c r="G26" s="9">
+        <v>7.66</v>
+      </c>
+      <c r="H26" s="9">
+        <v>2.41643835616438</v>
+      </c>
+      <c r="I26" s="9">
+        <v>8.1722</v>
+      </c>
+      <c r="J26" s="9">
+        <v>10.14715</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0.488651535380507</v>
+      </c>
+      <c r="L26" s="9">
+        <v>-10.5222492110443</v>
+      </c>
+      <c r="M26" s="9">
+        <v>29</v>
+      </c>
+      <c r="N26" s="9">
+        <v>41</v>
+      </c>
+      <c r="O26" s="9">
+        <v>16</v>
+      </c>
+      <c r="P26" s="9">
+        <v>0.551724137931034</v>
+      </c>
+      <c r="Q26" s="13">
+        <f t="shared" si="0"/>
+        <v>20.7656157103825</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="6">
+        <v>8</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="7">
+        <v>16.32</v>
+      </c>
+      <c r="G27" s="7">
+        <v>6.25</v>
+      </c>
+      <c r="H27" s="7">
+        <v>2.8027397260274</v>
+      </c>
+      <c r="I27" s="7">
+        <v>32.6976</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0.529199</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0.61703431372549</v>
+      </c>
+      <c r="L27" s="7">
+        <v>15.8634771412084</v>
+      </c>
+      <c r="M27" s="7">
+        <v>16</v>
+      </c>
+      <c r="N27" s="7">
+        <v>41</v>
+      </c>
+      <c r="O27" s="7">
+        <v>10</v>
+      </c>
+      <c r="P27" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="Q27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.857649223435948</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="10">
+        <v>9</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="11">
+        <v>10.22</v>
+      </c>
+      <c r="G28" s="11">
+        <v>8.25</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0.117808219178082</v>
+      </c>
+      <c r="I28" s="11">
+        <v>1.8738</v>
+      </c>
+      <c r="J28" s="11">
+        <v>7.450963</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0.192759295499022</v>
+      </c>
+      <c r="L28" s="11">
+        <v>11.3824805153066</v>
+      </c>
+      <c r="M28" s="11">
+        <v>17</v>
+      </c>
+      <c r="N28" s="11">
+        <v>32</v>
+      </c>
+      <c r="O28" s="11">
+        <v>12</v>
+      </c>
+      <c r="P28" s="11">
+        <v>0.705882352941177</v>
+      </c>
+      <c r="Q28" s="13">
+        <f t="shared" si="0"/>
+        <v>38.6542344467005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="6">
+        <v>10</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="7">
+        <v>91.01</v>
+      </c>
+      <c r="G29" s="7">
+        <v>10.96</v>
+      </c>
+      <c r="H29" s="7">
+        <v>3.58630136986301</v>
+      </c>
+      <c r="I29" s="7">
+        <v>6.323</v>
+      </c>
+      <c r="J29" s="7">
+        <v>1.147891</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0.879573673222723</v>
+      </c>
+      <c r="L29" s="7">
+        <v>89.8444841914211</v>
+      </c>
+      <c r="M29" s="7">
+        <v>20</v>
+      </c>
+      <c r="N29" s="7">
+        <v>22</v>
+      </c>
+      <c r="O29" s="7">
+        <v>15</v>
+      </c>
+      <c r="P29" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="Q29" s="4">
+        <f t="shared" si="0"/>
+        <v>1.30505384022486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="8">
+        <v>11</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="9">
+        <v>168.11</v>
+      </c>
+      <c r="G30" s="9">
+        <v>64.62</v>
+      </c>
+      <c r="H30" s="9">
+        <v>3.25753424657534</v>
+      </c>
+      <c r="I30" s="9">
+        <v>12.665</v>
+      </c>
+      <c r="J30" s="9">
+        <v>4.539255</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0.615608827553388</v>
+      </c>
+      <c r="L30" s="9">
+        <v>-2.09643103996043</v>
+      </c>
+      <c r="M30" s="9">
+        <v>19</v>
+      </c>
+      <c r="N30" s="9">
+        <v>22</v>
+      </c>
+      <c r="O30" s="9">
+        <v>11</v>
+      </c>
+      <c r="P30" s="9">
+        <v>0.578947368421053</v>
+      </c>
+      <c r="Q30" s="14">
+        <f t="shared" si="0"/>
+        <v>7.37360284133733</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="8">
+        <v>12</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="9">
         <v>94.65</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G31" s="9">
         <v>35.88</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H31" s="9">
         <v>4.63561643835616</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I31" s="9">
         <v>1.8556</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J31" s="9">
         <v>8.137309</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K31" s="9">
         <v>0.620919175911252</v>
       </c>
-      <c r="L15" s="9">
-        <v>-3.25507952278419</v>
-      </c>
-      <c r="M15" s="9">
-        <v>14</v>
-      </c>
-      <c r="N15" s="9">
-        <v>20</v>
-      </c>
-      <c r="O15" s="9">
+      <c r="L31" s="9">
+        <v>-5.41009744225677</v>
+      </c>
+      <c r="M31" s="9">
+        <v>15</v>
+      </c>
+      <c r="N31" s="9">
+        <v>22</v>
+      </c>
+      <c r="O31" s="9">
         <v>5</v>
       </c>
-      <c r="P15" s="9">
-        <v>0.357142857142857</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="1:16">
-      <c r="A16" s="8">
-        <v>14</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="9">
+      <c r="P31" s="9">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q31" s="13">
+        <f t="shared" si="0"/>
+        <v>13.1052628356304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="8">
+        <v>13</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="9">
         <v>13.26</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G32" s="9">
         <v>5.14</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H32" s="9">
         <v>4.12328767123288</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I32" s="9">
         <v>4.2803</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J32" s="9">
         <v>4.142013</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K32" s="9">
         <v>0.61236802413273</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L32" s="9">
         <v>-0.610336440951329</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M32" s="9">
         <v>2</v>
       </c>
-      <c r="N16" s="9">
-        <v>20</v>
-      </c>
-      <c r="O16" s="9">
+      <c r="N32" s="9">
+        <v>22</v>
+      </c>
+      <c r="O32" s="9">
         <v>1</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P32" s="9">
         <v>0.5</v>
+      </c>
+      <c r="Q32" s="14">
+        <f t="shared" si="0"/>
+        <v>6.76392763300493</v>
       </c>
     </row>
   </sheetData>
